--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D9D831-2BC6-4A3E-B5FF-CFC0D5368E31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC35B4-4332-45EC-9933-B2054D974A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="23040" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Размер матрицы</t>
   </si>
@@ -69,12 +69,15 @@
   <si>
     <t>1500х1500</t>
   </si>
+  <si>
+    <t>Больше часа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +85,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,19 +116,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -125,6 +150,1283 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> размера матрицы от времени разложения</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Версия "В лоб"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.26185E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5188799999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0192799999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.3198400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.21163299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>18.706900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1551.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2863-44C5-8584-446688082C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Версия Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.0843300000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0891499999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.55759E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.3349E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.114909</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>11.7681</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>97.456000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>768.77800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2863-44C5-8584-446688082C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Версия Eigen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.1124900000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0281200000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5421499999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05619E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7759E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6885100000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1194500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5773100000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2863-44C5-8584-446688082C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540320912"/>
+        <c:axId val="540318992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540320912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> матрицы</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49901170529039318"/>
+              <c:y val="0.82617441258020619"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540318992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540318992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540320912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,6 +1923,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C6F08A-31BF-446E-89C1-EBBF2043775E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -890,7 +2228,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,14 +2245,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
@@ -932,8 +2270,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="3">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2.26185E-5</v>
@@ -941,13 +2279,22 @@
       <c r="C3" s="1">
         <v>9.9470000000000004E-14</v>
       </c>
+      <c r="D3" s="1">
+        <v>3.0843300000000003E-5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.5265099999999998E-14</v>
+      </c>
       <c r="F3" s="1">
         <v>4.1124900000000002E-6</v>
       </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="3">
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>2.5188799999999998E-5</v>
@@ -955,13 +2302,22 @@
       <c r="C4" s="1">
         <v>2.10964E-13</v>
       </c>
+      <c r="D4" s="1">
+        <v>5.0891499999999999E-5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4921399999999999E-13</v>
+      </c>
       <c r="F4" s="1">
         <v>1.0281200000000001E-5</v>
       </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="3">
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>8.0192799999999996E-5</v>
@@ -969,13 +2325,22 @@
       <c r="C5" s="1">
         <v>5.5156199999999997E-13</v>
       </c>
+      <c r="D5">
+        <v>1.55759E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.6665799999999999E-13</v>
+      </c>
       <c r="F5" s="1">
         <v>1.5421499999999999E-6</v>
       </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6" s="3">
+        <v>50</v>
       </c>
       <c r="B6">
         <v>1.3198400000000001E-2</v>
@@ -983,13 +2348,22 @@
       <c r="C6" s="1">
         <v>5.9907619999999998E-12</v>
       </c>
+      <c r="D6">
+        <v>1.3349E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.0513799999999996E-12</v>
+      </c>
       <c r="F6" s="1">
         <v>2.05619E-6</v>
       </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" s="3">
+        <v>100</v>
       </c>
       <c r="B7">
         <v>0.21163299999999999</v>
@@ -997,13 +2371,22 @@
       <c r="C7" s="1">
         <v>9.8398699999999993E-12</v>
       </c>
+      <c r="D7">
+        <v>0.114909</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.4011900000000001E-11</v>
+      </c>
       <c r="F7" s="1">
         <v>2.7759E-5</v>
       </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="3">
+        <v>300</v>
       </c>
       <c r="B8">
         <v>18.706900000000001</v>
@@ -1011,13 +2394,22 @@
       <c r="C8" s="1">
         <v>1.1290000000000001E-10</v>
       </c>
+      <c r="D8">
+        <v>11.7681</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.1564E-11</v>
+      </c>
       <c r="F8" s="1">
         <v>2.6885100000000002E-4</v>
       </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9" s="3">
+        <v>500</v>
       </c>
       <c r="B9">
         <v>158</v>
@@ -1025,13 +2417,22 @@
       <c r="C9" s="1">
         <v>2.7636899999999999E-10</v>
       </c>
+      <c r="D9">
+        <v>97.456000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.0140600000000001E-10</v>
+      </c>
       <c r="F9" s="1">
         <v>2.1194500000000002E-3</v>
       </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="A10" s="3">
+        <v>800</v>
       </c>
       <c r="B10">
         <v>1551.99</v>
@@ -1039,29 +2440,57 @@
       <c r="C10" s="1">
         <v>5.0763299999999996E-10</v>
       </c>
+      <c r="D10">
+        <v>768.77800000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.6068999999999995E-10</v>
+      </c>
       <c r="F10" s="1">
         <v>3.5773100000000002E-3</v>
       </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="G12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC35B4-4332-45EC-9933-B2054D974A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2CC87-E09D-4A63-AD85-276EF0B0E956}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Размер матрицы</t>
   </si>
   <si>
     <t>Версия "в лоб"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время, с </t>
-  </si>
-  <si>
-    <t>Версия Z</t>
   </si>
   <si>
     <t>Версия Eigen</t>
@@ -72,6 +66,18 @@
   <si>
     <t>Больше часа</t>
   </si>
+  <si>
+    <t xml:space="preserve">Время разложения, с </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время вычисления Q, с </t>
+  </si>
+  <si>
+    <t>Версия RowHouse</t>
+  </si>
+  <si>
+    <t>Версия с обратным накоплением</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,10 +132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,7 +141,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -191,12 +214,34 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> размера матрицы от времени разложения</a:t>
+              <a:t> времени разложения</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>от </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>размера матрицы</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17622164048865618"/>
+          <c:y val="3.5173160173160176E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -233,10 +278,324 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Версия "В лоб"</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1967899999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1871500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9167900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4589600000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7373499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.6023099999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2863-44C5-8584-446688082C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия с обратным накоплением</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5935800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0329300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5751000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0187E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.63003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.22037100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.08836</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.2556700000000003</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>275.92200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9C9-4BFA-BE6B-CFDA76AA03D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия RowHouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7477900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.93012E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0096399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.07062E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1945599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.244342</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1552199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.7933300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2863-44C5-8584-446688082C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия "в лоб"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -302,28 +661,28 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.26185E-5</c:v>
+                  <c:v>1.1823300000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5188799999999998E-5</c:v>
+                  <c:v>3.2385599999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0192799999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>1.3198400000000001E-2</c:v>
+                  <c:v>1.11036E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9615639999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.21163299999999999</c:v>
+                  <c:v>0.118298</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>18.706900000000001</c:v>
+                  <c:v>8.6886600000000005</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>158</c:v>
+                  <c:v>103.348</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>1551.99</c:v>
+                  <c:v>1390.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,212 +691,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2863-44C5-8584-446688082C71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Версия Z</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.0843300000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0891499999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.55759E-4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>1.3349E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.114909</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>11.7681</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>97.456000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>768.77800000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2863-44C5-8584-446688082C71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Версия Eigen</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.1124900000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0281200000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5421499999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.05619E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7759E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6885100000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1194500000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5773100000000002E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2863-44C5-8584-446688082C71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -610,8 +763,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49901170529039318"/>
-              <c:y val="0.82617441258020619"/>
+              <c:x val="0.46628911242115678"/>
+              <c:y val="0.86946454136414775"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -806,7 +959,885 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="73000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> времени вычисления матрицы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Q </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>от </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>размера матрицы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17622164048865618"/>
+          <c:y val="3.5173160173160176E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6265100000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6827399999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23374E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8146199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5980799999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35716E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.65449E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.954017</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.220556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B3C-4CFB-8A24-BA2D5544795A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия с обратным накоплением</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.86571E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.35406E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6446599999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7483100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3635400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>9.1995099999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.468615</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.1326599999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>266.53500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B3C-4CFB-8A24-BA2D5544795A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия RowHouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5462000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1823300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2666700000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8489400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.102795</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>9.5338700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>92.855999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>746.59199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B3C-4CFB-8A24-BA2D5544795A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия "в лоб"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5984000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6963899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8321300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1717600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.3141399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>11.2646</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>94.138000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>981.36199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5B3C-4CFB-8A24-BA2D5544795A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540320912"/>
+        <c:axId val="540318992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540320912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> матрицы</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46628911242115678"/>
+              <c:y val="0.86946454136414775"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540318992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540318992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540320912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="73000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -926,6 +1957,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1429,188 +2500,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="795154" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CFCC38-559C-478D-A99B-EC3029D281EA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2369820" y="190500"/>
-              <a:ext cx="795154" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:d>
-                      <m:dPr>
-                        <m:begChr m:val="‖"/>
-                        <m:endChr m:val="‖"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐴</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> −</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑄</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>∗</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑅</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CFCC38-559C-478D-A99B-EC3029D281EA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2369820" y="190500"/>
-              <a:ext cx="795154" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>‖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐴 −𝑄∗𝑅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>‖</a:t>
-              </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1925,16 +3322,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>975360</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1954,6 +3351,514 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33EE55E-9024-4C64-B836-EDB0E7D8B290}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2796540" y="190500"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33EE55E-9024-4C64-B836-EDB0E7D8B290}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2796540" y="190500"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7376EE41-D057-432B-977B-590C9E9CCBBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6263640" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7376EE41-D057-432B-977B-590C9E9CCBBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6263640" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88777047-04CB-4D24-9D1A-78AF895B3066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2225,272 +4130,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="6">
+        <v>1.1823300000000001E-5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.5984000000000001E-6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9.9470000000000004E-14</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.7477900000000001E-5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5.5462000000000004E-6</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8.5265099999999998E-14</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.5935800000000001E-5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.86571E-4</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4.2632600000000003E-14</v>
+      </c>
+      <c r="K3" s="6">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="L3" s="6">
+        <v>4.6265100000000004E-6</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.2385599999999997E-5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.6963899999999999E-5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.10964E-13</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.93012E-5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.1823300000000001E-5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.4921399999999999E-13</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3.0329300000000001E-5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4.35406E-4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.6342500000000001E-13</v>
+      </c>
+      <c r="K4" s="6">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="L4" s="6">
+        <v>6.6827399999999998E-6</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.11036E-4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.8321300000000001E-5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.5156199999999997E-13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.0096399999999998E-5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.2666700000000003E-5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5.6665799999999999E-13</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4.5751000000000003E-5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.6446599999999998E-4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2.5994599999999998E-13</v>
+      </c>
+      <c r="K5" s="6">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.23374E-5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.26185E-5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9.9470000000000004E-14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.0843300000000003E-5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8.5265099999999998E-14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4.1124900000000002E-6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9.9615639999999991E-3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6.1717600000000001E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.9907619999999998E-12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.07062E-3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5.8489400000000004E-3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6.0513799999999996E-12</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.0187E-3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.7483100000000001E-3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5.6153499999999999E-12</v>
+      </c>
+      <c r="K6" s="6">
+        <v>7.1967899999999996E-6</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1.8146199999999999E-4</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.5188799999999998E-5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.10964E-13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.0891499999999999E-5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.4921399999999999E-13</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0281200000000001E-5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.118298</v>
+      </c>
+      <c r="C7" s="9">
+        <v>9.3141399999999999E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9.8398699999999993E-12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.1945599999999999E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.102795</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.4011900000000001E-11</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.63003E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>9.3635400000000001E-3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3.4472899999999999E-11</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3.1871500000000001E-5</v>
+      </c>
+      <c r="L7" s="6">
+        <v>5.5980799999999996E-4</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8.6886600000000005</v>
+      </c>
+      <c r="C8" s="9">
+        <v>11.2646</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.1290000000000001E-10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.244342</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.5338700000000003</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9.1564E-11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.22037100000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9.1995099999999996E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>8.5905E-11</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5.9167900000000001E-4</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1.35716E-2</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>500</v>
+      </c>
+      <c r="B9" s="2">
+        <v>103.348</v>
+      </c>
+      <c r="C9" s="9">
+        <v>94.138000000000005</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.7636899999999999E-10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1552199999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>92.855999999999995</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3.0140600000000001E-10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.08836</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.468615</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4.4542200000000002E-10</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7.4589600000000002E-4</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2.65449E-2</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>800</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1390.83</v>
+      </c>
+      <c r="C10" s="9">
+        <v>981.36199999999997</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.0763299999999996E-10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.7933300000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>746.59199999999998</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5.6068999999999995E-10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.2556700000000003</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.1326599999999996</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5.2246000000000003E-9</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2.7373499999999999E-3</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.954017</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2">
+        <v>275.92200000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <v>266.53500000000003</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2.14322E-9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.6023099999999998E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.220556</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <v>8.0192799999999996E-5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.5156199999999997E-13</v>
-      </c>
-      <c r="D5">
-        <v>1.55759E-4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5.6665799999999999E-13</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.5421499999999999E-6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>1.3198400000000001E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.9907619999999998E-12</v>
-      </c>
-      <c r="D6">
-        <v>1.3349E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6.0513799999999996E-12</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.05619E-6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>0.21163299999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.8398699999999993E-12</v>
-      </c>
-      <c r="D7">
-        <v>0.114909</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.4011900000000001E-11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.7759E-5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>300</v>
-      </c>
-      <c r="B8">
-        <v>18.706900000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.1290000000000001E-10</v>
-      </c>
-      <c r="D8">
-        <v>11.7681</v>
-      </c>
-      <c r="E8" s="1">
-        <v>9.1564E-11</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.6885100000000002E-4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>500</v>
-      </c>
-      <c r="B9">
-        <v>158</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.7636899999999999E-10</v>
-      </c>
-      <c r="D9">
-        <v>97.456000000000003</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.0140600000000001E-10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.1194500000000002E-3</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>800</v>
-      </c>
-      <c r="B10">
-        <v>1551.99</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5.0763299999999996E-10</v>
-      </c>
-      <c r="D10">
-        <v>768.77800000000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5.6068999999999995E-10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.5773100000000002E-3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="G13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
+  <mergeCells count="5">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B11:G13"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2CC87-E09D-4A63-AD85-276EF0B0E956}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9666D31-0FB5-4E02-9752-D6B1BBDBC3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Май 2019" sheetId="1" r:id="rId1"/>
+    <sheet name="Декабрь 2019" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Размер матрицы</t>
   </si>
@@ -78,6 +79,9 @@
   <si>
     <t>Версия с обратным накоплением</t>
   </si>
+  <si>
+    <t>Ноут включен в розетку</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +122,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,14 +142,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -151,11 +158,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -282,7 +304,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>'Май 2019'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -317,7 +339,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -350,7 +372,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$11</c:f>
+              <c:f>'Май 2019'!$K$3:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -396,7 +418,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>'Май 2019'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -431,7 +453,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$11</c:f>
+              <c:f>'Май 2019'!$H$3:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -477,7 +499,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Май 2019'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,7 +534,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -545,7 +567,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:f>'Май 2019'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -588,7 +610,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Май 2019'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -623,7 +645,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -656,7 +678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:f>'Май 2019'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1156,7 +1178,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>'Май 2019'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1191,7 +1213,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1224,7 +1246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:f>'Май 2019'!$L$3:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1270,7 +1292,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>'Май 2019'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1305,7 +1327,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$11</c:f>
+              <c:f>'Май 2019'!$I$3:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1351,7 +1373,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Май 2019'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1386,7 +1408,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1419,7 +1441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$10</c:f>
+              <c:f>'Май 2019'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1462,7 +1484,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Май 2019'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1497,7 +1519,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$A$3,Sheet1!$A$4,Sheet1!$A$5,Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1530,7 +1552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:f>'Май 2019'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1565,6 +1587,1748 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5B3C-4CFB-8A24-BA2D5544795A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540320912"/>
+        <c:axId val="540318992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540320912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> матрицы</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46628911242115678"/>
+              <c:y val="0.86946454136414775"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540318992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540318992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540320912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="73000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> времени разложения</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>от </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>размера матрицы</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17622164048865618"/>
+          <c:y val="3.5173160173160176E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2019'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2019'!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1967899999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1871500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9167900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4589600000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7373499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.6023099999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3DF-4459-A5A6-0DD270DC460E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2019'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия с обратным накоплением</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2019'!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5935800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0329300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5751000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0187E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.63003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.22037100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.08836</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.2556700000000003</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>275.92200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3DF-4459-A5A6-0DD270DC460E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2019'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия RowHouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2019'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7477900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.93012E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0096399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.07062E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1945599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.244342</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1552199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.7933300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3DF-4459-A5A6-0DD270DC460E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2019'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия "в лоб"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2019'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1823300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2385599999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.11036E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9615639999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.118298</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>8.6886600000000005</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>103.348</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1390.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D3DF-4459-A5A6-0DD270DC460E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540320912"/>
+        <c:axId val="540318992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540320912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> матрицы</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46628911242115678"/>
+              <c:y val="0.86946454136414775"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540318992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540318992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540320912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="73000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> времени вычисления матрицы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Q </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>от </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>размера матрицы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17622164048865618"/>
+          <c:y val="3.5173160173160176E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2019'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2019'!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6265100000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6827399999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23374E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8146199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5980799999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35716E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.65449E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.954017</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.220556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE20-49B5-9E03-864FDDAAD041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2019'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия с обратным накоплением</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2019'!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.86571E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.35406E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6446599999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7483100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3635400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>9.1995099999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.468615</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.1326599999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>266.53500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE20-49B5-9E03-864FDDAAD041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2019'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия RowHouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2019'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5462000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1823300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2666700000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8489400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.102795</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>9.5338700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>92.855999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>746.59199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE20-49B5-9E03-864FDDAAD041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2019'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия "в лоб"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2019'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5984000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6963899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8321300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1717600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.3141399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>11.2646</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>94.138000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>981.36199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE20-49B5-9E03-864FDDAAD041}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1997,6 +3761,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2501,6 +4345,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3364,8 +6214,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="795154" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -3465,7 +6315,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -3536,8 +6386,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="795154" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3722,7 +6572,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3845,6 +6695,855 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88777047-04CB-4D24-9D1A-78AF895B3066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A436058-3472-4F3E-9B2A-8358F93A313D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6466114" y="185057"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A436058-3472-4F3E-9B2A-8358F93A313D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6466114" y="185057"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD2B4FF-1CA2-4BBD-835A-CDD324F1FEA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3600994" y="192677"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD2B4FF-1CA2-4BBD-835A-CDD324F1FEA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3600994" y="192677"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9231196A-F322-4D85-B1FF-FAA2EC1E5DA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9062357" y="185057"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9231196A-F322-4D85-B1FF-FAA2EC1E5DA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9062357" y="185057"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581296</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47897</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>4355</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B773A99C-7C8B-4438-BFBA-73264432F391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>364671</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>151312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D305314-A3E4-460B-9912-AFCDCFFEFF30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,8 +7831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4150,7 +7849,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -4172,76 +7871,76 @@
         <v>2</v>
       </c>
       <c r="L1" s="8"/>
-      <c r="M1" s="4"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1.1823300000000001E-5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>3.5984000000000001E-6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>9.9470000000000004E-14</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1.7477900000000001E-5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>5.5462000000000004E-6</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>8.5265099999999998E-14</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>1.5935800000000001E-5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>3.86571E-4</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>4.2632600000000003E-14</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>5.1405699999999996E-7</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>4.6265100000000004E-6</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4249,40 +7948,40 @@
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>3.2385599999999997E-5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1.6963899999999999E-5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2.10964E-13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>2.93012E-5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1.1823300000000001E-5</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1.4921399999999999E-13</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>3.0329300000000001E-5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>4.35406E-4</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>1.6342500000000001E-13</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>5.1405699999999996E-7</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>6.6827399999999998E-6</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4290,40 +7989,40 @@
       <c r="A5" s="1">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1.11036E-4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4.8321300000000001E-5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>5.5156199999999997E-13</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>4.0096399999999998E-5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>4.2666700000000003E-5</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>5.6665799999999999E-13</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>4.5751000000000003E-5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>3.6446599999999998E-4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>2.5994599999999998E-13</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>5.1405699999999996E-7</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>1.23374E-5</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4331,40 +8030,40 @@
       <c r="A6" s="1">
         <v>50</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9.9615639999999991E-3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>6.1717600000000001E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>5.9907619999999998E-12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2.07062E-3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>5.8489400000000004E-3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>6.0513799999999996E-12</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>2.0187E-3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>1.7483100000000001E-3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>5.6153499999999999E-12</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>7.1967899999999996E-6</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>1.8146199999999999E-4</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4375,37 +8074,37 @@
       <c r="B7" s="2">
         <v>0.118298</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>9.3141399999999999E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>9.8398699999999993E-12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2.1945599999999999E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.102795</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2.4011900000000001E-11</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>1.63003E-2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>9.3635400000000001E-3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>3.4472899999999999E-11</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>3.1871500000000001E-5</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>5.5980799999999996E-4</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4416,10 +8115,10 @@
       <c r="B8" s="2">
         <v>8.6886600000000005</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>11.2646</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1.1290000000000001E-10</v>
       </c>
       <c r="E8" s="2">
@@ -4428,7 +8127,7 @@
       <c r="F8" s="2">
         <v>9.5338700000000003</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>9.1564E-11</v>
       </c>
       <c r="H8" s="2">
@@ -4437,16 +8136,16 @@
       <c r="I8" s="2">
         <v>9.1995099999999996E-2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>8.5905E-11</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>5.9167900000000001E-4</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>1.35716E-2</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4457,10 +8156,10 @@
       <c r="B9" s="2">
         <v>103.348</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>94.138000000000005</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2.7636899999999999E-10</v>
       </c>
       <c r="E9" s="2">
@@ -4469,7 +8168,7 @@
       <c r="F9" s="2">
         <v>92.855999999999995</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>3.0140600000000001E-10</v>
       </c>
       <c r="H9" s="2">
@@ -4478,16 +8177,16 @@
       <c r="I9" s="2">
         <v>0.468615</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>4.4542200000000002E-10</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>7.4589600000000002E-4</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>2.65449E-2</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4498,10 +8197,10 @@
       <c r="B10" s="2">
         <v>1390.83</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>981.36199999999997</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>5.0763299999999996E-10</v>
       </c>
       <c r="E10" s="2">
@@ -4510,7 +8209,7 @@
       <c r="F10" s="2">
         <v>746.59199999999998</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>5.6068999999999995E-10</v>
       </c>
       <c r="H10" s="2">
@@ -4519,16 +8218,16 @@
       <c r="I10" s="2">
         <v>4.1326599999999996</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>5.2246000000000003E-9</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>2.7373499999999999E-3</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>0.954017</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4536,21 +8235,21 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="2">
         <v>275.92200000000003</v>
       </c>
       <c r="I11" s="2">
         <v>266.53500000000003</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>2.14322E-9</v>
       </c>
       <c r="K11" s="2">
@@ -4559,7 +8258,7 @@
       <c r="L11" s="2">
         <v>0.220556</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4567,18 +8266,18 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4586,18 +8285,18 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4613,4 +8312,517 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0685665-D5BD-49CE-A74B-94616AF55A0A}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10:R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.1823300000000001E-5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.24E-5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9.9470000000000004E-14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.5462000000000004E-6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8.5265099999999998E-14</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.0499999999999999E-5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6.7000000000000002E-6</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4.2632600000000003E-14</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="L3" s="5">
+        <v>4.6265100000000004E-6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.1199999999999999E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.6963899999999999E-5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.10964E-13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.5299999999999999E-5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.1823300000000001E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.4921399999999999E-13</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.9400000000000001E-5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.6342500000000001E-13</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="L4" s="5">
+        <v>6.6827399999999998E-6</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8.1500000000000002E-5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.8321300000000001E-5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.5156199999999997E-13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.0299999999999999E-5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.2666700000000003E-5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.6665799999999999E-13</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.0100000000000001E-5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2.3300000000000001E-5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2.5994599999999998E-13</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.23374E-5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.23108E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.1717600000000001E-3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.9907619999999998E-12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.6680000000000002E-4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5.8489400000000004E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6.0513799999999996E-12</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.6539999999999998E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7.115E-4</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5.6153499999999999E-12</v>
+      </c>
+      <c r="K6" s="5">
+        <v>7.1967899999999996E-6</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.8146199999999999E-4</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.118298</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9.3141399999999999E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.8398699999999993E-12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.5863000000000002E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.7180299999999997E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.4011900000000001E-11</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3.7756E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.0531E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3.4472899999999999E-11</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3.1871500000000001E-5</v>
+      </c>
+      <c r="L7" s="5">
+        <v>5.5980799999999996E-4</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8.6886600000000005</v>
+      </c>
+      <c r="C8" s="7">
+        <v>11.2646</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.1290000000000001E-10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.5148099999999997E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8.7376299999999993</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.1564E-11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.4698099999999998E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.3070299999999997E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>8.5905E-11</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5.9167900000000001E-4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.35716E-2</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>500</v>
+      </c>
+      <c r="B9" s="2">
+        <v>103.348</v>
+      </c>
+      <c r="C9" s="7">
+        <v>94.138000000000005</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.7636899999999999E-10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.21698400000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>90.43</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.0140600000000001E-10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.20069400000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.13264500000000001</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4.4542200000000002E-10</v>
+      </c>
+      <c r="K9" s="5">
+        <v>7.4589600000000002E-4</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2.65449E-2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>800</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1390.83</v>
+      </c>
+      <c r="C10" s="7">
+        <v>981.36199999999997</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.0763299999999996E-10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.96070900000000004</v>
+      </c>
+      <c r="F10" s="2">
+        <v>684.22400000000005</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.6068999999999995E-10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.95989599999999997</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.61362799999999995</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5.2246000000000003E-9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2.7373499999999999E-3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.954017</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <v>2.7118699999999998</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1.4758500000000001</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2.14322E-9</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1.6023099999999998E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.220556</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="12">
+        <v>14.2468</v>
+      </c>
+      <c r="I12" s="12">
+        <v>7.7911700000000002</v>
+      </c>
+      <c r="J12" s="13">
+        <v>9.1887000000000007E-9</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1.5067199999999999E-2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.61982400000000004</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="12">
+        <v>55.0503</v>
+      </c>
+      <c r="I13" s="12">
+        <v>23.427900000000001</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2.7700000000000002E-9</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1.48713E-2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1.78952</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B11:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9666D31-0FB5-4E02-9752-D6B1BBDBC3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4536E9ED-69A5-4D13-9ECC-3F2C907E9095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Май 2019" sheetId="1" r:id="rId1"/>
     <sheet name="Декабрь 2019" sheetId="2" r:id="rId2"/>
+    <sheet name="Декабрь 2019 - Intel" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
   <si>
     <t>Размер матрицы</t>
   </si>
@@ -81,6 +82,9 @@
   </si>
   <si>
     <t>Ноут включен в розетку</t>
+  </si>
+  <si>
+    <t>Улучшенная версия</t>
   </si>
 </sst>
 </file>
@@ -142,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -161,12 +165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,6 +175,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1939,1748 +1958,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График зависимости</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> времени разложения</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>от </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>размера матрицы</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17622164048865618"/>
-          <c:y val="3.5173160173160176E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Май 2019'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Версия Eigen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Май 2019'!$K$3:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.1405699999999996E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1405699999999996E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1405699999999996E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1967899999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1871500000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9167900000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4589600000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7373499999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.6023099999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3DF-4459-A5A6-0DD270DC460E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Май 2019'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Версия с обратным накоплением</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Май 2019'!$H$3:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.5935800000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0329300000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5751000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0187E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.63003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.22037100000000001</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.08836</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>5.2556700000000003</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>275.92200000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D3DF-4459-A5A6-0DD270DC460E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Май 2019'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Версия RowHouse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Май 2019'!$E$3:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.7477900000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.93012E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0096399999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.07062E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1945599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.244342</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.1552199999999999</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>6.7933300000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D3DF-4459-A5A6-0DD270DC460E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Май 2019'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Версия "в лоб"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Май 2019'!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.1823300000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2385599999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.11036E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9615639999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.118298</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>8.6886600000000005</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>103.348</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1390.83</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D3DF-4459-A5A6-0DD270DC460E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="540320912"/>
-        <c:axId val="540318992"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="540320912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Размер</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> матрицы</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46628911242115678"/>
-              <c:y val="0.86946454136414775"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="540318992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="540318992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Время,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> с</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="540320912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:alpha val="73000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График зависимости</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> времени вычисления матрицы </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Q </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>от </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>размера матрицы</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> A</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17622164048865618"/>
-          <c:y val="3.5173160173160176E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Май 2019'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Версия Eigen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Май 2019'!$L$3:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.6265100000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6827399999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.23374E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8146199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5980799999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.35716E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.65449E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.954017</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.220556</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE20-49B5-9E03-864FDDAAD041}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Май 2019'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Версия с обратным накоплением</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Май 2019'!$I$3:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.86571E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.35406E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6446599999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7483100000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.3635400000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>9.1995099999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.468615</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>4.1326599999999996</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>266.53500000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE20-49B5-9E03-864FDDAAD041}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Май 2019'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Версия RowHouse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Май 2019'!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.5462000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1823300000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2666700000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8489400000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.102795</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>9.5338700000000003</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>92.855999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>746.59199999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AE20-49B5-9E03-864FDDAAD041}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Май 2019'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Версия "в лоб"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>('Май 2019'!$A$3,'Май 2019'!$A$4,'Май 2019'!$A$5,'Май 2019'!$A$6,'Май 2019'!$A$7,'Май 2019'!$A$8,'Май 2019'!$A$9,'Май 2019'!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Май 2019'!$C$3:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.5984000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6963899999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8321300000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1717600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>9.3141399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>11.2646</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>94.138000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>981.36199999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE20-49B5-9E03-864FDDAAD041}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="540320912"/>
-        <c:axId val="540318992"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="540320912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Размер</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> матрицы</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46628911242115678"/>
-              <c:y val="0.86946454136414775"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="540318992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="540318992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Время,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> с</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="540320912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:alpha val="73000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3722,86 +1999,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4345,1012 +2542,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7487,82 +4678,1375 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581296</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>47897</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>4355</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B773A99C-7C8B-4438-BFBA-73264432F391}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AE4C7C-B494-4921-8071-A1C4BCD09C0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7772400" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AE4C7C-B494-4921-8071-A1C4BCD09C0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7772400" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>364671</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>151312</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D305314-A3E4-460B-9912-AFCDCFFEFF30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD285906-7BF0-410F-B37B-79DA25D963C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5219700" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD285906-7BF0-410F-B37B-79DA25D963C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5219700" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61A9684-D05A-486D-BE9D-737F9F42CA07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2781300" y="190500"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61A9684-D05A-486D-BE9D-737F9F42CA07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2781300" y="190500"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7794895-64B8-48D1-81C0-F61DB08356BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7772400" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7794895-64B8-48D1-81C0-F61DB08356BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7772400" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795154" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E51B3C-9834-44F9-9295-089031350C15}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10447020" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="‖"/>
+                        <m:endChr m:val="‖"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uLnTx/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E51B3C-9834-44F9-9295-089031350C15}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10447020" y="182880"/>
+              <a:ext cx="795154" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>‖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴 −𝑄∗𝑅‖</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7852,25 +6336,25 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -8235,14 +6719,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="2">
         <v>275.92200000000003</v>
       </c>
@@ -8266,12 +6750,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -8285,12 +6769,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -8316,10 +6800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0685665-D5BD-49CE-A74B-94616AF55A0A}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:R10"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8332,37 +6816,42 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="10" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="3"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
@@ -8390,9 +6879,16 @@
       <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -8424,16 +6920,25 @@
         <v>4.2632600000000003E-14</v>
       </c>
       <c r="K3" s="5">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2.7999999999999999E-6</v>
+      </c>
+      <c r="M3" s="5">
+        <v>4.2600000000000003E-14</v>
+      </c>
+      <c r="N3" s="5">
         <v>5.1405699999999996E-7</v>
       </c>
-      <c r="L3" s="5">
+      <c r="O3" s="5">
         <v>4.6265100000000004E-6</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -8465,16 +6970,25 @@
         <v>1.6342500000000001E-13</v>
       </c>
       <c r="K4" s="5">
+        <v>7.6000000000000001E-6</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3.5999999999999998E-6</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.6300000000000001E-13</v>
+      </c>
+      <c r="N4" s="5">
         <v>5.1405699999999996E-7</v>
       </c>
-      <c r="L4" s="5">
+      <c r="O4" s="5">
         <v>6.6827399999999998E-6</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -8506,16 +7020,25 @@
         <v>2.5994599999999998E-13</v>
       </c>
       <c r="K5" s="5">
+        <v>1.1600000000000001E-5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.5900000000000001E-13</v>
+      </c>
+      <c r="N5" s="5">
         <v>5.1405699999999996E-7</v>
       </c>
-      <c r="L5" s="5">
+      <c r="O5" s="5">
         <v>1.23374E-5</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -8547,16 +7070,25 @@
         <v>5.6153499999999999E-12</v>
       </c>
       <c r="K6" s="5">
+        <v>3.882E-4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.5770000000000001E-4</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5.6153499999999999E-12</v>
+      </c>
+      <c r="N6" s="5">
         <v>7.1967899999999996E-6</v>
       </c>
-      <c r="L6" s="5">
+      <c r="O6" s="5">
         <v>1.8146199999999999E-4</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -8588,16 +7120,25 @@
         <v>3.4472899999999999E-11</v>
       </c>
       <c r="K7" s="5">
+        <v>3.3379E-3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6.0349999999999998E-4</v>
+      </c>
+      <c r="M7" s="5">
+        <v>3.4472899999999999E-11</v>
+      </c>
+      <c r="N7" s="5">
         <v>3.1871500000000001E-5</v>
       </c>
-      <c r="L7" s="5">
+      <c r="O7" s="5">
         <v>5.5980799999999996E-4</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>300</v>
       </c>
@@ -8629,16 +7170,25 @@
         <v>8.5905E-11</v>
       </c>
       <c r="K8" s="5">
+        <v>4.5289900000000001E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.5436200000000001E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>8.5905E-11</v>
+      </c>
+      <c r="N8" s="5">
         <v>5.9167900000000001E-4</v>
       </c>
-      <c r="L8" s="5">
+      <c r="O8" s="5">
         <v>1.35716E-2</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>500</v>
       </c>
@@ -8670,16 +7220,25 @@
         <v>4.4542200000000002E-10</v>
       </c>
       <c r="K9" s="5">
+        <v>0.19828599999999999</v>
+      </c>
+      <c r="L9" s="5">
+        <v>7.0621799999999998E-2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>4.4542200000000002E-10</v>
+      </c>
+      <c r="N9" s="5">
         <v>7.4589600000000002E-4</v>
       </c>
-      <c r="L9" s="5">
+      <c r="O9" s="5">
         <v>2.65449E-2</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>800</v>
       </c>
@@ -8711,115 +7270,780 @@
         <v>5.2246000000000003E-9</v>
       </c>
       <c r="K10" s="5">
+        <v>0.934137</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.28099299999999999</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5.2199999999999998E-9</v>
+      </c>
+      <c r="N10" s="5">
         <v>2.7373499999999999E-3</v>
       </c>
-      <c r="L10" s="5">
+      <c r="O10" s="5">
         <v>0.954017</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="8">
         <v>2.7118699999999998</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>1.4758500000000001</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <v>2.14322E-9</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
+        <v>2.7679499999999999</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.77298699999999998</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2.1400000000000001E-9</v>
+      </c>
+      <c r="N11" s="8">
         <v>1.6023099999999998E-2</v>
       </c>
-      <c r="L11" s="10">
+      <c r="O11" s="8">
         <v>0.220556</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10">
         <v>14.2468</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>7.7911700000000002</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>9.1887000000000007E-9</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="14">
+        <v>14.378500000000001</v>
+      </c>
+      <c r="L12" s="14">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="M12" s="11">
+        <v>9.1887000000000007E-9</v>
+      </c>
+      <c r="N12" s="10">
         <v>1.5067199999999999E-2</v>
       </c>
-      <c r="L12" s="12">
+      <c r="O12" s="10">
         <v>0.61982400000000004</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="10">
         <v>55.0503</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>23.427900000000001</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <v>2.7700000000000002E-9</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="14">
+        <v>51.049100000000003</v>
+      </c>
+      <c r="L13" s="14">
+        <v>12.0718</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2.7707500000000002E-9</v>
+      </c>
+      <c r="N13" s="10">
         <v>1.48713E-2</v>
       </c>
-      <c r="L13" s="12">
+      <c r="O13" s="10">
         <v>1.78952</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B11:G13"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8AE75E-D8DE-41CB-9C06-25790D2D604D}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="12"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.16E-5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.4000000000000003E-6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.815E-14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.7699999999999999E-5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8.5265099999999998E-14</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.15E-5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.19E-5</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4.2631999999999997E-14</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2.2900000000000001E-5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.73E-5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>4.2631999999999997E-14</v>
+      </c>
+      <c r="N3" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4.6265100000000004E-6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.9499999999999999E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.9273500000000001E-13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.4399999999999999E-5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.4921399999999999E-13</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.34E-5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.56E-5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.6342500000000001E-13</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2.2099999999999998E-5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.3900000000000001E-5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.6342500000000001E-13</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="O4" s="5">
+        <v>6.6827399999999998E-6</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.6799999999999995E-5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.58E-5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.0691699999999999E-13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.06E-5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.6900000000000001E-5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.6600000000000001E-13</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.8099999999999999E-5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.6199999999999999E-5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2.5989999999999998E-13</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>7.7999999999999999E-6</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.5989999999999998E-13</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1.23374E-5</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.5637799999999999E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.3805599999999999E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.9788000000000002E-16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.4119999999999997E-4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.3606999999999999E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6.0513799999999996E-12</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6.043E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.1643999999999999E-3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5.6099999999999997E-12</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2.288E-4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.0679999999999999E-4</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5.6099999999999997E-12</v>
+      </c>
+      <c r="N6" s="5">
+        <v>7.1967899999999996E-6</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.8146199999999999E-4</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.219448</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.212339</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.18887E-11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.7951999999999999E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.21290200000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.4011900000000001E-11</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.1644400000000002E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.5534E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3.4399999999999999E-11</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3.7491999999999998E-3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.3692000000000001E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>3.4472899999999999E-11</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3.1871500000000001E-5</v>
+      </c>
+      <c r="O7" s="5">
+        <v>5.5980799999999996E-4</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2">
+        <v>18.374400000000001</v>
+      </c>
+      <c r="C8" s="7">
+        <v>18.6631</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.7573800000000006E-11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.0133400000000002E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19.081299999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.1499999999999994E-11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.1441199999999999E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.7374299999999999E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>8.5905E-11</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6.1409999999999999E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.9869100000000001E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>8.5905E-11</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5.9167900000000001E-4</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1.35716E-2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>500</v>
+      </c>
+      <c r="B9" s="2">
+        <v>187.053</v>
+      </c>
+      <c r="C9" s="7">
+        <v>173.83099999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.6441000000000002E-10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.22894999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>182.13399999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.0140600000000001E-10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.240979</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.15385699999999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4.4542200000000002E-10</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.22448100000000001</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8.0937099999999998E-2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>4.4542200000000002E-10</v>
+      </c>
+      <c r="N9" s="5">
+        <v>7.4589600000000002E-4</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2.65449E-2</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>800</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1433.13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1580.92</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.1062500000000005E-10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.30358</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1489.22</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.6066899999999998E-10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.1090800000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.06715</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5.2199999999999998E-9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1.10707</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.35893000000000003</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5.2199999999999998E-9</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2.7373499999999999E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.954017</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="8">
+        <v>3.2033499999999999</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2.3306800000000001</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2.14322E-9</v>
+      </c>
+      <c r="K11" s="18">
+        <v>3.0857899999999998</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0.85913700000000004</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2.1400000000000001E-9</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1.6023099999999998E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.220556</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15">
+        <v>16.512699999999999</v>
+      </c>
+      <c r="I12" s="15">
+        <v>9.5378900000000009</v>
+      </c>
+      <c r="J12" s="16">
+        <v>9.1887000000000007E-9</v>
+      </c>
+      <c r="K12" s="17">
+        <v>17.170200000000001</v>
+      </c>
+      <c r="L12" s="17">
+        <v>5.3643900000000002</v>
+      </c>
+      <c r="M12" s="16">
+        <v>9.1879999999999993E-9</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1.5067199999999999E-2</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.61982400000000004</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15">
+        <v>61.728200000000001</v>
+      </c>
+      <c r="I13" s="15">
+        <v>28.180399999999999</v>
+      </c>
+      <c r="J13" s="16">
+        <v>2.7707500000000002E-9</v>
+      </c>
+      <c r="K13" s="17">
+        <v>59.008699999999997</v>
+      </c>
+      <c r="L13" s="17">
+        <v>16.261700000000001</v>
+      </c>
+      <c r="M13" s="16">
+        <v>2.7700000000000002E-9</v>
+      </c>
+      <c r="N13" s="15">
+        <v>1.48713E-2</v>
+      </c>
+      <c r="O13" s="15">
+        <v>1.78952</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="B11:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4536E9ED-69A5-4D13-9ECC-3F2C907E9095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE6C4B7-8F5A-454D-9025-454D8974DBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11532" yWindow="4728" windowWidth="17280" windowHeight="8928" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Май 2019" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>Размер матрицы</t>
   </si>
@@ -86,6 +86,12 @@
   <si>
     <t>Улучшенная версия</t>
   </si>
+  <si>
+    <t>2500х2500</t>
+  </si>
+  <si>
+    <t>3000х3000</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -177,12 +183,6 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -198,6 +198,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4686,8 +4693,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="795154" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -4872,7 +4879,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -4989,8 +4996,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="795154" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5175,7 +5182,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5287,8 +5294,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="795154" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5388,7 +5395,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5459,8 +5466,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="795154" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5645,7 +5652,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5757,8 +5764,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="795154" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5943,7 +5950,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -6336,25 +6343,25 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -6719,14 +6726,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="2">
         <v>275.92200000000003</v>
       </c>
@@ -6750,12 +6757,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6769,12 +6776,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -6802,8 +6809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0685665-D5BD-49CE-A74B-94616AF55A0A}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6825,30 +6832,30 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="12"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -7070,10 +7077,10 @@
         <v>5.6153499999999999E-12</v>
       </c>
       <c r="K6" s="5">
-        <v>3.882E-4</v>
+        <v>2.609E-4</v>
       </c>
       <c r="L6" s="5">
-        <v>1.5770000000000001E-4</v>
+        <v>1.4119999999999999E-4</v>
       </c>
       <c r="M6" s="5">
         <v>5.6153499999999999E-12</v>
@@ -7120,7 +7127,7 @@
         <v>3.4472899999999999E-11</v>
       </c>
       <c r="K7" s="5">
-        <v>3.3379E-3</v>
+        <v>1.9356E-3</v>
       </c>
       <c r="L7" s="5">
         <v>6.0349999999999998E-4</v>
@@ -7279,10 +7286,10 @@
         <v>5.2199999999999998E-9</v>
       </c>
       <c r="N10" s="5">
-        <v>2.7373499999999999E-3</v>
+        <v>3.2009E-3</v>
       </c>
       <c r="O10" s="5">
-        <v>0.954017</v>
+        <v>0.11702600000000001</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>12</v>
@@ -7292,14 +7299,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="8">
         <v>2.7118699999999998</v>
       </c>
@@ -7319,7 +7326,7 @@
         <v>2.1400000000000001E-9</v>
       </c>
       <c r="N11" s="8">
-        <v>1.6023099999999998E-2</v>
+        <v>6.7016000000000003E-3</v>
       </c>
       <c r="O11" s="8">
         <v>0.220556</v>
@@ -7332,12 +7339,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="10">
         <v>14.2468</v>
       </c>
@@ -7347,20 +7354,20 @@
       <c r="J12" s="11">
         <v>9.1887000000000007E-9</v>
       </c>
-      <c r="K12" s="14">
-        <v>14.378500000000001</v>
-      </c>
-      <c r="L12" s="14">
-        <v>4.3559999999999999</v>
+      <c r="K12" s="12">
+        <v>12.4412</v>
+      </c>
+      <c r="L12" s="12">
+        <v>3.65876</v>
       </c>
       <c r="M12" s="11">
         <v>9.1887000000000007E-9</v>
       </c>
       <c r="N12" s="10">
-        <v>1.5067199999999999E-2</v>
+        <v>1.0216599999999999E-2</v>
       </c>
       <c r="O12" s="10">
-        <v>0.61982400000000004</v>
+        <v>0.72970100000000004</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>13</v>
@@ -7370,12 +7377,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="10">
         <v>55.0503</v>
       </c>
@@ -7385,28 +7392,66 @@
       <c r="J13" s="11">
         <v>2.7700000000000002E-9</v>
       </c>
-      <c r="K13" s="14">
-        <v>51.049100000000003</v>
-      </c>
-      <c r="L13" s="14">
-        <v>12.0718</v>
+      <c r="K13" s="12">
+        <v>46.853900000000003</v>
+      </c>
+      <c r="L13" s="12">
+        <v>12.398300000000001</v>
       </c>
       <c r="M13" s="11">
         <v>2.7707500000000002E-9</v>
       </c>
       <c r="N13" s="10">
-        <v>1.48713E-2</v>
+        <v>1.6899600000000001E-2</v>
       </c>
       <c r="O13" s="10">
-        <v>1.78952</v>
+        <v>1.55088</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>99.009600000000006</v>
+      </c>
+      <c r="L14">
+        <v>27.5044</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1.39248E-8</v>
+      </c>
+      <c r="N14">
+        <v>2.7291200000000002E-2</v>
+      </c>
+      <c r="O14">
+        <v>3.68268</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
+      </c>
+      <c r="K15">
+        <v>200.29900000000001</v>
+      </c>
+      <c r="L15">
+        <v>56.6432</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1.8726300000000001E-8</v>
+      </c>
+      <c r="N15">
+        <v>4.1715099999999998E-2</v>
+      </c>
+      <c r="O15">
+        <v>5.5577899999999998</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7427,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8AE75E-D8DE-41CB-9C06-25790D2D604D}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7453,30 +7498,30 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="12"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -7548,10 +7593,10 @@
         <v>4.2631999999999997E-14</v>
       </c>
       <c r="K3" s="5">
-        <v>2.2900000000000001E-5</v>
+        <v>1.19E-5</v>
       </c>
       <c r="L3" s="5">
-        <v>1.73E-5</v>
+        <v>1.79E-6</v>
       </c>
       <c r="M3" s="5">
         <v>4.2631999999999997E-14</v>
@@ -7598,10 +7643,10 @@
         <v>1.6342500000000001E-13</v>
       </c>
       <c r="K4" s="5">
-        <v>2.2099999999999998E-5</v>
+        <v>1.1E-5</v>
       </c>
       <c r="L4" s="5">
-        <v>1.3900000000000001E-5</v>
+        <v>3.7000000000000002E-6</v>
       </c>
       <c r="M4" s="5">
         <v>1.6342500000000001E-13</v>
@@ -7648,10 +7693,10 @@
         <v>2.5989999999999998E-13</v>
       </c>
       <c r="K5" s="5">
-        <v>1.6200000000000001E-5</v>
+        <v>1.4800000000000001E-5</v>
       </c>
       <c r="L5" s="5">
-        <v>7.7999999999999999E-6</v>
+        <v>7.4000000000000003E-6</v>
       </c>
       <c r="M5" s="5">
         <v>2.5989999999999998E-13</v>
@@ -7698,10 +7743,10 @@
         <v>5.6099999999999997E-12</v>
       </c>
       <c r="K6" s="5">
-        <v>2.288E-4</v>
+        <v>5.2800000000000004E-4</v>
       </c>
       <c r="L6" s="5">
-        <v>1.0679999999999999E-4</v>
+        <v>1.7990000000000001E-4</v>
       </c>
       <c r="M6" s="5">
         <v>5.6099999999999997E-12</v>
@@ -7748,10 +7793,10 @@
         <v>3.4399999999999999E-11</v>
       </c>
       <c r="K7" s="5">
-        <v>3.7491999999999998E-3</v>
+        <v>1.8575E-3</v>
       </c>
       <c r="L7" s="5">
-        <v>1.3692000000000001E-3</v>
+        <v>1.4858E-3</v>
       </c>
       <c r="M7" s="5">
         <v>3.4472899999999999E-11</v>
@@ -7798,10 +7843,10 @@
         <v>8.5905E-11</v>
       </c>
       <c r="K8" s="5">
-        <v>6.1409999999999999E-2</v>
+        <v>5.3864000000000002E-2</v>
       </c>
       <c r="L8" s="5">
-        <v>1.9869100000000001E-2</v>
+        <v>1.72602E-2</v>
       </c>
       <c r="M8" s="5">
         <v>8.5905E-11</v>
@@ -7848,10 +7893,10 @@
         <v>4.4542200000000002E-10</v>
       </c>
       <c r="K9" s="5">
-        <v>0.22448100000000001</v>
+        <v>0.23386799999999999</v>
       </c>
       <c r="L9" s="5">
-        <v>8.0937099999999998E-2</v>
+        <v>8.7204400000000001E-2</v>
       </c>
       <c r="M9" s="5">
         <v>4.4542200000000002E-10</v>
@@ -7898,10 +7943,10 @@
         <v>5.2199999999999998E-9</v>
       </c>
       <c r="K10" s="5">
-        <v>1.10707</v>
+        <v>1.1578200000000001</v>
       </c>
       <c r="L10" s="5">
-        <v>0.35893000000000003</v>
+        <v>0.72430899999999998</v>
       </c>
       <c r="M10" s="5">
         <v>5.2199999999999998E-9</v>
@@ -7920,14 +7965,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="8">
         <v>3.2033499999999999</v>
       </c>
@@ -7937,20 +7982,20 @@
       <c r="J11" s="9">
         <v>2.14322E-9</v>
       </c>
-      <c r="K11" s="18">
-        <v>3.0857899999999998</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0.85913700000000004</v>
+      <c r="K11" s="16">
+        <v>3.2008100000000002</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.87017800000000001</v>
       </c>
       <c r="M11" s="9">
         <v>2.1400000000000001E-9</v>
       </c>
-      <c r="N11" s="8">
-        <v>1.6023099999999998E-2</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0.220556</v>
+      <c r="N11" s="9">
+        <v>5.3112000000000003E-3</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.41685499999999998</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>10</v>
@@ -7960,35 +8005,35 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="15">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="13">
         <v>16.512699999999999</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>9.5378900000000009</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <v>9.1887000000000007E-9</v>
       </c>
-      <c r="K12" s="17">
-        <v>17.170200000000001</v>
-      </c>
-      <c r="L12" s="17">
-        <v>5.3643900000000002</v>
-      </c>
-      <c r="M12" s="16">
+      <c r="K12" s="15">
+        <v>14.9941</v>
+      </c>
+      <c r="L12" s="15">
+        <v>4.36022</v>
+      </c>
+      <c r="M12" s="14">
         <v>9.1879999999999993E-9</v>
       </c>
-      <c r="N12" s="15">
-        <v>1.5067199999999999E-2</v>
-      </c>
-      <c r="O12" s="15">
-        <v>0.61982400000000004</v>
+      <c r="N12" s="14">
+        <v>6.8512E-3</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.64228799999999997</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>13</v>
@@ -7998,53 +8043,91 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="15">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="13">
         <v>61.728200000000001</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <v>28.180399999999999</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <v>2.7707500000000002E-9</v>
       </c>
-      <c r="K13" s="17">
-        <v>59.008699999999997</v>
-      </c>
-      <c r="L13" s="17">
-        <v>16.261700000000001</v>
-      </c>
-      <c r="M13" s="16">
+      <c r="K13" s="15">
+        <v>54.605800000000002</v>
+      </c>
+      <c r="L13" s="15">
+        <v>15.3482</v>
+      </c>
+      <c r="M13" s="14">
         <v>2.7700000000000002E-9</v>
       </c>
-      <c r="N13" s="15">
-        <v>1.48713E-2</v>
-      </c>
-      <c r="O13" s="15">
-        <v>1.78952</v>
+      <c r="N13" s="14">
+        <v>1.2776900000000001E-2</v>
+      </c>
+      <c r="O13" s="13">
+        <v>2.3301099999999999</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="15">
+        <v>129.006</v>
+      </c>
+      <c r="L14" s="15">
+        <v>39.926600000000001</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1.39248E-8</v>
+      </c>
+      <c r="N14" s="14">
+        <v>4.0725699999999997E-2</v>
+      </c>
+      <c r="O14">
+        <v>5.4625199999999996</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="K15" s="15">
+        <v>277.86900000000003</v>
+      </c>
+      <c r="L15" s="15">
+        <v>74.784199999999998</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1.8726300000000001E-8</v>
+      </c>
+      <c r="N15" s="14">
+        <v>7.58992E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.8696699999999993</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B11:G13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B11:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE6C4B7-8F5A-454D-9025-454D8974DBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E665F-3BE4-4192-AC66-6C4CF07B7FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11532" yWindow="4728" windowWidth="17280" windowHeight="8928" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Май 2019" sheetId="1" r:id="rId1"/>
     <sheet name="Декабрь 2019" sheetId="2" r:id="rId2"/>
     <sheet name="Декабрь 2019 - Intel" sheetId="3" r:id="rId3"/>
+    <sheet name="Май 2020" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="38">
   <si>
     <t>Размер матрицы</t>
   </si>
@@ -92,12 +93,57 @@
   <si>
     <t>3000х3000</t>
   </si>
+  <si>
+    <t>Simple version</t>
+  </si>
+  <si>
+    <t>Size matrix</t>
+  </si>
+  <si>
+    <t>RowHouse version</t>
+  </si>
+  <si>
+    <t>Reverse accumulation version</t>
+  </si>
+  <si>
+    <t>Final version</t>
+  </si>
+  <si>
+    <t>Time of decomposition, s</t>
+  </si>
+  <si>
+    <t>Time of calculation Q, s</t>
+  </si>
+  <si>
+    <t>||A - Q * R||</t>
+  </si>
+  <si>
+    <t>Givens rotation</t>
+  </si>
+  <si>
+    <t>Parallel final version (2 threads)</t>
+  </si>
+  <si>
+    <t>Parallel final version (4 threads)</t>
+  </si>
+  <si>
+    <t>Parallel final version (8 threads)</t>
+  </si>
+  <si>
+    <t>Parallel Givens rotation (2 threads)</t>
+  </si>
+  <si>
+    <t>Parallel Givens rotation (8 threads)</t>
+  </si>
+  <si>
+    <t>Parallel Givens rotation (4 threads)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +158,24 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -152,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -198,13 +262,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6343,25 +6431,25 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="17"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -6726,14 +6814,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="2">
         <v>275.92200000000003</v>
       </c>
@@ -6757,12 +6845,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6776,12 +6864,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -6809,8 +6897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0685665-D5BD-49CE-A74B-94616AF55A0A}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:O15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="H11:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6832,30 +6920,30 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -7299,14 +7387,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="8">
         <v>2.7118699999999998</v>
       </c>
@@ -7339,12 +7427,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="10">
         <v>14.2468</v>
       </c>
@@ -7377,12 +7465,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="10">
         <v>55.0503</v>
       </c>
@@ -7418,7 +7506,7 @@
       <c r="L14">
         <v>27.5044</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>1.39248E-8</v>
       </c>
       <c r="N14">
@@ -7441,7 +7529,7 @@
       <c r="L15">
         <v>56.6432</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <v>1.8726300000000001E-8</v>
       </c>
       <c r="N15">
@@ -7472,7 +7560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8AE75E-D8DE-41CB-9C06-25790D2D604D}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -7498,30 +7586,30 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -7965,14 +8053,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="8">
         <v>3.2033499999999999</v>
       </c>
@@ -8005,12 +8093,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="13">
         <v>16.512699999999999</v>
       </c>
@@ -8043,12 +8131,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="13">
         <v>61.728200000000001</v>
       </c>
@@ -8084,7 +8172,7 @@
       <c r="L14" s="15">
         <v>39.926600000000001</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>1.39248E-8</v>
       </c>
       <c r="N14" s="14">
@@ -8107,7 +8195,7 @@
       <c r="L15" s="15">
         <v>74.784199999999998</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <v>1.8726300000000001E-8</v>
       </c>
       <c r="N15" s="14">
@@ -8122,14 +8210,1644 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="B11:G13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631FF516-5D68-4D3F-99AE-100C114DAEB5}">
+  <dimension ref="A1:AK15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="34" width="12.5546875" customWidth="1"/>
+    <col min="35" max="35" width="12" customWidth="1"/>
+    <col min="36" max="36" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="3"/>
+    </row>
+    <row r="2" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="3"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.1823300000000001E-5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.5984000000000001E-6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9.9470000000000004E-14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.7477900000000001E-5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.5462000000000004E-6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8.5265099999999998E-14</v>
+      </c>
+      <c r="H3" s="25">
+        <v>4.0100060000000003E-6</v>
+      </c>
+      <c r="I3" s="25">
+        <v>2.5100020000000002E-6</v>
+      </c>
+      <c r="J3" s="25">
+        <v>5.6843400000000001E-14</v>
+      </c>
+      <c r="K3" s="21">
+        <v>2.8499850000000005E-6</v>
+      </c>
+      <c r="L3" s="21">
+        <v>2.2899839999999997E-6</v>
+      </c>
+      <c r="M3" s="21">
+        <v>9.2370600000000007E-14</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1.7287999999999998E-4</v>
+      </c>
+      <c r="O3" s="21">
+        <v>3.6700130000000006E-6</v>
+      </c>
+      <c r="P3" s="21">
+        <v>1.0516023000000002E-13</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>5.0036000000000004E-4</v>
+      </c>
+      <c r="R3" s="21">
+        <v>8.3900009999999987E-6</v>
+      </c>
+      <c r="S3" s="21">
+        <v>2.84217E-14</v>
+      </c>
+      <c r="T3" s="21">
+        <v>7.3063000000000002E-4</v>
+      </c>
+      <c r="U3" s="21">
+        <v>1.43E-5</v>
+      </c>
+      <c r="V3" s="21">
+        <v>2.1316299999999998E-14</v>
+      </c>
+      <c r="W3" s="21">
+        <v>1.9699929999999998E-6</v>
+      </c>
+      <c r="X3" s="21">
+        <v>1.940007E-6</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>3.5527099999999999E-14</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>1.4944000000000001E-4</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>4.6200169999999996E-6</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>1.95399E-14</v>
+      </c>
+      <c r="AC3" s="25">
+        <v>4.2712000000000002E-4</v>
+      </c>
+      <c r="AD3" s="25">
+        <v>9.0900010000000005E-6</v>
+      </c>
+      <c r="AE3" s="25">
+        <v>2.84217E-14</v>
+      </c>
+      <c r="AF3" s="25">
+        <v>6.9978E-4</v>
+      </c>
+      <c r="AG3" s="25">
+        <v>1.3980002E-5</v>
+      </c>
+      <c r="AH3" s="25">
+        <v>2.84217E-14</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>4.6265100000000004E-6</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.2385599999999997E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.6963899999999999E-5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.10964E-13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.93012E-5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.1823300000000001E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.4921399999999999E-13</v>
+      </c>
+      <c r="H4" s="25">
+        <v>4.6300079999999999E-6</v>
+      </c>
+      <c r="I4" s="25">
+        <v>4.0499949999999998E-6</v>
+      </c>
+      <c r="J4" s="25">
+        <v>9.4146900000000011E-14</v>
+      </c>
+      <c r="K4" s="21">
+        <v>3.239995E-6</v>
+      </c>
+      <c r="L4" s="21">
+        <v>2.8399920000000005E-6</v>
+      </c>
+      <c r="M4" s="21">
+        <v>1.2789799999999997E-13</v>
+      </c>
+      <c r="N4" s="21">
+        <v>2.0561000000000001E-4</v>
+      </c>
+      <c r="O4" s="21">
+        <v>7.2999979999999999E-6</v>
+      </c>
+      <c r="P4" s="21">
+        <v>1.2079200000000003E-13</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>5.2807000000000006E-4</v>
+      </c>
+      <c r="R4" s="21">
+        <v>2.4079999999999996E-5</v>
+      </c>
+      <c r="S4" s="21">
+        <v>1.5276700000000002E-13</v>
+      </c>
+      <c r="T4" s="21">
+        <v>8.2848000000000004E-4</v>
+      </c>
+      <c r="U4" s="21">
+        <v>2.0430000000000003E-5</v>
+      </c>
+      <c r="V4" s="21">
+        <v>9.7699639999999992E-14</v>
+      </c>
+      <c r="W4" s="21">
+        <v>2.2699900000000004E-6</v>
+      </c>
+      <c r="X4" s="21">
+        <v>2.0999900000000004E-6</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>7.4606999999999995E-14</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>2.1140999999999998E-4</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>1.0489998000000001E-5</v>
+      </c>
+      <c r="AB4" s="25">
+        <v>5.6843400000000001E-14</v>
+      </c>
+      <c r="AC4" s="25">
+        <v>5.1576000000000009E-4</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>1.7159989999999998E-5</v>
+      </c>
+      <c r="AE4" s="25">
+        <v>9.2370600000000007E-14</v>
+      </c>
+      <c r="AF4" s="25">
+        <v>6.9713000000000002E-4</v>
+      </c>
+      <c r="AG4" s="25">
+        <v>3.9139979999999993E-5</v>
+      </c>
+      <c r="AH4" s="25">
+        <v>1.1901599999999997E-13</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>6.6827399999999998E-6</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.11036E-4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.8321300000000001E-5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.5156199999999997E-13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.0096399999999998E-5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.2666700000000003E-5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.6665799999999999E-13</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1.5570000000000002E-5</v>
+      </c>
+      <c r="I5" s="25">
+        <v>9.7300039999999993E-6</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1.8829400000000004E-13</v>
+      </c>
+      <c r="K5" s="21">
+        <v>5.3499999999999996E-6</v>
+      </c>
+      <c r="L5" s="21">
+        <v>4.1700089999999995E-6</v>
+      </c>
+      <c r="M5" s="21">
+        <v>2.7355900000000003E-13</v>
+      </c>
+      <c r="N5" s="21">
+        <v>2.2574999999999996E-4</v>
+      </c>
+      <c r="O5" s="21">
+        <v>2.5280000000000002E-5</v>
+      </c>
+      <c r="P5" s="21">
+        <v>7.2830600000000007E-13</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>4.7146999999999998E-4</v>
+      </c>
+      <c r="R5" s="21">
+        <v>2.6310009999999998E-5</v>
+      </c>
+      <c r="S5" s="21">
+        <v>2.6194619999999999E-13</v>
+      </c>
+      <c r="T5" s="21">
+        <v>8.4615000000000005E-4</v>
+      </c>
+      <c r="U5" s="21">
+        <v>4.3489999999999992E-5</v>
+      </c>
+      <c r="V5" s="21">
+        <v>1.4832599999999997E-13</v>
+      </c>
+      <c r="W5" s="21">
+        <v>3.5400179999999992E-6</v>
+      </c>
+      <c r="X5" s="21">
+        <v>3.189995E-6</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>2.154722E-13</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>2.2523000000000001E-4</v>
+      </c>
+      <c r="AA5" s="25">
+        <v>3.5620000000000001E-5</v>
+      </c>
+      <c r="AB5" s="25">
+        <v>1.8829400000000004E-13</v>
+      </c>
+      <c r="AC5" s="25">
+        <v>5.5161000000000012E-4</v>
+      </c>
+      <c r="AD5" s="25">
+        <v>6.1080000000000005E-5</v>
+      </c>
+      <c r="AE5" s="25">
+        <v>2.5424100000000006E-13</v>
+      </c>
+      <c r="AF5" s="25">
+        <v>8.4670000000000004E-4</v>
+      </c>
+      <c r="AG5" s="25">
+        <v>1.2645000000000001E-4</v>
+      </c>
+      <c r="AH5" s="25">
+        <v>2.2346530000000004E-13</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>1.23374E-5</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>9.9615639999999991E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.1717600000000001E-3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.9907619999999998E-12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.07062E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5.8489400000000004E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6.0513799999999996E-12</v>
+      </c>
+      <c r="H6" s="25">
+        <v>2.0761999999999999E-4</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1.9109999999999998E-4</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1.5525599999999997E-11</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1.8186E-4</v>
+      </c>
+      <c r="L6" s="21">
+        <v>9.2170000000000007E-5</v>
+      </c>
+      <c r="M6" s="21">
+        <v>3.0590000000000006E-12</v>
+      </c>
+      <c r="N6" s="21">
+        <v>6.3887999999999987E-4</v>
+      </c>
+      <c r="O6" s="21">
+        <v>2.2136999999999998E-4</v>
+      </c>
+      <c r="P6" s="21">
+        <v>6.6206400000000016E-12</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>8.9139999999999998E-4</v>
+      </c>
+      <c r="R6" s="21">
+        <v>1.9063000000000001E-4</v>
+      </c>
+      <c r="S6" s="21">
+        <v>4.2110799999999999E-12</v>
+      </c>
+      <c r="T6" s="21">
+        <v>1.42738E-3</v>
+      </c>
+      <c r="U6" s="21">
+        <v>2.7619E-4</v>
+      </c>
+      <c r="V6" s="21">
+        <v>4.9773500000000004E-12</v>
+      </c>
+      <c r="W6" s="21">
+        <v>1.1938000000000003E-4</v>
+      </c>
+      <c r="X6" s="21">
+        <v>1.0384999999999999E-4</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>2.6862999999999996E-12</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>1.19644E-3</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>9.7338000000000004E-4</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>3.6093400000000005E-12</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>1.8072400000000003E-3</v>
+      </c>
+      <c r="AD6" s="25">
+        <v>1.2449499999999999E-3</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>2.41007E-12</v>
+      </c>
+      <c r="AF6" s="25">
+        <v>3.1139000000000002E-3</v>
+      </c>
+      <c r="AG6" s="25">
+        <v>1.9921299999999999E-3</v>
+      </c>
+      <c r="AH6" s="25">
+        <v>3.2767699999999996E-12</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>7.1967899999999996E-6</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>1.8146199999999999E-4</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.118298</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9.3141399999999999E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.8398699999999993E-12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.1945599999999999E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.102795</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.4011900000000001E-11</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1.5918000000000002E-3</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1.85768E-3</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1.5669200000000003E-11</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1.5060399999999999E-3</v>
+      </c>
+      <c r="L7" s="21">
+        <v>5.6386999999999995E-4</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1.2192657000000001E-11</v>
+      </c>
+      <c r="N7" s="21">
+        <v>2.0453699999999999E-3</v>
+      </c>
+      <c r="O7" s="21">
+        <v>7.9510999999999991E-4</v>
+      </c>
+      <c r="P7" s="21">
+        <v>8.9938399999999996E-11</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>2.13298E-3</v>
+      </c>
+      <c r="R7" s="21">
+        <v>6.5547999999999995E-4</v>
+      </c>
+      <c r="S7" s="21">
+        <v>4.2786100000000006E-11</v>
+      </c>
+      <c r="T7" s="21">
+        <v>2.6131100000000001E-3</v>
+      </c>
+      <c r="U7" s="21">
+        <v>7.0198999999999988E-4</v>
+      </c>
+      <c r="V7" s="21">
+        <v>1.1276299999999999E-11</v>
+      </c>
+      <c r="W7" s="21">
+        <v>9.2265999999999984E-4</v>
+      </c>
+      <c r="X7" s="21">
+        <v>8.2498000000000001E-4</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>1.6523900000000004E-11</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>4.3796799999999995E-3</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>4.2454699999999995E-3</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>8.2910840000000001E-12</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>6.6119100000000004E-3</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>5.252129999999999E-3</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>9.3817120000000004E-12</v>
+      </c>
+      <c r="AF7" s="25">
+        <v>1.0441890000000001E-2</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>8.2815500000000004E-3</v>
+      </c>
+      <c r="AH7" s="25">
+        <v>7.7224900000000014E-12</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>3.1871500000000001E-5</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>5.5980799999999996E-4</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8.6886600000000005</v>
+      </c>
+      <c r="C8" s="7">
+        <v>11.2646</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.1290000000000001E-10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.244342</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.5338700000000003</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.1564E-11</v>
+      </c>
+      <c r="H8" s="25">
+        <v>4.1383219999999998E-2</v>
+      </c>
+      <c r="I8" s="25">
+        <v>4.4236560000000001E-2</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1.7393973999999998E-10</v>
+      </c>
+      <c r="K8" s="21">
+        <v>4.2257140000000006E-2</v>
+      </c>
+      <c r="L8" s="21">
+        <v>1.440369E-2</v>
+      </c>
+      <c r="M8" s="21">
+        <v>3.3384740000000014E-10</v>
+      </c>
+      <c r="N8" s="21">
+        <v>3.2262610000000004E-2</v>
+      </c>
+      <c r="O8" s="21">
+        <v>1.2195260000000001E-2</v>
+      </c>
+      <c r="P8" s="21">
+        <v>6.0305140000000009E-11</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>3.0979440000000004E-2</v>
+      </c>
+      <c r="R8" s="21">
+        <v>1.2673809999999999E-2</v>
+      </c>
+      <c r="S8" s="21">
+        <v>3.4650999999999997E-10</v>
+      </c>
+      <c r="T8" s="21">
+        <v>3.151495E-2</v>
+      </c>
+      <c r="U8" s="21">
+        <v>1.3025509999999999E-2</v>
+      </c>
+      <c r="V8" s="21">
+        <v>1.531828E-10</v>
+      </c>
+      <c r="W8" s="21">
+        <v>2.2875970000000002E-2</v>
+      </c>
+      <c r="X8" s="21">
+        <v>2.560366E-2</v>
+      </c>
+      <c r="Y8" s="21">
+        <v>5.5304019999999993E-11</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>4.8256779999999999E-2</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>4.828172E-2</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>5.0408750000000012E-11</v>
+      </c>
+      <c r="AC8" s="25">
+        <v>6.7867709999999998E-2</v>
+      </c>
+      <c r="AD8" s="25">
+        <v>6.2477590000000006E-2</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>7.9118499999999994E-11</v>
+      </c>
+      <c r="AF8" s="25">
+        <v>0.11726958999999999</v>
+      </c>
+      <c r="AG8" s="25">
+        <v>9.9625400000000003E-2</v>
+      </c>
+      <c r="AH8" s="25">
+        <v>7.1913640000000008E-11</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>5.9167900000000001E-4</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>1.35716E-2</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>500</v>
+      </c>
+      <c r="B9" s="2">
+        <v>103.348</v>
+      </c>
+      <c r="C9" s="7">
+        <v>94.138000000000005</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.7636899999999999E-10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1552199999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>92.855999999999995</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.0140600000000001E-10</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.19429210000000002</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.23212970000000005</v>
+      </c>
+      <c r="J9" s="25">
+        <v>3.5664010000000005E-10</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.26151679999999999</v>
+      </c>
+      <c r="L9" s="21">
+        <v>9.679169E-2</v>
+      </c>
+      <c r="M9" s="21">
+        <v>4.9554399999999996E-10</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0.21063710000000002</v>
+      </c>
+      <c r="O9" s="21">
+        <v>7.297352E-2</v>
+      </c>
+      <c r="P9" s="21">
+        <v>1.2390153000000003E-9</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0.17156290000000002</v>
+      </c>
+      <c r="R9" s="21">
+        <v>5.514525E-2</v>
+      </c>
+      <c r="S9" s="21">
+        <v>5.6542059999999988E-10</v>
+      </c>
+      <c r="T9" s="21">
+        <v>0.11978306000000001</v>
+      </c>
+      <c r="U9" s="21">
+        <v>4.2864959999999994E-2</v>
+      </c>
+      <c r="V9" s="21">
+        <v>7.6924530000000006E-10</v>
+      </c>
+      <c r="W9" s="21">
+        <v>0.12475550999999999</v>
+      </c>
+      <c r="X9" s="21">
+        <v>0.16624069999999996</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>1.3356710000000002E-10</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>0.22279840000000001</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>0.2411585</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>1.3917290000000002E-10</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>0.2720303</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>0.27175519999999997</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>1.3375992000000002E-10</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>0.36045330000000003</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>0.28426570000000001</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>1.5241849999999999E-10</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>7.4589600000000002E-4</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>2.65449E-2</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>800</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1390.83</v>
+      </c>
+      <c r="C10" s="7">
+        <v>981.36199999999997</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.0763299999999996E-10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.7933300000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>746.59199999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.6068999999999995E-10</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1.350023</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1.2035949000000001</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1.8259109E-9</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1.2579140000000002</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.35577700000000001</v>
+      </c>
+      <c r="M10" s="21">
+        <v>2.1505616000000002E-9</v>
+      </c>
+      <c r="N10" s="22">
+        <v>1.0046927999999999</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0.2556948</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1.8187392999999998E-9</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0.91835500000000025</v>
+      </c>
+      <c r="R10" s="21">
+        <v>0.21108399999999997</v>
+      </c>
+      <c r="S10" s="21">
+        <v>2.2960657999999998E-9</v>
+      </c>
+      <c r="T10" s="21">
+        <v>0.62664269999999989</v>
+      </c>
+      <c r="U10" s="21">
+        <v>0.14836390000000002</v>
+      </c>
+      <c r="V10" s="21">
+        <v>2.2229689000000003E-9</v>
+      </c>
+      <c r="W10" s="21">
+        <v>0.47960979999999998</v>
+      </c>
+      <c r="X10" s="21">
+        <v>0.63534380000000001</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>3.2512439999999997E-10</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>0.73753990000000003</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>0.72663729999999993</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>3.0919079999999999E-10</v>
+      </c>
+      <c r="AC10" s="25">
+        <v>0.57983170000000006</v>
+      </c>
+      <c r="AD10" s="25">
+        <v>0.94518739999999979</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>3.4333759999999993E-10</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>1.2706104</v>
+      </c>
+      <c r="AG10" s="24">
+        <v>0.80610619999999999</v>
+      </c>
+      <c r="AH10" s="27">
+        <v>2.4994600000000002E-10</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>2.7373499999999999E-3</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>0.954017</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="26">
+        <v>2.6423430000000003</v>
+      </c>
+      <c r="I11" s="26">
+        <v>2.5955400000000002</v>
+      </c>
+      <c r="J11" s="25">
+        <v>3.1048435999999993E-9</v>
+      </c>
+      <c r="K11" s="22">
+        <v>2.7046420000000002</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0.65508609999999989</v>
+      </c>
+      <c r="M11" s="21">
+        <v>3.7499769999999998E-9</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1.9414670000000001</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0.71419300000000008</v>
+      </c>
+      <c r="P11" s="21">
+        <v>3.78784E-9</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>2.5710450000000002</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0.62360119999999997</v>
+      </c>
+      <c r="S11" s="21">
+        <v>3.7358613999999992E-9</v>
+      </c>
+      <c r="T11" s="22">
+        <v>1.4879319999999998</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0.57488829999999991</v>
+      </c>
+      <c r="V11" s="21">
+        <v>3.4965768999999998E-9</v>
+      </c>
+      <c r="W11" s="22">
+        <v>1.0621858000000002</v>
+      </c>
+      <c r="X11" s="22">
+        <v>1.8652299999999999</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>3.869779000000001E-10</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>0.91932169999999991</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>1.5164439999999999</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>4.4220649999999999E-10</v>
+      </c>
+      <c r="AC11" s="26">
+        <v>1.1566935</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>1.8218910000000001</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>4.2700989999999998E-10</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>1.355567</v>
+      </c>
+      <c r="AG11" s="24">
+        <v>1.6395040000000001</v>
+      </c>
+      <c r="AH11" s="25">
+        <v>4.3982029999999993E-10</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>1.6023099999999998E-2</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0.220556</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="26">
+        <v>11.24198</v>
+      </c>
+      <c r="I12" s="26">
+        <v>9.4042440000000003</v>
+      </c>
+      <c r="J12" s="25">
+        <v>1.4214040000000002E-8</v>
+      </c>
+      <c r="K12" s="22">
+        <v>10.162519999999999</v>
+      </c>
+      <c r="L12" s="22">
+        <v>3.0627490000000006</v>
+      </c>
+      <c r="M12" s="21">
+        <v>1.0168492E-8</v>
+      </c>
+      <c r="N12" s="22">
+        <v>7.8731899999999992</v>
+      </c>
+      <c r="O12" s="22">
+        <v>2.0604439999999999</v>
+      </c>
+      <c r="P12" s="21">
+        <v>5.9254839999999997E-9</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>10.201370000000001</v>
+      </c>
+      <c r="R12" s="22">
+        <v>2.8095819999999998</v>
+      </c>
+      <c r="S12" s="21">
+        <v>1.2556378E-8</v>
+      </c>
+      <c r="T12" s="22">
+        <v>7.5034850000000004</v>
+      </c>
+      <c r="U12" s="22">
+        <v>2.1007340000000001</v>
+      </c>
+      <c r="V12" s="21">
+        <v>6.9041299999999994E-9</v>
+      </c>
+      <c r="W12" s="22">
+        <v>3.7236870000000004</v>
+      </c>
+      <c r="X12" s="22">
+        <v>6.3329899999999997</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>8.4261149999999991E-10</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>3.3818460000000004</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>5.4437170000000004</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>8.7568599999999986E-10</v>
+      </c>
+      <c r="AC12" s="26">
+        <v>3.8438959999999995</v>
+      </c>
+      <c r="AD12" s="26">
+        <v>5.4066169999999998</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>8.1779409999999999E-10</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>4.2978610000000002</v>
+      </c>
+      <c r="AG12" s="24">
+        <v>4.4006270000000001</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>7.2936330000000007E-10</v>
+      </c>
+      <c r="AI12" s="23">
+        <v>1.0216599999999999E-2</v>
+      </c>
+      <c r="AJ12" s="23">
+        <v>0.72970100000000004</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="26">
+        <v>42.456640000000007</v>
+      </c>
+      <c r="I13" s="26">
+        <v>25.675560000000001</v>
+      </c>
+      <c r="J13" s="25">
+        <v>1.2554073E-8</v>
+      </c>
+      <c r="K13" s="22">
+        <v>39.418820000000004</v>
+      </c>
+      <c r="L13" s="22">
+        <v>9.8345209999999987</v>
+      </c>
+      <c r="M13" s="21">
+        <v>2.3312933999999997E-8</v>
+      </c>
+      <c r="N13" s="22">
+        <v>30.10097</v>
+      </c>
+      <c r="O13" s="22">
+        <v>7.754302</v>
+      </c>
+      <c r="P13" s="21">
+        <v>9.9354510000000008E-9</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>27.26943</v>
+      </c>
+      <c r="R13" s="22">
+        <v>8.0003139999999995</v>
+      </c>
+      <c r="S13" s="21">
+        <v>1.8247942E-8</v>
+      </c>
+      <c r="T13" s="22">
+        <v>19.20551</v>
+      </c>
+      <c r="U13" s="22">
+        <v>5.5628100000000007</v>
+      </c>
+      <c r="V13" s="21">
+        <v>2.8571777999999998E-8</v>
+      </c>
+      <c r="W13" s="22">
+        <v>9.1218960000000013</v>
+      </c>
+      <c r="X13" s="22">
+        <v>21.12013</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>1.1613499999999999E-9</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>7.3899599999999994</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>13.40564</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>1.2215404E-9</v>
+      </c>
+      <c r="AC13" s="26">
+        <v>8.1126479999999983</v>
+      </c>
+      <c r="AD13" s="26">
+        <v>12.967790000000003</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>1.3218226000000003E-9</v>
+      </c>
+      <c r="AF13" s="24">
+        <v>9.2423479999999998</v>
+      </c>
+      <c r="AG13" s="24">
+        <v>10.455732000000001</v>
+      </c>
+      <c r="AH13" s="25">
+        <v>1.4035212000000001E-9</v>
+      </c>
+      <c r="AI13" s="23">
+        <v>1.6899600000000001E-2</v>
+      </c>
+      <c r="AJ13" s="23">
+        <v>1.55088</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="26">
+        <v>87.889690000000002</v>
+      </c>
+      <c r="I14" s="26">
+        <v>52.042259999999999</v>
+      </c>
+      <c r="J14" s="25">
+        <v>2.0639507E-8</v>
+      </c>
+      <c r="K14" s="22">
+        <v>84.328000000000003</v>
+      </c>
+      <c r="L14" s="22">
+        <v>22.54166</v>
+      </c>
+      <c r="M14" s="21">
+        <v>4.3029878000000003E-8</v>
+      </c>
+      <c r="N14" s="22">
+        <v>64.133580000000009</v>
+      </c>
+      <c r="O14" s="22">
+        <v>17.519190000000002</v>
+      </c>
+      <c r="P14" s="21">
+        <v>3.4091079999999996E-8</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>55.791359999999997</v>
+      </c>
+      <c r="R14" s="22">
+        <v>16.886620000000001</v>
+      </c>
+      <c r="S14" s="21">
+        <v>4.8407317000000003E-8</v>
+      </c>
+      <c r="T14" s="22">
+        <v>37.7624</v>
+      </c>
+      <c r="U14" s="22">
+        <v>11.93763</v>
+      </c>
+      <c r="V14" s="21">
+        <v>2.8334442000000003E-8</v>
+      </c>
+      <c r="W14" s="22">
+        <v>17.803879999999999</v>
+      </c>
+      <c r="X14" s="22">
+        <v>46.124729999999985</v>
+      </c>
+      <c r="Y14" s="21">
+        <v>1.8888200000000001E-9</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>14.801259999999999</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>31.89396</v>
+      </c>
+      <c r="AB14" s="27">
+        <v>2.3860699999999998E-9</v>
+      </c>
+      <c r="AC14" s="26">
+        <v>14.915270000000001</v>
+      </c>
+      <c r="AD14" s="26">
+        <v>23.678829999999998</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>1.9771740000000001E-9</v>
+      </c>
+      <c r="AF14" s="24">
+        <v>15.001559999999998</v>
+      </c>
+      <c r="AG14" s="24">
+        <v>19.29177</v>
+      </c>
+      <c r="AH14" s="27">
+        <v>1.4555800000000001E-9</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>2.7291200000000002E-2</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>3.68268</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="26">
+        <v>156.3075</v>
+      </c>
+      <c r="I15" s="26">
+        <v>92.992009999999993</v>
+      </c>
+      <c r="J15" s="25">
+        <v>4.6078192000000006E-8</v>
+      </c>
+      <c r="K15" s="22">
+        <v>151.7175</v>
+      </c>
+      <c r="L15" s="22">
+        <v>45.494330000000005</v>
+      </c>
+      <c r="M15" s="21">
+        <v>5.2280939999999998E-8</v>
+      </c>
+      <c r="N15" s="22">
+        <v>117.72149999999999</v>
+      </c>
+      <c r="O15" s="22">
+        <v>35.786170000000006</v>
+      </c>
+      <c r="P15" s="21">
+        <v>8.1597932000000005E-8</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>99.781480000000002</v>
+      </c>
+      <c r="R15" s="22">
+        <v>31.448900000000002</v>
+      </c>
+      <c r="S15" s="21">
+        <v>5.1038314000000004E-8</v>
+      </c>
+      <c r="T15" s="22">
+        <v>69.161540000000002</v>
+      </c>
+      <c r="U15" s="22">
+        <v>22.044949999999996</v>
+      </c>
+      <c r="V15" s="21">
+        <v>4.8413269999999998E-8</v>
+      </c>
+      <c r="W15" s="22">
+        <v>30.437469999999998</v>
+      </c>
+      <c r="X15" s="22">
+        <v>87.252070000000003</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>2.230833E-9</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>26.309469999999997</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>55.583029999999994</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>1.8959209999999997E-9</v>
+      </c>
+      <c r="AC15" s="26">
+        <v>22.599159999999998</v>
+      </c>
+      <c r="AD15" s="26">
+        <v>42.74897</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>2.5056289999999998E-9</v>
+      </c>
+      <c r="AF15" s="24">
+        <v>25.101379999999999</v>
+      </c>
+      <c r="AG15" s="24">
+        <v>37.572590000000005</v>
+      </c>
+      <c r="AH15" s="27">
+        <v>2.4110499999999999E-9</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>4.1715099999999998E-2</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>5.5577899999999998</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="B11:G15"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E665F-3BE4-4192-AC66-6C4CF07B7FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A96562-A41F-41E6-A15A-1D08AF515A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,12 +263,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -292,6 +286,12 @@
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2053,6 +2053,5295 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости времени разложения от размера матрицы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1823300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2385599999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.11036E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9615639999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.118298</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>8.6886600000000005</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>103.348</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1390.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-411D-4CFB-8C36-EBCA27F682E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RowHouse version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7477900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.93012E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0096399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.07062E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1945599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.244342</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1552199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.7933300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-411D-4CFB-8C36-EBCA27F682E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reverse accumulation version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$H$3:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.0100060000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6300079999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5570000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0761999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5918000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1383219999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19429210000000002</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.350023</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.6423430000000003</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>11.24198</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>42.456640000000007</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>87.889690000000002</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>156.3075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-411D-4CFB-8C36-EBCA27F682E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.8499850000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.239995E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3499999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8186E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5060399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2257140000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26151679999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2579140000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.7046420000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>10.162519999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>39.418820000000004</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>84.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>151.7175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-411D-4CFB-8C36-EBCA27F682E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$W$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Givens rotation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$W$3:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.9699929999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2699900000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5400179999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1938000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2265999999999984E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2875970000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12475550999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47960979999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.0621858000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.7236870000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>9.1218960000000013</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>17.803879999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>30.437469999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-411D-4CFB-8C36-EBCA27F682E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AI$3:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1967899999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1871500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9167900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4589600000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7373499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.6023099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.0216599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.6899600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.7291200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>4.1715099999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-411D-4CFB-8C36-EBCA27F682E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="301546128"/>
+        <c:axId val="301549008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="301546128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301549008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="301549008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время разложения матрицы, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301546128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости времени вычисления матрицы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Q </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>от размера матрицы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5984000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6963899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8321300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1717600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.3141399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>11.2646</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>94.138000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>981.36199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F2F-4845-B5A5-C90F16CF9749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RowHouse version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5462000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1823300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2666700000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8489400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.102795</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>9.5338700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>92.855999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>746.59199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F2F-4845-B5A5-C90F16CF9749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reverse accumulation version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.5100020000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0499949999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7300039999999993E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9109999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.85768E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4236560000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23212970000000005</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2035949000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.5955400000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9.4042440000000003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>25.675560000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>52.042259999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>92.992009999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F2F-4845-B5A5-C90F16CF9749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$L$3:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.2899839999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8399920000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1700089999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2170000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6386999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.440369E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.679169E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.35577700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.65508609999999989</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.0627490000000006</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>9.8345209999999987</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>22.54166</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>45.494330000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F2F-4845-B5A5-C90F16CF9749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$W$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Givens rotation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$X$3:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.940007E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0999900000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.189995E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0384999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2498000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.560366E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16624069999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63534380000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.8652299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>6.3329899999999997</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>21.12013</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>46.124729999999985</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>87.252070000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F2F-4845-B5A5-C90F16CF9749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AJ$3:$AJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.6265100000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6827399999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23374E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8146199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5980799999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35716E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.65449E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.954017</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.220556</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.72970100000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.55088</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.68268</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>5.5577899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3F2F-4845-B5A5-C90F16CF9749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="511781456"/>
+        <c:axId val="511780176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511781456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511780176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511780176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время вычисления матрицы </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Q</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511781456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости времени разложения от размеры матрицы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$N$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel final version (2 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.7287999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0561000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2574999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3887999999999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0453699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2262610000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21063710000000002</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.0046927999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.9414670000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>7.8731899999999992</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>30.10097</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>64.133580000000009</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>117.72149999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEFF-4430-AFEB-872E490DAE7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$Q$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel final version (4 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$Q$3:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.0036000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2807000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7146999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9139999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.13298E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0979440000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17156290000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91835500000000025</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.5710450000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>10.201370000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>27.26943</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>55.791359999999997</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>99.781480000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEFF-4430-AFEB-872E490DAE7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$T$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel final version (8 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$T$3:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.3063000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2848000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4615000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42738E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6131100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.151495E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11978306000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62664269999999989</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.4879319999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>7.5034850000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>19.20551</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>37.7624</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>69.161540000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BEFF-4430-AFEB-872E490DAE7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$Z$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (2 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$Z$3:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.4944000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1140999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2523000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.19644E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3796799999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8256779999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22279840000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73753990000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91932169999999991</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.3818460000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>7.3899599999999994</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>14.801259999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>26.309469999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BEFF-4430-AFEB-872E490DAE7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$AC$1:$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (4 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AC$3:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.2712000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1576000000000009E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5161000000000012E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8072400000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6119100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7867709999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2720303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57983170000000006</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.1566935</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.8438959999999995</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.1126479999999983</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>14.915270000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>22.599159999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BEFF-4430-AFEB-872E490DAE7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$AF$1:$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (8 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AF$3:$AF$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.9978E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9713000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4670000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1139000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0441890000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11726958999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36045330000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2706104</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.355567</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4.2978610000000002</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>9.2423479999999998</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>15.001559999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>25.101379999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BEFF-4430-AFEB-872E490DAE7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AI$3:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1967899999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1871500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9167900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4589600000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7373499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.6023099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.0216599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.6899600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.7291200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>4.1715099999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BEFF-4430-AFEB-872E490DAE7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="511800336"/>
+        <c:axId val="511804816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511800336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35247932267252535"/>
+              <c:y val="0.92256194039574835"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511804816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511804816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время разложения матрицы, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511800336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>График зависимости времени вычисления матрицы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Q </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>от размера матрицы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$N$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel final version (2 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$O$3:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.6700130000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2999979999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5280000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2136999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9510999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2195260000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.297352E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.2556948</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.71419300000000008</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.0604439999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>7.754302</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>17.519190000000002</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>35.786170000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E160-4613-BFE3-25417B8C755D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$Q$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel final version (4 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$R$3:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.3900009999999987E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4079999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6310009999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9063000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5547999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2673809999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.514525E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21108399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.62360119999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.8095819999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.0003139999999995</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>16.886620000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>31.448900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E160-4613-BFE3-25417B8C755D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$T$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel final version (8 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$U$3:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.43E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0430000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3489999999999992E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7619E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0198999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3025509999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2864959999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14836390000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.57488829999999991</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.1007340000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>5.5628100000000007</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>11.93763</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>22.044949999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E160-4613-BFE3-25417B8C755D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$Z$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (2 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AA$3:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.6200169999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0489998000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5620000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7338000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2454699999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.828172E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2411585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72663729999999993</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.5164439999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>5.4437170000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>13.40564</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>31.89396</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>55.583029999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E160-4613-BFE3-25417B8C755D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$AC$1:$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (4 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AD$3:$AD$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.0900010000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7159989999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1080000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2449499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.252129999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2477590000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27175519999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94518739999999979</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.8218910000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>5.4066169999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>12.967790000000003</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>23.678829999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>42.74897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E160-4613-BFE3-25417B8C755D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$AF$1:$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (8 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AG$3:$AG$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.3980002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9139979999999993E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2645000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9921299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2815500000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9625400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28426570000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.80610619999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.6395040000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4.4006270000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>10.455732000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>19.29177</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>37.572590000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E160-4613-BFE3-25417B8C755D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020'!$AJ$3:$AJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.6265100000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6827399999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23374E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8146199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5980799999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35716E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.65449E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.954017</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.220556</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.72970100000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.55088</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.68268</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>5.5577899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E160-4613-BFE3-25417B8C755D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="511785936"/>
+        <c:axId val="511786256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511785936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> матрицы</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511786256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511786256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время вычисления матрицы </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Q</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511785936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2133,6 +7422,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3135,6 +8584,2090 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6145,6 +13678,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A02F26-750B-4CCC-9AC4-FAD81658C1CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B202E14-FA3B-40D5-892F-FBD897689BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4969A53F-9265-4215-AC80-8AFE161802B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CCDBBF-2999-4401-9D88-6F80C80E128F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6431,25 +14113,25 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="18"/>
+      <c r="L1" s="26"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -6814,14 +14496,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="2">
         <v>275.92200000000003</v>
       </c>
@@ -6845,12 +14527,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6864,12 +14546,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -6898,7 +14580,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="H11:J13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6920,30 +14602,30 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="18"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -7387,14 +15069,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="8">
         <v>2.7118699999999998</v>
       </c>
@@ -7427,12 +15109,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="10">
         <v>14.2468</v>
       </c>
@@ -7465,12 +15147,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="10">
         <v>55.0503</v>
       </c>
@@ -7586,30 +15268,30 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="18"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -8053,14 +15735,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="8">
         <v>3.2033499999999999</v>
       </c>
@@ -8093,12 +15775,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="13">
         <v>16.512699999999999</v>
       </c>
@@ -8131,12 +15813,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="13">
         <v>61.728200000000001</v>
       </c>
@@ -8226,8 +15908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631FF516-5D68-4D3F-99AE-100C114DAEB5}">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AG36" sqref="AG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8251,69 +15933,69 @@
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18" t="s">
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="18"/>
+      <c r="AJ1" s="26"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -8322,7 +16004,7 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -8331,7 +16013,7 @@
       <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -8340,7 +16022,7 @@
       <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -8349,7 +16031,7 @@
       <c r="M2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -8358,7 +16040,7 @@
       <c r="P2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -8367,7 +16049,7 @@
       <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -8376,7 +16058,7 @@
       <c r="V2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="X2" s="4" t="s">
@@ -8385,7 +16067,7 @@
       <c r="Y2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="AA2" s="4" t="s">
@@ -8394,7 +16076,7 @@
       <c r="AB2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="AD2" s="4" t="s">
@@ -8403,7 +16085,7 @@
       <c r="AE2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="AG2" s="4" t="s">
@@ -8412,7 +16094,7 @@
       <c r="AH2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="AJ2" s="4" t="s">
@@ -8442,85 +16124,85 @@
       <c r="G3" s="5">
         <v>8.5265099999999998E-14</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="23">
         <v>4.0100060000000003E-6</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="23">
         <v>2.5100020000000002E-6</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="23">
         <v>5.6843400000000001E-14</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="19">
         <v>2.8499850000000005E-6</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="19">
         <v>2.2899839999999997E-6</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="19">
         <v>9.2370600000000007E-14</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="19">
         <v>1.7287999999999998E-4</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="19">
         <v>3.6700130000000006E-6</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="19">
         <v>1.0516023000000002E-13</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="19">
         <v>5.0036000000000004E-4</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="19">
         <v>8.3900009999999987E-6</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="19">
         <v>2.84217E-14</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="19">
         <v>7.3063000000000002E-4</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="19">
         <v>1.43E-5</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="19">
         <v>2.1316299999999998E-14</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="19">
         <v>1.9699929999999998E-6</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="19">
         <v>1.940007E-6</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="Y3" s="19">
         <v>3.5527099999999999E-14</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="23">
         <v>1.4944000000000001E-4</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="23">
         <v>4.6200169999999996E-6</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AB3" s="23">
         <v>1.95399E-14</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AC3" s="23">
         <v>4.2712000000000002E-4</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AD3" s="23">
         <v>9.0900010000000005E-6</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AE3" s="23">
         <v>2.84217E-14</v>
       </c>
-      <c r="AF3" s="25">
+      <c r="AF3" s="23">
         <v>6.9978E-4</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AG3" s="23">
         <v>1.3980002E-5</v>
       </c>
-      <c r="AH3" s="25">
+      <c r="AH3" s="23">
         <v>2.84217E-14</v>
       </c>
       <c r="AI3" s="5">
@@ -8555,85 +16237,85 @@
       <c r="G4" s="5">
         <v>1.4921399999999999E-13</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="23">
         <v>4.6300079999999999E-6</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="23">
         <v>4.0499949999999998E-6</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="23">
         <v>9.4146900000000011E-14</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="19">
         <v>3.239995E-6</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="19">
         <v>2.8399920000000005E-6</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="19">
         <v>1.2789799999999997E-13</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="19">
         <v>2.0561000000000001E-4</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="19">
         <v>7.2999979999999999E-6</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="19">
         <v>1.2079200000000003E-13</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="19">
         <v>5.2807000000000006E-4</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="19">
         <v>2.4079999999999996E-5</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="19">
         <v>1.5276700000000002E-13</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="19">
         <v>8.2848000000000004E-4</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="19">
         <v>2.0430000000000003E-5</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="19">
         <v>9.7699639999999992E-14</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="19">
         <v>2.2699900000000004E-6</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="19">
         <v>2.0999900000000004E-6</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="19">
         <v>7.4606999999999995E-14</v>
       </c>
-      <c r="Z4" s="25">
+      <c r="Z4" s="23">
         <v>2.1140999999999998E-4</v>
       </c>
-      <c r="AA4" s="25">
+      <c r="AA4" s="23">
         <v>1.0489998000000001E-5</v>
       </c>
-      <c r="AB4" s="25">
+      <c r="AB4" s="23">
         <v>5.6843400000000001E-14</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AC4" s="23">
         <v>5.1576000000000009E-4</v>
       </c>
-      <c r="AD4" s="25">
+      <c r="AD4" s="23">
         <v>1.7159989999999998E-5</v>
       </c>
-      <c r="AE4" s="25">
+      <c r="AE4" s="23">
         <v>9.2370600000000007E-14</v>
       </c>
-      <c r="AF4" s="25">
+      <c r="AF4" s="23">
         <v>6.9713000000000002E-4</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AG4" s="23">
         <v>3.9139979999999993E-5</v>
       </c>
-      <c r="AH4" s="25">
+      <c r="AH4" s="23">
         <v>1.1901599999999997E-13</v>
       </c>
       <c r="AI4" s="5">
@@ -8668,85 +16350,85 @@
       <c r="G5" s="5">
         <v>5.6665799999999999E-13</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <v>1.5570000000000002E-5</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <v>9.7300039999999993E-6</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>1.8829400000000004E-13</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <v>5.3499999999999996E-6</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="19">
         <v>4.1700089999999995E-6</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="19">
         <v>2.7355900000000003E-13</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="19">
         <v>2.2574999999999996E-4</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="19">
         <v>2.5280000000000002E-5</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="19">
         <v>7.2830600000000007E-13</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="19">
         <v>4.7146999999999998E-4</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="19">
         <v>2.6310009999999998E-5</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="19">
         <v>2.6194619999999999E-13</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="19">
         <v>8.4615000000000005E-4</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="19">
         <v>4.3489999999999992E-5</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="19">
         <v>1.4832599999999997E-13</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="19">
         <v>3.5400179999999992E-6</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="19">
         <v>3.189995E-6</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="19">
         <v>2.154722E-13</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="Z5" s="23">
         <v>2.2523000000000001E-4</v>
       </c>
-      <c r="AA5" s="25">
+      <c r="AA5" s="23">
         <v>3.5620000000000001E-5</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AB5" s="23">
         <v>1.8829400000000004E-13</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AC5" s="23">
         <v>5.5161000000000012E-4</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AD5" s="23">
         <v>6.1080000000000005E-5</v>
       </c>
-      <c r="AE5" s="25">
+      <c r="AE5" s="23">
         <v>2.5424100000000006E-13</v>
       </c>
-      <c r="AF5" s="25">
+      <c r="AF5" s="23">
         <v>8.4670000000000004E-4</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AG5" s="23">
         <v>1.2645000000000001E-4</v>
       </c>
-      <c r="AH5" s="25">
+      <c r="AH5" s="23">
         <v>2.2346530000000004E-13</v>
       </c>
       <c r="AI5" s="5">
@@ -8781,85 +16463,85 @@
       <c r="G6" s="5">
         <v>6.0513799999999996E-12</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>2.0761999999999999E-4</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="23">
         <v>1.9109999999999998E-4</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="23">
         <v>1.5525599999999997E-11</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <v>1.8186E-4</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="19">
         <v>9.2170000000000007E-5</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="19">
         <v>3.0590000000000006E-12</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="19">
         <v>6.3887999999999987E-4</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="19">
         <v>2.2136999999999998E-4</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="19">
         <v>6.6206400000000016E-12</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="19">
         <v>8.9139999999999998E-4</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="19">
         <v>1.9063000000000001E-4</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="19">
         <v>4.2110799999999999E-12</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="19">
         <v>1.42738E-3</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="19">
         <v>2.7619E-4</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="19">
         <v>4.9773500000000004E-12</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="19">
         <v>1.1938000000000003E-4</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="19">
         <v>1.0384999999999999E-4</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Y6" s="19">
         <v>2.6862999999999996E-12</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="Z6" s="23">
         <v>1.19644E-3</v>
       </c>
-      <c r="AA6" s="25">
+      <c r="AA6" s="23">
         <v>9.7338000000000004E-4</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AB6" s="23">
         <v>3.6093400000000005E-12</v>
       </c>
-      <c r="AC6" s="25">
+      <c r="AC6" s="23">
         <v>1.8072400000000003E-3</v>
       </c>
-      <c r="AD6" s="25">
+      <c r="AD6" s="23">
         <v>1.2449499999999999E-3</v>
       </c>
-      <c r="AE6" s="25">
+      <c r="AE6" s="23">
         <v>2.41007E-12</v>
       </c>
-      <c r="AF6" s="25">
+      <c r="AF6" s="23">
         <v>3.1139000000000002E-3</v>
       </c>
-      <c r="AG6" s="25">
+      <c r="AG6" s="23">
         <v>1.9921299999999999E-3</v>
       </c>
-      <c r="AH6" s="25">
+      <c r="AH6" s="23">
         <v>3.2767699999999996E-12</v>
       </c>
       <c r="AI6" s="5">
@@ -8894,85 +16576,85 @@
       <c r="G7" s="5">
         <v>2.4011900000000001E-11</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>1.5918000000000002E-3</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <v>1.85768E-3</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>1.5669200000000003E-11</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>1.5060399999999999E-3</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="19">
         <v>5.6386999999999995E-4</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <v>1.2192657000000001E-11</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="19">
         <v>2.0453699999999999E-3</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="19">
         <v>7.9510999999999991E-4</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="19">
         <v>8.9938399999999996E-11</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="19">
         <v>2.13298E-3</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="19">
         <v>6.5547999999999995E-4</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="19">
         <v>4.2786100000000006E-11</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="19">
         <v>2.6131100000000001E-3</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="19">
         <v>7.0198999999999988E-4</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="19">
         <v>1.1276299999999999E-11</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="19">
         <v>9.2265999999999984E-4</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="19">
         <v>8.2498000000000001E-4</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="Y7" s="19">
         <v>1.6523900000000004E-11</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="Z7" s="23">
         <v>4.3796799999999995E-3</v>
       </c>
-      <c r="AA7" s="25">
+      <c r="AA7" s="23">
         <v>4.2454699999999995E-3</v>
       </c>
-      <c r="AB7" s="25">
+      <c r="AB7" s="23">
         <v>8.2910840000000001E-12</v>
       </c>
-      <c r="AC7" s="25">
+      <c r="AC7" s="23">
         <v>6.6119100000000004E-3</v>
       </c>
-      <c r="AD7" s="25">
+      <c r="AD7" s="23">
         <v>5.252129999999999E-3</v>
       </c>
-      <c r="AE7" s="25">
+      <c r="AE7" s="23">
         <v>9.3817120000000004E-12</v>
       </c>
-      <c r="AF7" s="25">
+      <c r="AF7" s="23">
         <v>1.0441890000000001E-2</v>
       </c>
-      <c r="AG7" s="25">
+      <c r="AG7" s="23">
         <v>8.2815500000000004E-3</v>
       </c>
-      <c r="AH7" s="25">
+      <c r="AH7" s="23">
         <v>7.7224900000000014E-12</v>
       </c>
       <c r="AI7" s="5">
@@ -9007,85 +16689,85 @@
       <c r="G8" s="5">
         <v>9.1564E-11</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>4.1383219999999998E-2</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="23">
         <v>4.4236560000000001E-2</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="23">
         <v>1.7393973999999998E-10</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>4.2257140000000006E-2</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <v>1.440369E-2</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <v>3.3384740000000014E-10</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="19">
         <v>3.2262610000000004E-2</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <v>1.2195260000000001E-2</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="19">
         <v>6.0305140000000009E-11</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="19">
         <v>3.0979440000000004E-2</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="19">
         <v>1.2673809999999999E-2</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="19">
         <v>3.4650999999999997E-10</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="19">
         <v>3.151495E-2</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="19">
         <v>1.3025509999999999E-2</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="19">
         <v>1.531828E-10</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="19">
         <v>2.2875970000000002E-2</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="19">
         <v>2.560366E-2</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="19">
         <v>5.5304019999999993E-11</v>
       </c>
-      <c r="Z8" s="25">
+      <c r="Z8" s="23">
         <v>4.8256779999999999E-2</v>
       </c>
-      <c r="AA8" s="25">
+      <c r="AA8" s="23">
         <v>4.828172E-2</v>
       </c>
-      <c r="AB8" s="25">
+      <c r="AB8" s="23">
         <v>5.0408750000000012E-11</v>
       </c>
-      <c r="AC8" s="25">
+      <c r="AC8" s="23">
         <v>6.7867709999999998E-2</v>
       </c>
-      <c r="AD8" s="25">
+      <c r="AD8" s="23">
         <v>6.2477590000000006E-2</v>
       </c>
-      <c r="AE8" s="25">
+      <c r="AE8" s="23">
         <v>7.9118499999999994E-11</v>
       </c>
-      <c r="AF8" s="25">
+      <c r="AF8" s="23">
         <v>0.11726958999999999</v>
       </c>
-      <c r="AG8" s="25">
+      <c r="AG8" s="23">
         <v>9.9625400000000003E-2</v>
       </c>
-      <c r="AH8" s="25">
+      <c r="AH8" s="23">
         <v>7.1913640000000008E-11</v>
       </c>
       <c r="AI8" s="5">
@@ -9120,85 +16802,85 @@
       <c r="G9" s="5">
         <v>3.0140600000000001E-10</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>0.19429210000000002</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="23">
         <v>0.23212970000000005</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>3.5664010000000005E-10</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>0.26151679999999999</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="19">
         <v>9.679169E-2</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="19">
         <v>4.9554399999999996E-10</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="19">
         <v>0.21063710000000002</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
         <v>7.297352E-2</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="19">
         <v>1.2390153000000003E-9</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="19">
         <v>0.17156290000000002</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="19">
         <v>5.514525E-2</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="19">
         <v>5.6542059999999988E-10</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="19">
         <v>0.11978306000000001</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="19">
         <v>4.2864959999999994E-2</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="19">
         <v>7.6924530000000006E-10</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="19">
         <v>0.12475550999999999</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="19">
         <v>0.16624069999999996</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="19">
         <v>1.3356710000000002E-10</v>
       </c>
-      <c r="Z9" s="25">
+      <c r="Z9" s="23">
         <v>0.22279840000000001</v>
       </c>
-      <c r="AA9" s="25">
+      <c r="AA9" s="23">
         <v>0.2411585</v>
       </c>
-      <c r="AB9" s="25">
+      <c r="AB9" s="23">
         <v>1.3917290000000002E-10</v>
       </c>
-      <c r="AC9" s="25">
+      <c r="AC9" s="23">
         <v>0.2720303</v>
       </c>
-      <c r="AD9" s="25">
+      <c r="AD9" s="23">
         <v>0.27175519999999997</v>
       </c>
-      <c r="AE9" s="25">
+      <c r="AE9" s="23">
         <v>1.3375992000000002E-10</v>
       </c>
-      <c r="AF9" s="25">
+      <c r="AF9" s="23">
         <v>0.36045330000000003</v>
       </c>
-      <c r="AG9" s="25">
+      <c r="AG9" s="23">
         <v>0.28426570000000001</v>
       </c>
-      <c r="AH9" s="25">
+      <c r="AH9" s="23">
         <v>1.5241849999999999E-10</v>
       </c>
       <c r="AI9" s="5">
@@ -9233,85 +16915,85 @@
       <c r="G10" s="5">
         <v>5.6068999999999995E-10</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>1.350023</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>1.2035949000000001</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>1.8259109E-9</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <v>1.2579140000000002</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="20">
         <v>0.35577700000000001</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="19">
         <v>2.1505616000000002E-9</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <v>1.0046927999999999</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="20">
         <v>0.2556948</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="19">
         <v>1.8187392999999998E-9</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="19">
         <v>0.91835500000000025</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="19">
         <v>0.21108399999999997</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="19">
         <v>2.2960657999999998E-9</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="19">
         <v>0.62664269999999989</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="19">
         <v>0.14836390000000002</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="19">
         <v>2.2229689000000003E-9</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="19">
         <v>0.47960979999999998</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="19">
         <v>0.63534380000000001</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="Y10" s="19">
         <v>3.2512439999999997E-10</v>
       </c>
-      <c r="Z10" s="25">
+      <c r="Z10" s="23">
         <v>0.73753990000000003</v>
       </c>
-      <c r="AA10" s="25">
+      <c r="AA10" s="23">
         <v>0.72663729999999993</v>
       </c>
-      <c r="AB10" s="25">
+      <c r="AB10" s="23">
         <v>3.0919079999999999E-10</v>
       </c>
-      <c r="AC10" s="25">
+      <c r="AC10" s="23">
         <v>0.57983170000000006</v>
       </c>
-      <c r="AD10" s="25">
+      <c r="AD10" s="23">
         <v>0.94518739999999979</v>
       </c>
-      <c r="AE10" s="25">
+      <c r="AE10" s="23">
         <v>3.4333759999999993E-10</v>
       </c>
-      <c r="AF10" s="24">
+      <c r="AF10" s="22">
         <v>1.2706104</v>
       </c>
-      <c r="AG10" s="24">
+      <c r="AG10" s="22">
         <v>0.80610619999999999</v>
       </c>
-      <c r="AH10" s="27">
+      <c r="AH10" s="25">
         <v>2.4994600000000002E-10</v>
       </c>
       <c r="AI10" s="5">
@@ -9328,93 +17010,93 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="26">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="24">
         <v>2.6423430000000003</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="24">
         <v>2.5955400000000002</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>3.1048435999999993E-9</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="20">
         <v>2.7046420000000002</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <v>0.65508609999999989</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="19">
         <v>3.7499769999999998E-9</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <v>1.9414670000000001</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="20">
         <v>0.71419300000000008</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="19">
         <v>3.78784E-9</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="20">
         <v>2.5710450000000002</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <v>0.62360119999999997</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="19">
         <v>3.7358613999999992E-9</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="20">
         <v>1.4879319999999998</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="20">
         <v>0.57488829999999991</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="19">
         <v>3.4965768999999998E-9</v>
       </c>
-      <c r="W11" s="22">
+      <c r="W11" s="20">
         <v>1.0621858000000002</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="20">
         <v>1.8652299999999999</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="Y11" s="19">
         <v>3.869779000000001E-10</v>
       </c>
-      <c r="Z11" s="25">
+      <c r="Z11" s="23">
         <v>0.91932169999999991</v>
       </c>
-      <c r="AA11" s="26">
+      <c r="AA11" s="24">
         <v>1.5164439999999999</v>
       </c>
-      <c r="AB11" s="25">
+      <c r="AB11" s="23">
         <v>4.4220649999999999E-10</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AC11" s="24">
         <v>1.1566935</v>
       </c>
-      <c r="AD11" s="26">
+      <c r="AD11" s="24">
         <v>1.8218910000000001</v>
       </c>
-      <c r="AE11" s="25">
+      <c r="AE11" s="23">
         <v>4.2700989999999998E-10</v>
       </c>
-      <c r="AF11" s="24">
+      <c r="AF11" s="22">
         <v>1.355567</v>
       </c>
-      <c r="AG11" s="24">
+      <c r="AG11" s="22">
         <v>1.6395040000000001</v>
       </c>
-      <c r="AH11" s="25">
+      <c r="AH11" s="23">
         <v>4.3982029999999993E-10</v>
       </c>
       <c r="AI11" s="2">
@@ -9431,97 +17113,97 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="26">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="24">
         <v>11.24198</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <v>9.4042440000000003</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>1.4214040000000002E-8</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="20">
         <v>10.162519999999999</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="20">
         <v>3.0627490000000006</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <v>1.0168492E-8</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <v>7.8731899999999992</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="20">
         <v>2.0604439999999999</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="19">
         <v>5.9254839999999997E-9</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <v>10.201370000000001</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <v>2.8095819999999998</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="19">
         <v>1.2556378E-8</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="20">
         <v>7.5034850000000004</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="20">
         <v>2.1007340000000001</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="19">
         <v>6.9041299999999994E-9</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W12" s="20">
         <v>3.7236870000000004</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12" s="20">
         <v>6.3329899999999997</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="19">
         <v>8.4261149999999991E-10</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="Z12" s="24">
         <v>3.3818460000000004</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AA12" s="24">
         <v>5.4437170000000004</v>
       </c>
-      <c r="AB12" s="25">
+      <c r="AB12" s="23">
         <v>8.7568599999999986E-10</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AC12" s="24">
         <v>3.8438959999999995</v>
       </c>
-      <c r="AD12" s="26">
+      <c r="AD12" s="24">
         <v>5.4066169999999998</v>
       </c>
-      <c r="AE12" s="25">
+      <c r="AE12" s="23">
         <v>8.1779409999999999E-10</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12" s="22">
         <v>4.2978610000000002</v>
       </c>
-      <c r="AG12" s="24">
+      <c r="AG12" s="22">
         <v>4.4006270000000001</v>
       </c>
-      <c r="AH12" s="25">
+      <c r="AH12" s="23">
         <v>7.2936330000000007E-10</v>
       </c>
-      <c r="AI12" s="23">
+      <c r="AI12" s="21">
         <v>1.0216599999999999E-2</v>
       </c>
-      <c r="AJ12" s="23">
+      <c r="AJ12" s="21">
         <v>0.72970100000000004</v>
       </c>
       <c r="AK12" s="3" t="s">
@@ -9532,97 +17214,97 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="26">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24">
         <v>42.456640000000007</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="24">
         <v>25.675560000000001</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
         <v>1.2554073E-8</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="20">
         <v>39.418820000000004</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="20">
         <v>9.8345209999999987</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="19">
         <v>2.3312933999999997E-8</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <v>30.10097</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="20">
         <v>7.754302</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="19">
         <v>9.9354510000000008E-9</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="20">
         <v>27.26943</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <v>8.0003139999999995</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="19">
         <v>1.8247942E-8</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="20">
         <v>19.20551</v>
       </c>
-      <c r="U13" s="22">
+      <c r="U13" s="20">
         <v>5.5628100000000007</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="19">
         <v>2.8571777999999998E-8</v>
       </c>
-      <c r="W13" s="22">
+      <c r="W13" s="20">
         <v>9.1218960000000013</v>
       </c>
-      <c r="X13" s="22">
+      <c r="X13" s="20">
         <v>21.12013</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="Y13" s="25">
         <v>1.1613499999999999E-9</v>
       </c>
-      <c r="Z13" s="26">
+      <c r="Z13" s="24">
         <v>7.3899599999999994</v>
       </c>
-      <c r="AA13" s="26">
+      <c r="AA13" s="24">
         <v>13.40564</v>
       </c>
-      <c r="AB13" s="25">
+      <c r="AB13" s="23">
         <v>1.2215404E-9</v>
       </c>
-      <c r="AC13" s="26">
+      <c r="AC13" s="24">
         <v>8.1126479999999983</v>
       </c>
-      <c r="AD13" s="26">
+      <c r="AD13" s="24">
         <v>12.967790000000003</v>
       </c>
-      <c r="AE13" s="25">
+      <c r="AE13" s="23">
         <v>1.3218226000000003E-9</v>
       </c>
-      <c r="AF13" s="24">
+      <c r="AF13" s="22">
         <v>9.2423479999999998</v>
       </c>
-      <c r="AG13" s="24">
+      <c r="AG13" s="22">
         <v>10.455732000000001</v>
       </c>
-      <c r="AH13" s="25">
+      <c r="AH13" s="23">
         <v>1.4035212000000001E-9</v>
       </c>
-      <c r="AI13" s="23">
+      <c r="AI13" s="21">
         <v>1.6899600000000001E-2</v>
       </c>
-      <c r="AJ13" s="23">
+      <c r="AJ13" s="21">
         <v>1.55088</v>
       </c>
       <c r="AK13" s="3" t="s">
@@ -9633,91 +17315,91 @@
       <c r="A14" s="1">
         <v>2500</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="26">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="24">
         <v>87.889690000000002</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>52.042259999999999</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>2.0639507E-8</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="20">
         <v>84.328000000000003</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="20">
         <v>22.54166</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="19">
         <v>4.3029878000000003E-8</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="20">
         <v>64.133580000000009</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="20">
         <v>17.519190000000002</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="19">
         <v>3.4091079999999996E-8</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="20">
         <v>55.791359999999997</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="20">
         <v>16.886620000000001</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="19">
         <v>4.8407317000000003E-8</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="20">
         <v>37.7624</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="20">
         <v>11.93763</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="19">
         <v>2.8334442000000003E-8</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="20">
         <v>17.803879999999999</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="20">
         <v>46.124729999999985</v>
       </c>
-      <c r="Y14" s="21">
+      <c r="Y14" s="19">
         <v>1.8888200000000001E-9</v>
       </c>
-      <c r="Z14" s="26">
+      <c r="Z14" s="24">
         <v>14.801259999999999</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AA14" s="24">
         <v>31.89396</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AB14" s="25">
         <v>2.3860699999999998E-9</v>
       </c>
-      <c r="AC14" s="26">
+      <c r="AC14" s="24">
         <v>14.915270000000001</v>
       </c>
-      <c r="AD14" s="26">
+      <c r="AD14" s="24">
         <v>23.678829999999998</v>
       </c>
-      <c r="AE14" s="25">
+      <c r="AE14" s="23">
         <v>1.9771740000000001E-9</v>
       </c>
-      <c r="AF14" s="24">
+      <c r="AF14" s="22">
         <v>15.001559999999998</v>
       </c>
-      <c r="AG14" s="24">
+      <c r="AG14" s="22">
         <v>19.29177</v>
       </c>
-      <c r="AH14" s="27">
+      <c r="AH14" s="25">
         <v>1.4555800000000001E-9</v>
       </c>
       <c r="AI14" s="2">
@@ -9734,91 +17416,91 @@
       <c r="A15" s="1">
         <v>3000</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="26">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="24">
         <v>156.3075</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="24">
         <v>92.992009999999993</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>4.6078192000000006E-8</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="20">
         <v>151.7175</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <v>45.494330000000005</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="19">
         <v>5.2280939999999998E-8</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <v>117.72149999999999</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="20">
         <v>35.786170000000006</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="19">
         <v>8.1597932000000005E-8</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="20">
         <v>99.781480000000002</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="20">
         <v>31.448900000000002</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="19">
         <v>5.1038314000000004E-8</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="20">
         <v>69.161540000000002</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="20">
         <v>22.044949999999996</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="19">
         <v>4.8413269999999998E-8</v>
       </c>
-      <c r="W15" s="22">
+      <c r="W15" s="20">
         <v>30.437469999999998</v>
       </c>
-      <c r="X15" s="22">
+      <c r="X15" s="20">
         <v>87.252070000000003</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="19">
         <v>2.230833E-9</v>
       </c>
-      <c r="Z15" s="26">
+      <c r="Z15" s="24">
         <v>26.309469999999997</v>
       </c>
-      <c r="AA15" s="26">
+      <c r="AA15" s="24">
         <v>55.583029999999994</v>
       </c>
-      <c r="AB15" s="25">
+      <c r="AB15" s="23">
         <v>1.8959209999999997E-9</v>
       </c>
-      <c r="AC15" s="26">
+      <c r="AC15" s="24">
         <v>22.599159999999998</v>
       </c>
-      <c r="AD15" s="26">
+      <c r="AD15" s="24">
         <v>42.74897</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AE15" s="23">
         <v>2.5056289999999998E-9</v>
       </c>
-      <c r="AF15" s="24">
+      <c r="AF15" s="22">
         <v>25.101379999999999</v>
       </c>
-      <c r="AG15" s="24">
+      <c r="AG15" s="22">
         <v>37.572590000000005</v>
       </c>
-      <c r="AH15" s="27">
+      <c r="AH15" s="25">
         <v>2.4110499999999999E-9</v>
       </c>
       <c r="AI15" s="2">
@@ -9833,6 +17515,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="B11:G15"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -9840,14 +17528,9 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="B11:G15"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A96562-A41F-41E6-A15A-1D08AF515A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BEB545-3474-4E91-90AB-A935B527819E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Май 2019" sheetId="1" r:id="rId1"/>
     <sheet name="Декабрь 2019" sheetId="2" r:id="rId2"/>
     <sheet name="Декабрь 2019 - Intel" sheetId="3" r:id="rId3"/>
     <sheet name="Май 2020" sheetId="4" r:id="rId4"/>
+    <sheet name="Май 2020 - Intel" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="44">
   <si>
     <t>Размер матрицы</t>
   </si>
@@ -138,12 +139,30 @@
   <si>
     <t>Parallel Givens rotation (4 threads)</t>
   </si>
+  <si>
+    <t>Parallel version (2 threads)</t>
+  </si>
+  <si>
+    <t>Time of decomposition</t>
+  </si>
+  <si>
+    <t>Time of calculation Q</t>
+  </si>
+  <si>
+    <t>Parallel version (4 threads)</t>
+  </si>
+  <si>
+    <t>Parallel version (8 threads)</t>
+  </si>
+  <si>
+    <t>Size of matrix</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +195,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -216,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -292,6 +318,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,6 +1187,1359 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости вычисления матрицы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Q</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> от рамера</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> матрицы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$N$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel version (2 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$O$3:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.120001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7599999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7400019999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9149999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9171E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.609592E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6687760000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33855050000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63249889999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6249650000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7008430000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.740089999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.29936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B92F-4F16-BD34-8C832AA898BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$Q$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel version (4 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$R$3:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.4699999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7599979999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9100020000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4006000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7881000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7608140000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2834219999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31264560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63480209999999981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6290459999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7610339999999987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.710339999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.572830000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B92F-4F16-BD34-8C832AA898BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$T$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel version (8 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$U$3:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.2600059999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6199989999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9500059999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4360000000000011E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4771999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.794401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8489569999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30163669999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63593889999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.52928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8419169999999987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.766350000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.667970000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B92F-4F16-BD34-8C832AA898BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$Z$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (2 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AA$3:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.0999639999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000339999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3700010000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1812000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5351000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4649540000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12496720000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55251190000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3628770000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1815389999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.621970000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.975350000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.95147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B92F-4F16-BD34-8C832AA898BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$AC$1:$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (4 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AD$3:$AD$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.9000209999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7999800000000011E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.370007E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0332000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1780000000000015E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4632520000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12540630000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56493300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3576319999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1876129999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.852979999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.652860000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B92F-4F16-BD34-8C832AA898BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$AF$1:$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (8 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AG$3:$AG$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.7000200000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5000059999999988E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4299920000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0266E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2500999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.476863E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.128247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55120809999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3233770000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1198959999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.614809999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.211600000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.523650000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B92F-4F16-BD34-8C832AA898BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AJ$3:$AJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.6265100000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6827399999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23374E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8146199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5980799999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35716E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.65449E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.954017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41685499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64228799999999997</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2.3301099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>5.4625199999999996</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>8.8696699999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B92F-4F16-BD34-8C832AA898BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="716006712"/>
+        <c:axId val="716008952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="716006712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716008952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="716008952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716006712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -7342,7 +8733,3873 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График зависимости времени разложения от размера матрицы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.16E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6799999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5637799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.219448</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>18.374400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>187.053</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1433.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B1E-4AE1-BADE-346169F75DBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RowHouse version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.7699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4119999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7951999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>5.0133400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.22894999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.30358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B1E-4AE1-BADE-346169F75DBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reverse accumulation version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.15E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8099999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.043E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1644400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>5.1441199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.240979</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.1090800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>3.2033499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>16.512699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>61.728200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B1E-4AE1-BADE-346169F75DBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.19E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4800000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2800000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8575E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3864000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23386799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1578200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>3.2008100000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>14.9941</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>54.605800000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>129.006</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>277.86900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B1E-4AE1-BADE-346169F75DBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$W$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Givens rotation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$W$3:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.3700040000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6800000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6200010000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3286E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7864999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1872329999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9938730000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4330291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88128039999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8919389999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6304030000000012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.89101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.22974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1B1E-4AE1-BADE-346169F75DBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AI$3:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1967899999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1871500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9167900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4589600000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7373499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3112000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8512E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2776900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0725699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.58992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1B1E-4AE1-BADE-346169F75DBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="426358672"/>
+        <c:axId val="426360592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426358672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426360592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426360592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время разложение, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426358672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>График зависимости времени вычисления матрицы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Q </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>от размера матрицы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.4000000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1100000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.58E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3805599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.212339</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>18.6631</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>173.83099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1580.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D9F-4C33-995B-F32297EE6BF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RowHouse version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3606999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21290200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>19.081299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>182.13399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1489.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D9F-4C33-995B-F32297EE6BF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reverse accumulation version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.19E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6199999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1643999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5534E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.7374299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.15385699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.06715</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.3306800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9.5378900000000009</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>28.180399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D9F-4C33-995B-F32297EE6BF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final version</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$L$3:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.79E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4000000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7990000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4858E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.72602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7204400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72430899999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.87017800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4.36022</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>15.3482</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>39.926600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>74.784199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D9F-4C33-995B-F32297EE6BF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$W$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Givens rotation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$X$3:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.6599991999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7000079999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3700009999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.081E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2134000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4707500000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12727209999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55811749999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3602050000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1658919999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.692879999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.660519999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.227459999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3D9F-4C33-995B-F32297EE6BF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AJ$3:$AJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.6265100000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6827399999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23374E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8146199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5980799999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35716E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.65449E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.954017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41685499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64228799999999997</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2.3301099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>5.4625199999999996</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>8.8696699999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3D9F-4C33-995B-F32297EE6BF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="797202488"/>
+        <c:axId val="797204088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="797202488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> матрицы</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797204088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="797204088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время вычисления, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797202488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График времени разложения от размера матрицы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$N$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel version (2 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.4300010000000008E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7699980000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5599989999999989E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4334999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9630899999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0619999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23116529999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2519560000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5655100000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6652919999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.176949999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.423489999999987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>146.41810000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D42A-4C88-AAFD-8332FEA21093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$Q$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel version (4 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$Q$3:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.4599969999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9300040000000009E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0690003000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2987000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3380500000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1528260000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21851329999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2415119999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6126169999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.843589999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.142250000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.598780000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>146.94260000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D42A-4C88-AAFD-8332FEA21093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$T$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel version (8 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$T$3:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.2899989999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8499989999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1599998999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3216E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8723999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6054569999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21714599999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.232132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5304480000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6150550000000017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.161230000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.609539999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147.1497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D42A-4C88-AAFD-8332FEA21093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$Z$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (2 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$Z$3:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.469997E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0199940000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2299969999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3608000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7244000000000009E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.262072E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6264020000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43411450000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86935410000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.895804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6654229999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.790519999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.722509999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D42A-4C88-AAFD-8332FEA21093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$AC$1:$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (4 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AC$3:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.369994E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9200059999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1400019999999994E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2667000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4524999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1893500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10090841000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45077110000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86509410000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8875650000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6094750000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.808350000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.756700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D42A-4C88-AAFD-8332FEA21093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$AF$1:$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Givens rotation (8 threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AF$3:$AF$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.5200030000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0099990000000007E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5499990000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2571000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7037000000000013E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2595710000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10835295999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44697759999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87219580000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.892144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6343440000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.76601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.831620000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D42A-4C88-AAFD-8332FEA21093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Май 2020 - Intel'!$AI$1:$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Версия Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Май 2020 - Intel'!$AI$3:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1405699999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1967899999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1871500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9167900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4589600000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7373499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3112000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8512E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2776900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0725699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.58992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D42A-4C88-AAFD-8332FEA21093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="426345872"/>
+        <c:axId val="426348752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426345872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426348752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426348752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время разложения, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426345872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7582,6 +12839,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8085,6 +13462,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -10152,6 +16050,1569 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13827,6 +21288,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4026F24-65D5-449E-A21D-6751FD605263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2744415C-449B-45A1-A635-66A35DDFE977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE65E5B-7C18-4E0B-97BD-CB3AD9FEDEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFAC87CB-86F0-4D32-833F-1EC798AFFC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15242,8 +22852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8AE75E-D8DE-41CB-9C06-25790D2D604D}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15908,8 +23518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631FF516-5D68-4D3F-99AE-100C114DAEB5}">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AG36" sqref="AG36"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17533,4 +25143,1607 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2670713-AE24-4F9B-94BE-73817CE1C407}">
+  <dimension ref="A1:AK15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="34" width="14.109375" customWidth="1"/>
+    <col min="35" max="35" width="16" customWidth="1"/>
+    <col min="36" max="36" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="3"/>
+    </row>
+    <row r="2" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="3"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.16E-5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.4000000000000003E-6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.815E-14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.7699999999999999E-5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8.5265099999999998E-14</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.15E-5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.19E-5</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4.2631999999999997E-14</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.19E-5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.79E-6</v>
+      </c>
+      <c r="M3" s="5">
+        <v>4.2631999999999997E-14</v>
+      </c>
+      <c r="N3" s="29">
+        <v>5.4300010000000008E-6</v>
+      </c>
+      <c r="O3" s="29">
+        <v>3.120001E-6</v>
+      </c>
+      <c r="P3" s="29">
+        <v>2.6645400000000007E-14</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>5.4599969999999995E-6</v>
+      </c>
+      <c r="R3" s="28">
+        <v>2.4699999999999996E-6</v>
+      </c>
+      <c r="S3" s="28">
+        <v>4.2632599999999996E-14</v>
+      </c>
+      <c r="T3" s="28">
+        <v>5.2899989999999999E-6</v>
+      </c>
+      <c r="U3" s="28">
+        <v>2.2600059999999997E-6</v>
+      </c>
+      <c r="V3" s="28">
+        <v>3.3750799999999996E-14</v>
+      </c>
+      <c r="W3" s="28">
+        <v>4.3700040000000006E-6</v>
+      </c>
+      <c r="X3" s="28">
+        <v>1.6599991999999998E-6</v>
+      </c>
+      <c r="Y3" s="28">
+        <v>7.1054299999999984E-15</v>
+      </c>
+      <c r="Z3" s="28">
+        <v>6.469997E-6</v>
+      </c>
+      <c r="AA3" s="28">
+        <v>3.0999639999999996E-7</v>
+      </c>
+      <c r="AB3" s="28">
+        <v>2.4868999999999996E-14</v>
+      </c>
+      <c r="AC3" s="28">
+        <v>7.369994E-6</v>
+      </c>
+      <c r="AD3" s="28">
+        <v>2.9000209999999997E-7</v>
+      </c>
+      <c r="AE3" s="28">
+        <v>3.1974399999999992E-14</v>
+      </c>
+      <c r="AF3" s="28">
+        <v>5.5200030000000004E-6</v>
+      </c>
+      <c r="AG3" s="28">
+        <v>2.7000200000000001E-7</v>
+      </c>
+      <c r="AH3" s="28">
+        <v>4.7961600000000007E-14</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>4.6265100000000004E-6</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.9499999999999999E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.9273500000000001E-13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.4399999999999999E-5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.4921399999999999E-13</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.34E-5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.56E-5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.6342500000000001E-13</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.1E-5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3.7000000000000002E-6</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.6342500000000001E-13</v>
+      </c>
+      <c r="N4" s="29">
+        <v>5.7699980000000002E-6</v>
+      </c>
+      <c r="O4" s="29">
+        <v>2.7599999999999998E-6</v>
+      </c>
+      <c r="P4" s="29">
+        <v>1.1013400000000001E-13</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>5.9300040000000009E-6</v>
+      </c>
+      <c r="R4" s="28">
+        <v>2.7599979999999998E-6</v>
+      </c>
+      <c r="S4" s="28">
+        <v>1.0835791E-13</v>
+      </c>
+      <c r="T4" s="28">
+        <v>5.8499989999999997E-6</v>
+      </c>
+      <c r="U4" s="28">
+        <v>2.6199989999999997E-6</v>
+      </c>
+      <c r="V4" s="28">
+        <v>1.1990400000000001E-13</v>
+      </c>
+      <c r="W4" s="28">
+        <v>4.6800000000000001E-6</v>
+      </c>
+      <c r="X4" s="28">
+        <v>4.7000079999999999E-7</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>4.5399929762484847E-5</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>6.0199940000000002E-6</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>4.4000339999999997E-7</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>3.3750799999999996E-14</v>
+      </c>
+      <c r="AC4" s="28">
+        <v>5.9200059999999998E-6</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>4.7999800000000011E-7</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>6.3060700000000011E-14</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>6.0099990000000007E-6</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>4.5000059999999988E-7</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>8.5975710000000006E-14</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>6.6827399999999998E-6</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.6799999999999995E-5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.58E-5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.0691699999999999E-13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.06E-5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.6900000000000001E-5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.6600000000000001E-13</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.8099999999999999E-5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.6199999999999999E-5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2.5989999999999998E-13</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>7.4000000000000003E-6</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.5989999999999998E-13</v>
+      </c>
+      <c r="N5" s="29">
+        <v>9.5599989999999989E-6</v>
+      </c>
+      <c r="O5" s="29">
+        <v>7.7400019999999992E-6</v>
+      </c>
+      <c r="P5" s="29">
+        <v>2.2680510000000004E-13</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>1.0690003000000001E-5</v>
+      </c>
+      <c r="R5" s="28">
+        <v>9.9100020000000005E-6</v>
+      </c>
+      <c r="S5" s="28">
+        <v>1.4654900000000002E-13</v>
+      </c>
+      <c r="T5" s="28">
+        <v>1.1599998999999998E-5</v>
+      </c>
+      <c r="U5" s="28">
+        <v>5.9500059999999995E-6</v>
+      </c>
+      <c r="V5" s="28">
+        <v>4.0577300000000001E-13</v>
+      </c>
+      <c r="W5" s="28">
+        <v>5.6200010000000006E-6</v>
+      </c>
+      <c r="X5" s="28">
+        <v>1.3700009999999998E-6</v>
+      </c>
+      <c r="Y5" s="28">
+        <v>2.6645399999999993E-13</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>7.2299969999999995E-6</v>
+      </c>
+      <c r="AA5" s="28">
+        <v>1.3700010000000003E-6</v>
+      </c>
+      <c r="AB5" s="28">
+        <v>2.0339299999999999E-13</v>
+      </c>
+      <c r="AC5" s="28">
+        <v>9.1400019999999994E-6</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>1.370007E-6</v>
+      </c>
+      <c r="AE5" s="28">
+        <v>2.7646730000000004E-13</v>
+      </c>
+      <c r="AF5" s="28">
+        <v>8.5499990000000001E-6</v>
+      </c>
+      <c r="AG5" s="28">
+        <v>1.4299920000000001E-6</v>
+      </c>
+      <c r="AH5" s="28">
+        <v>2.6734199999999994E-13</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>5.1405699999999996E-7</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>1.23374E-5</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.5637799999999999E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.3805599999999999E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.9788000000000002E-16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.4119999999999997E-4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.3606999999999999E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6.0513799999999996E-12</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6.043E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.1643999999999999E-3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5.6099999999999997E-12</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.7990000000000001E-4</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5.6099999999999997E-12</v>
+      </c>
+      <c r="N6" s="29">
+        <v>2.4334999999999998E-4</v>
+      </c>
+      <c r="O6" s="29">
+        <v>9.9149999999999998E-5</v>
+      </c>
+      <c r="P6" s="29">
+        <v>4.1416899999999995E-12</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>3.2987000000000001E-4</v>
+      </c>
+      <c r="R6" s="28">
+        <v>1.4006000000000001E-4</v>
+      </c>
+      <c r="S6" s="28">
+        <v>2.1471E-12</v>
+      </c>
+      <c r="T6" s="28">
+        <v>2.3216E-4</v>
+      </c>
+      <c r="U6" s="28">
+        <v>9.4360000000000011E-5</v>
+      </c>
+      <c r="V6" s="28">
+        <v>3.4378700000000006E-12</v>
+      </c>
+      <c r="W6" s="28">
+        <v>1.3286E-4</v>
+      </c>
+      <c r="X6" s="28">
+        <v>1.081E-4</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>2.3994100000000006E-12</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>1.3608000000000001E-4</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>1.1812000000000003E-4</v>
+      </c>
+      <c r="AB6" s="28">
+        <v>3.723239999999999E-12</v>
+      </c>
+      <c r="AC6" s="28">
+        <v>1.2667000000000001E-4</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>1.0332000000000002E-4</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>3.4341400000000001E-12</v>
+      </c>
+      <c r="AF6" s="28">
+        <v>1.2571000000000001E-4</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>1.0266E-4</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>3.5296200000000001E-12</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>7.1967899999999996E-6</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>1.8146199999999999E-4</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.219448</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.212339</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.18887E-11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.7951999999999999E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.21290200000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.4011900000000001E-11</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.1644400000000002E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.5534E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3.4399999999999999E-11</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.8575E-3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.4858E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>3.4472899999999999E-11</v>
+      </c>
+      <c r="N7" s="29">
+        <v>1.9630899999999998E-3</v>
+      </c>
+      <c r="O7" s="29">
+        <v>6.9171E-4</v>
+      </c>
+      <c r="P7" s="29">
+        <v>1.6539200000000002E-11</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>2.3380500000000004E-3</v>
+      </c>
+      <c r="R7" s="28">
+        <v>8.7881000000000005E-4</v>
+      </c>
+      <c r="S7" s="28">
+        <v>1.5771399999999998E-11</v>
+      </c>
+      <c r="T7" s="28">
+        <v>1.8723999999999998E-3</v>
+      </c>
+      <c r="U7" s="28">
+        <v>6.4771999999999996E-4</v>
+      </c>
+      <c r="V7" s="28">
+        <v>4.3185500000000002E-11</v>
+      </c>
+      <c r="W7" s="28">
+        <v>9.7864999999999996E-4</v>
+      </c>
+      <c r="X7" s="28">
+        <v>8.2134000000000005E-4</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>8.5543800000000022E-12</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>9.7244000000000009E-4</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>8.5351000000000003E-4</v>
+      </c>
+      <c r="AB7" s="28">
+        <v>1.0584500000000002E-11</v>
+      </c>
+      <c r="AC7" s="28">
+        <v>9.4524999999999991E-4</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>8.1780000000000015E-4</v>
+      </c>
+      <c r="AE7" s="28">
+        <v>8.0440500000000023E-12</v>
+      </c>
+      <c r="AF7" s="28">
+        <v>9.7037000000000013E-4</v>
+      </c>
+      <c r="AG7" s="28">
+        <v>8.2500999999999994E-4</v>
+      </c>
+      <c r="AH7" s="28">
+        <v>1.1897300000000001E-11</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>3.1871500000000001E-5</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>5.5980799999999996E-4</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2">
+        <v>18.374400000000001</v>
+      </c>
+      <c r="C8" s="7">
+        <v>18.6631</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.7573800000000006E-11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.0133400000000002E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19.081299999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.1499999999999994E-11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.1441199999999999E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.7374299999999999E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>8.5905E-11</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5.3864000000000002E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.72602E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>8.5905E-11</v>
+      </c>
+      <c r="N8" s="29">
+        <v>5.0619999999999998E-2</v>
+      </c>
+      <c r="O8" s="29">
+        <v>1.609592E-2</v>
+      </c>
+      <c r="P8" s="29">
+        <v>1.7009949999999998E-10</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>5.1528260000000006E-2</v>
+      </c>
+      <c r="R8" s="28">
+        <v>1.7608140000000001E-2</v>
+      </c>
+      <c r="S8" s="28">
+        <v>2.0228170000000002E-10</v>
+      </c>
+      <c r="T8" s="28">
+        <v>4.6054569999999996E-2</v>
+      </c>
+      <c r="U8" s="28">
+        <v>1.794401E-2</v>
+      </c>
+      <c r="V8" s="28">
+        <v>1.8543629999999997E-10</v>
+      </c>
+      <c r="W8" s="28">
+        <v>2.1872329999999999E-2</v>
+      </c>
+      <c r="X8" s="28">
+        <v>2.4707500000000004E-2</v>
+      </c>
+      <c r="Y8" s="28">
+        <v>5.7799449999999996E-11</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>2.262072E-2</v>
+      </c>
+      <c r="AA8" s="28">
+        <v>2.4649540000000001E-2</v>
+      </c>
+      <c r="AB8" s="28">
+        <v>5.500268E-11</v>
+      </c>
+      <c r="AC8" s="28">
+        <v>2.1893500000000003E-2</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>2.4632520000000001E-2</v>
+      </c>
+      <c r="AE8" s="28">
+        <v>5.2251900000000005E-11</v>
+      </c>
+      <c r="AF8" s="28">
+        <v>2.2595710000000001E-2</v>
+      </c>
+      <c r="AG8" s="28">
+        <v>2.476863E-2</v>
+      </c>
+      <c r="AH8" s="28">
+        <v>7.0453799999999996E-11</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>5.9167900000000001E-4</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>1.35716E-2</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>500</v>
+      </c>
+      <c r="B9" s="2">
+        <v>187.053</v>
+      </c>
+      <c r="C9" s="7">
+        <v>173.83099999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.6441000000000002E-10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.22894999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>182.13399999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.0140600000000001E-10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.240979</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.15385699999999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4.4542200000000002E-10</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.23386799999999999</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8.7204400000000001E-2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>4.4542200000000002E-10</v>
+      </c>
+      <c r="N9" s="29">
+        <v>0.23116529999999996</v>
+      </c>
+      <c r="O9" s="29">
+        <v>7.6687760000000008E-2</v>
+      </c>
+      <c r="P9" s="29">
+        <v>3.6725100000000011E-10</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0.21851329999999997</v>
+      </c>
+      <c r="R9" s="28">
+        <v>8.2834219999999986E-2</v>
+      </c>
+      <c r="S9" s="28">
+        <v>6.1423520000000006E-10</v>
+      </c>
+      <c r="T9" s="28">
+        <v>0.21714599999999998</v>
+      </c>
+      <c r="U9" s="28">
+        <v>7.8489569999999995E-2</v>
+      </c>
+      <c r="V9" s="28">
+        <v>4.1784780000000003E-10</v>
+      </c>
+      <c r="W9" s="28">
+        <v>9.9938730000000003E-2</v>
+      </c>
+      <c r="X9" s="28">
+        <v>0.12727209999999997</v>
+      </c>
+      <c r="Y9" s="28">
+        <v>1.4210189999999999E-10</v>
+      </c>
+      <c r="Z9" s="28">
+        <v>9.6264020000000006E-2</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>0.12496720000000001</v>
+      </c>
+      <c r="AB9" s="28">
+        <v>1.4916320000000002E-10</v>
+      </c>
+      <c r="AC9" s="28">
+        <v>0.10090841000000002</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>0.12540630000000003</v>
+      </c>
+      <c r="AE9" s="28">
+        <v>1.585499E-10</v>
+      </c>
+      <c r="AF9" s="28">
+        <v>0.10835295999999998</v>
+      </c>
+      <c r="AG9" s="28">
+        <v>0.128247</v>
+      </c>
+      <c r="AH9" s="28">
+        <v>1.6190369999999999E-10</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>7.4589600000000002E-4</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>2.65449E-2</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>800</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1433.13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1580.92</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.1062500000000005E-10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.30358</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1489.22</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.6066899999999998E-10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.1090800000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.06715</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5.2199999999999998E-9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1.1578200000000001</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.72430899999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5.2199999999999998E-9</v>
+      </c>
+      <c r="N10" s="29">
+        <v>1.2519560000000001</v>
+      </c>
+      <c r="O10" s="29">
+        <v>0.33855050000000003</v>
+      </c>
+      <c r="P10" s="29">
+        <v>1.8515089E-9</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>1.2415119999999999</v>
+      </c>
+      <c r="R10" s="28">
+        <v>0.31264560000000002</v>
+      </c>
+      <c r="S10" s="28">
+        <v>1.3053266E-9</v>
+      </c>
+      <c r="T10" s="28">
+        <v>1.232132</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0.30163669999999998</v>
+      </c>
+      <c r="V10" s="28">
+        <v>1.7158519999999998E-9</v>
+      </c>
+      <c r="W10" s="28">
+        <v>0.4330291</v>
+      </c>
+      <c r="X10" s="28">
+        <v>0.55811749999999993</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>3.3500080000000003E-10</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>0.43411450000000001</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>0.55251190000000006</v>
+      </c>
+      <c r="AB10" s="28">
+        <v>4.5402561094484848E-6</v>
+      </c>
+      <c r="AC10" s="28">
+        <v>0.45077110000000004</v>
+      </c>
+      <c r="AD10" s="28">
+        <v>0.56493300000000002</v>
+      </c>
+      <c r="AE10" s="28">
+        <v>3.0922280000000001E-10</v>
+      </c>
+      <c r="AF10" s="28">
+        <v>0.44697759999999997</v>
+      </c>
+      <c r="AG10" s="28">
+        <v>0.55120809999999998</v>
+      </c>
+      <c r="AH10" s="28">
+        <v>2.8673070000000002E-10</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>2.7373499999999999E-3</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>0.954017</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="8">
+        <v>3.2033499999999999</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2.3306800000000001</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2.14322E-9</v>
+      </c>
+      <c r="K11" s="16">
+        <v>3.2008100000000002</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.87017800000000001</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2.1400000000000001E-9</v>
+      </c>
+      <c r="N11" s="29">
+        <v>2.5655100000000002</v>
+      </c>
+      <c r="O11" s="29">
+        <v>0.63249889999999998</v>
+      </c>
+      <c r="P11" s="29">
+        <v>2.9143765000000006E-9</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>2.6126169999999997</v>
+      </c>
+      <c r="R11" s="28">
+        <v>0.63480209999999981</v>
+      </c>
+      <c r="S11" s="28">
+        <v>4.3131849999999997E-9</v>
+      </c>
+      <c r="T11" s="28">
+        <v>2.5304480000000003</v>
+      </c>
+      <c r="U11" s="28">
+        <v>0.63593889999999997</v>
+      </c>
+      <c r="V11" s="28">
+        <v>4.0933749000000002E-9</v>
+      </c>
+      <c r="W11" s="28">
+        <v>0.88128039999999996</v>
+      </c>
+      <c r="X11" s="28">
+        <v>1.3602050000000001</v>
+      </c>
+      <c r="Y11" s="28">
+        <v>3.7541369999999999E-10</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>0.86935410000000002</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>1.3628770000000003</v>
+      </c>
+      <c r="AB11" s="28">
+        <v>4.5403893878484859E-6</v>
+      </c>
+      <c r="AC11" s="28">
+        <v>0.86509410000000009</v>
+      </c>
+      <c r="AD11" s="28">
+        <v>1.3576319999999999</v>
+      </c>
+      <c r="AE11" s="28">
+        <v>4.357253E-10</v>
+      </c>
+      <c r="AF11" s="28">
+        <v>0.87219580000000008</v>
+      </c>
+      <c r="AG11" s="28">
+        <v>1.3233770000000002</v>
+      </c>
+      <c r="AH11" s="28">
+        <v>4.1832709999999995E-10</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>5.3112000000000003E-3</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>0.41685499999999998</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="13">
+        <v>16.512699999999999</v>
+      </c>
+      <c r="I12" s="13">
+        <v>9.5378900000000009</v>
+      </c>
+      <c r="J12" s="14">
+        <v>9.1887000000000007E-9</v>
+      </c>
+      <c r="K12" s="15">
+        <v>14.9941</v>
+      </c>
+      <c r="L12" s="15">
+        <v>4.36022</v>
+      </c>
+      <c r="M12" s="14">
+        <v>9.1879999999999993E-9</v>
+      </c>
+      <c r="N12" s="29">
+        <v>9.6652919999999991</v>
+      </c>
+      <c r="O12" s="29">
+        <v>2.6249650000000004</v>
+      </c>
+      <c r="P12" s="29">
+        <v>7.9787430000000006E-9</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>9.843589999999999</v>
+      </c>
+      <c r="R12" s="28">
+        <v>2.6290459999999998</v>
+      </c>
+      <c r="S12" s="28">
+        <v>7.1632370000000005E-9</v>
+      </c>
+      <c r="T12" s="28">
+        <v>9.6150550000000017</v>
+      </c>
+      <c r="U12" s="28">
+        <v>2.52928</v>
+      </c>
+      <c r="V12" s="28">
+        <v>1.0078258E-8</v>
+      </c>
+      <c r="W12" s="28">
+        <v>2.8919389999999998</v>
+      </c>
+      <c r="X12" s="28">
+        <v>6.1658919999999995</v>
+      </c>
+      <c r="Y12" s="28">
+        <v>4.5406275037484854E-6</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>2.895804</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>6.1815389999999999</v>
+      </c>
+      <c r="AB12" s="28">
+        <v>8.374998000000002E-10</v>
+      </c>
+      <c r="AC12" s="28">
+        <v>2.8875650000000004</v>
+      </c>
+      <c r="AD12" s="28">
+        <v>6.1876129999999998</v>
+      </c>
+      <c r="AE12" s="28">
+        <v>8.1365770000000016E-10</v>
+      </c>
+      <c r="AF12" s="28">
+        <v>2.892144</v>
+      </c>
+      <c r="AG12" s="28">
+        <v>6.1198959999999998</v>
+      </c>
+      <c r="AH12" s="28">
+        <v>9.3933100000000022E-10</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>6.8512E-3</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>0.64228799999999997</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="13">
+        <v>61.728200000000001</v>
+      </c>
+      <c r="I13" s="13">
+        <v>28.180399999999999</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2.7707500000000002E-9</v>
+      </c>
+      <c r="K13" s="15">
+        <v>54.605800000000002</v>
+      </c>
+      <c r="L13" s="15">
+        <v>15.3482</v>
+      </c>
+      <c r="M13" s="14">
+        <v>2.7700000000000002E-9</v>
+      </c>
+      <c r="N13" s="29">
+        <v>37.176949999999998</v>
+      </c>
+      <c r="O13" s="29">
+        <v>9.7008430000000008</v>
+      </c>
+      <c r="P13" s="29">
+        <v>1.0941764000000001E-8</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>37.142250000000004</v>
+      </c>
+      <c r="R13" s="28">
+        <v>9.7610339999999987</v>
+      </c>
+      <c r="S13" s="28">
+        <v>1.5173763000000001E-8</v>
+      </c>
+      <c r="T13" s="28">
+        <v>38.161230000000003</v>
+      </c>
+      <c r="U13" s="28">
+        <v>9.8419169999999987</v>
+      </c>
+      <c r="V13" s="28">
+        <v>4.5614779802484852E-6</v>
+      </c>
+      <c r="W13" s="28">
+        <v>6.6304030000000012</v>
+      </c>
+      <c r="X13" s="28">
+        <v>20.692879999999999</v>
+      </c>
+      <c r="Y13" s="28">
+        <v>1.3171849999999999E-9</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>6.6654229999999997</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>20.621970000000001</v>
+      </c>
+      <c r="AB13" s="28">
+        <v>1.4840487000000003E-9</v>
+      </c>
+      <c r="AC13" s="28">
+        <v>6.6094750000000007</v>
+      </c>
+      <c r="AD13" s="28">
+        <v>20.852979999999995</v>
+      </c>
+      <c r="AE13" s="28">
+        <v>1.4166900000000004E-9</v>
+      </c>
+      <c r="AF13" s="28">
+        <v>6.6343440000000005</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>20.614809999999999</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>4.5409896078484859E-6</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>1.2776900000000001E-2</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>2.3301099999999999</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K14" s="15">
+        <v>129.006</v>
+      </c>
+      <c r="L14" s="15">
+        <v>39.926600000000001</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1.39248E-8</v>
+      </c>
+      <c r="N14" s="29">
+        <v>79.423489999999987</v>
+      </c>
+      <c r="O14" s="29">
+        <v>21.740089999999999</v>
+      </c>
+      <c r="P14" s="29">
+        <v>3.6882339999999995E-8</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>79.598780000000005</v>
+      </c>
+      <c r="R14" s="28">
+        <v>21.710339999999995</v>
+      </c>
+      <c r="S14" s="28">
+        <v>9.1015152314969711E-6</v>
+      </c>
+      <c r="T14" s="28">
+        <v>80.609539999999996</v>
+      </c>
+      <c r="U14" s="28">
+        <v>21.766350000000003</v>
+      </c>
+      <c r="V14" s="28">
+        <v>2.7392394999999998E-8</v>
+      </c>
+      <c r="W14" s="28">
+        <v>12.89101</v>
+      </c>
+      <c r="X14" s="28">
+        <v>46.660519999999998</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>2.1046369999999997E-9</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>12.790519999999999</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>45.975350000000006</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>2.0235609999999999E-9</v>
+      </c>
+      <c r="AC14" s="28">
+        <v>12.808350000000001</v>
+      </c>
+      <c r="AD14" s="28">
+        <v>46.538499999999999</v>
+      </c>
+      <c r="AE14" s="28">
+        <v>1.8631729999999996E-9</v>
+      </c>
+      <c r="AF14" s="28">
+        <v>12.76601</v>
+      </c>
+      <c r="AG14" s="28">
+        <v>46.211600000000004</v>
+      </c>
+      <c r="AH14" s="28">
+        <v>1.8893799999999995E-9</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>4.0725699999999997E-2</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>5.4625199999999996</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="15">
+        <v>277.86900000000003</v>
+      </c>
+      <c r="L15" s="15">
+        <v>74.784199999999998</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1.8726300000000001E-8</v>
+      </c>
+      <c r="N15" s="29">
+        <v>146.41810000000001</v>
+      </c>
+      <c r="O15" s="29">
+        <v>44.29936</v>
+      </c>
+      <c r="P15" s="29">
+        <v>9.1115948654969691E-6</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>146.94260000000003</v>
+      </c>
+      <c r="R15" s="28">
+        <v>44.572830000000003</v>
+      </c>
+      <c r="S15" s="28">
+        <v>9.1094634124969716E-6</v>
+      </c>
+      <c r="T15" s="28">
+        <v>147.1497</v>
+      </c>
+      <c r="U15" s="28">
+        <v>44.667970000000004</v>
+      </c>
+      <c r="V15" s="28">
+        <v>1.3649953655745458E-5</v>
+      </c>
+      <c r="W15" s="28">
+        <v>22.22974</v>
+      </c>
+      <c r="X15" s="28">
+        <v>81.227459999999994</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>2.5872439999999999E-9</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>21.722509999999996</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>79.95147</v>
+      </c>
+      <c r="AB15" s="28">
+        <v>2.4843010000000001E-9</v>
+      </c>
+      <c r="AC15" s="28">
+        <v>21.756700000000002</v>
+      </c>
+      <c r="AD15" s="28">
+        <v>79.652860000000004</v>
+      </c>
+      <c r="AE15" s="28">
+        <v>2.7187679999999999E-9</v>
+      </c>
+      <c r="AF15" s="28">
+        <v>21.831620000000001</v>
+      </c>
+      <c r="AG15" s="28">
+        <v>79.523650000000004</v>
+      </c>
+      <c r="AH15" s="28">
+        <v>4.5421529892484855E-6</v>
+      </c>
+      <c r="AI15" s="14">
+        <v>7.58992E-2</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>8.8696699999999993</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="B11:G13"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="T1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Algorithm Householder/Experiments.xlsx
+++ b/Algorithm Householder/Experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BEB545-3474-4E91-90AB-A935B527819E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89091F-ACD5-4381-ABE1-DA3C5D43D852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -313,12 +313,6 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,7 +322,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1400,46 +1403,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$O$3:$O$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.120001E-6</c:v>
+                  <c:v>6.919999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7599999999999998E-6</c:v>
+                  <c:v>1.1410000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7400019999999992E-6</c:v>
+                  <c:v>2.5640000000000005E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9149999999999998E-5</c:v>
+                  <c:v>3.3521000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9171E-4</c:v>
+                  <c:v>1.0896E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.609592E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6687760000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33855050000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63249889999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6249650000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.7008430000000008</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.740089999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44.29936</c:v>
+                  <c:v>1.4110639999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.4743800000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.25484639999999997</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.5122625999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.2365839999999997</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.117915</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>18.649909999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>36.565150000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,46 +1545,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$R$3:$R$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.4699999999999996E-6</c:v>
+                  <c:v>1.1239999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7599979999999998E-6</c:v>
+                  <c:v>1.473E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9100020000000005E-6</c:v>
+                  <c:v>3.0189999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4006000000000001E-4</c:v>
+                  <c:v>2.8690999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7881000000000005E-4</c:v>
+                  <c:v>1.0687800000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7608140000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2834219999999986E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.31264560000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63480209999999981</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6290459999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.7610339999999987</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.710339999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44.572830000000003</c:v>
+                  <c:v>1.6325970000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>6.5890690000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.27218419999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.73182130000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.8756060000000003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.2290880000000008</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>17.369309999999995</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>33.333569999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,46 +1687,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$U$3:$U$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.2600059999999997E-6</c:v>
+                  <c:v>3.2749999999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6199989999999997E-6</c:v>
+                  <c:v>5.3819999999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9500059999999995E-6</c:v>
+                  <c:v>1.1175000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4360000000000011E-5</c:v>
+                  <c:v>8.3829000000000022E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4771999999999996E-4</c:v>
+                  <c:v>2.0374899999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.794401E-2</c:v>
+                  <c:v>9.0521800000000017E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8489569999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.30163669999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63593889999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.52928</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8419169999999987</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.766350000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44.667970000000004</c:v>
+                  <c:v>4.6474420000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.18638120000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.5028284999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.1828219999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>5.9228770000000006</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>12.646220000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>23.238320000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,46 +1827,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$AA$3:$AA$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.0999639999999996E-7</c:v>
+                  <c:v>3.0499989999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4000339999999997E-7</c:v>
+                  <c:v>7.5200010000000011E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3700010000000003E-6</c:v>
+                  <c:v>3.3259999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1812000000000003E-4</c:v>
+                  <c:v>7.2235000000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5351000000000003E-4</c:v>
+                  <c:v>3.4249500000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4649540000000001E-2</c:v>
+                  <c:v>4.2939479999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12496720000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.55251190000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3628770000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1815389999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.621970000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45.975350000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.95147</c:v>
+                  <c:v>0.1789019</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.66194819999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.3700399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4.856001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>12.632060000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>24.99952</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>45.377389999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,46 +1967,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$AD$3:$AD$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.9000209999999997E-7</c:v>
+                  <c:v>5.800002E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7999800000000011E-7</c:v>
+                  <c:v>1.6150001000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.370007E-6</c:v>
+                  <c:v>4.0050000000000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0332000000000002E-4</c:v>
+                  <c:v>8.5723000000000017E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1780000000000015E-4</c:v>
+                  <c:v>3.6196499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4632520000000001E-2</c:v>
+                  <c:v>4.3477560000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12540630000000003</c:v>
+                  <c:v>0.1965684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56493300000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3576319999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1876129999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.852979999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46.538499999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.652860000000004</c:v>
+                  <c:v>0.63039409999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.2982562000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4.1077870000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>11.43919</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>21.586729999999996</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>41.336640000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,46 +2109,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$AG$3:$AG$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.7000200000000001E-7</c:v>
+                  <c:v>1.963E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5000059999999988E-7</c:v>
+                  <c:v>6.1250000000000012E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4299920000000001E-6</c:v>
+                  <c:v>2.7155000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0266E-4</c:v>
+                  <c:v>3.3412400000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2500999999999994E-4</c:v>
+                  <c:v>4.8811200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.476863E-2</c:v>
+                  <c:v>6.9928220000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.128247</c:v>
+                  <c:v>0.1827116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55120809999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3233770000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1198959999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.614809999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46.211600000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.523650000000004</c:v>
+                  <c:v>0.58844629999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.2345492999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.469706</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.7571890000000003</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>15.405520000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>27.014530000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,7 +2449,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9427,46 +9430,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$W$3:$W$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.3700040000000006E-6</c:v>
+                  <c:v>4.6800019999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6800000000000001E-6</c:v>
+                  <c:v>4.8600009999999994E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6200010000000006E-6</c:v>
+                  <c:v>1.0319998999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3286E-4</c:v>
+                  <c:v>1.1903E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7864999999999996E-4</c:v>
+                  <c:v>9.7207999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1872329999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9938730000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4330291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88128039999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8919389999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6304030000000012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.89101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.22974</c:v>
+                  <c:v>3.5323069999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.13088168</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.58468699999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.1957195999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.7887729999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>9.1504509999999986</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>17.561529999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>29.97176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10656,46 +10659,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$X$3:$X$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.6599991999999998E-6</c:v>
+                  <c:v>2.9999999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7000079999999999E-7</c:v>
+                  <c:v>4.4000129999999997E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3700009999999998E-6</c:v>
+                  <c:v>1.6299999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.081E-4</c:v>
+                  <c:v>1.0806000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2134000000000005E-4</c:v>
+                  <c:v>8.3953000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4707500000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12727209999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.55811749999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3602050000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1658919999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.692879999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46.660519999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>81.227459999999994</c:v>
+                  <c:v>3.9886820000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.1690777</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.71035500000000007</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.6797080000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>7.156426999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>23.013559999999995</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>48.84066</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>84.268640000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11339,46 +11342,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$N$3:$N$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.4300010000000008E-6</c:v>
+                  <c:v>1.8744E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7699980000000002E-6</c:v>
+                  <c:v>2.2151599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5599989999999989E-6</c:v>
+                  <c:v>3.4049099999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4334999999999998E-4</c:v>
+                  <c:v>2.2200900000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9630899999999998E-3</c:v>
+                  <c:v>8.5880399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0619999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23116529999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2519560000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5655100000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.6652919999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37.176949999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79.423489999999987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>146.41810000000001</c:v>
+                  <c:v>4.3317960000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.22705920000000002</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.1577434000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.3490009999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>8.7477669999999996</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>31.22833</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>66.197389999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>121.63929999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11481,46 +11484,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$Q$3:$Q$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.4599969999999995E-6</c:v>
+                  <c:v>2.2040699999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9300040000000009E-6</c:v>
+                  <c:v>2.2212400000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0690003000000001E-5</c:v>
+                  <c:v>2.1360299999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2987000000000001E-4</c:v>
+                  <c:v>3.78598E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3380500000000004E-3</c:v>
+                  <c:v>5.8207500000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1528260000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21851329999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2415119999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6126169999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.843589999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37.142250000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79.598780000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>146.94260000000003</c:v>
+                  <c:v>4.3865309999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.16456659999999998</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.98459290000000022</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.6842039999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>10.65644</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>28.012829999999997</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>56.605170000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>100.54556000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11623,46 +11626,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$T$3:$T$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.2899989999999999E-6</c:v>
+                  <c:v>4.22961E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8499989999999997E-6</c:v>
+                  <c:v>2.5358500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1599998999999998E-5</c:v>
+                  <c:v>2.6921799999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3216E-4</c:v>
+                  <c:v>5.7330299999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8723999999999998E-3</c:v>
+                  <c:v>9.8301499999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6054569999999996E-2</c:v>
+                  <c:v>2.83273E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21714599999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.232132</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5304480000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.6150550000000017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38.161230000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80.609539999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>147.1497</c:v>
+                  <c:v>0.11222296000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.73469889999999993</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.053086</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>8.1639829999999982</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>20.615369999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>40.678029999999993</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>74.014060000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11763,46 +11766,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$Z$3:$Z$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6.469997E-6</c:v>
+                  <c:v>1.9126799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0199940000000002E-6</c:v>
+                  <c:v>1.7588900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2299969999999995E-6</c:v>
+                  <c:v>2.0033E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3608000000000001E-4</c:v>
+                  <c:v>2.5697899999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7244000000000009E-4</c:v>
+                  <c:v>5.557519999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.262072E-2</c:v>
+                  <c:v>4.4480800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6264020000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43411450000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86935410000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.895804</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6654229999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.790519999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.722509999999996</c:v>
+                  <c:v>0.19172850000000002</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.57611259999999997</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.8795613000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.1351260000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.7768739999999994</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>12.762960000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>21.116790000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11903,46 +11906,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$AC$3:$AC$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7.369994E-6</c:v>
+                  <c:v>2.1773299999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9200059999999998E-6</c:v>
+                  <c:v>2.1781400000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1400019999999994E-6</c:v>
+                  <c:v>3.7782599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2667000000000001E-4</c:v>
+                  <c:v>3.3599499999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4524999999999991E-4</c:v>
+                  <c:v>6.7403599999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1893500000000003E-2</c:v>
+                  <c:v>4.7962039999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10090841000000002</c:v>
+                  <c:v>0.23586990000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45077110000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86509410000000009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8875650000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6094750000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.808350000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.756700000000002</c:v>
+                  <c:v>0.68950959999999994</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.8782371000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.1061970000000003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.5261429999999994</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>12.18234</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>20.11825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12045,46 +12048,46 @@
             <c:numRef>
               <c:f>'Май 2020 - Intel'!$AF$3:$AF$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.5200030000000004E-6</c:v>
+                  <c:v>5.2675600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0099990000000007E-6</c:v>
+                  <c:v>2.3886699999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5499990000000001E-6</c:v>
+                  <c:v>2.5448800000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2571000000000001E-4</c:v>
+                  <c:v>9.1654800000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7037000000000013E-4</c:v>
+                  <c:v>1.607869E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2595710000000001E-2</c:v>
+                  <c:v>9.1109590000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10835295999999998</c:v>
+                  <c:v>0.29771599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44697759999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.87219580000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.892144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6343440000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.76601</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.831620000000001</c:v>
+                  <c:v>0.73654659999999994</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.0297418</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.2402259999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.4685149999999991</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>11.662409999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>18.679160000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12435,7 +12438,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -21723,25 +21726,25 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="29"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -22106,14 +22109,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="2">
         <v>275.92200000000003</v>
       </c>
@@ -22137,12 +22140,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -22156,12 +22159,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -22212,30 +22215,30 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="26"/>
+      <c r="O1" s="29"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -22679,14 +22682,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="8">
         <v>2.7118699999999998</v>
       </c>
@@ -22719,12 +22722,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="10">
         <v>14.2468</v>
       </c>
@@ -22757,12 +22760,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="10">
         <v>55.0503</v>
       </c>
@@ -22878,30 +22881,30 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="26"/>
+      <c r="O1" s="29"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -23345,14 +23348,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="8">
         <v>3.2033499999999999</v>
       </c>
@@ -23385,12 +23388,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="13">
         <v>16.512699999999999</v>
       </c>
@@ -23423,12 +23426,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="13">
         <v>61.728200000000001</v>
       </c>
@@ -23518,8 +23521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631FF516-5D68-4D3F-99AE-100C114DAEB5}">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23543,65 +23546,65 @@
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="26"/>
+      <c r="AJ1" s="29"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
@@ -24620,14 +24623,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="24">
         <v>2.6423430000000003</v>
       </c>
@@ -24723,12 +24726,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="24">
         <v>11.24198</v>
       </c>
@@ -24824,12 +24827,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="24">
         <v>42.456640000000007</v>
       </c>
@@ -24925,12 +24928,12 @@
       <c r="A14" s="1">
         <v>2500</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="24">
         <v>87.889690000000002</v>
       </c>
@@ -25026,12 +25029,12 @@
       <c r="A15" s="1">
         <v>3000</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="24">
         <v>156.3075</v>
       </c>
@@ -25149,8 +25152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2670713-AE24-4F9B-94BE-73817CE1C407}">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25173,68 +25176,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="30" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="26"/>
+      <c r="AJ1" s="29"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
@@ -25274,67 +25277,67 @@
       <c r="M2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="27" t="s">
         <v>30</v>
       </c>
       <c r="AI2" s="18" t="s">
@@ -25385,68 +25388,68 @@
       <c r="M3" s="5">
         <v>4.2631999999999997E-14</v>
       </c>
-      <c r="N3" s="29">
-        <v>5.4300010000000008E-6</v>
-      </c>
-      <c r="O3" s="29">
-        <v>3.120001E-6</v>
-      </c>
-      <c r="P3" s="29">
-        <v>2.6645400000000007E-14</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>5.4599969999999995E-6</v>
-      </c>
-      <c r="R3" s="28">
-        <v>2.4699999999999996E-6</v>
-      </c>
-      <c r="S3" s="28">
-        <v>4.2632599999999996E-14</v>
-      </c>
-      <c r="T3" s="28">
-        <v>5.2899989999999999E-6</v>
-      </c>
-      <c r="U3" s="28">
-        <v>2.2600059999999997E-6</v>
-      </c>
-      <c r="V3" s="28">
-        <v>3.3750799999999996E-14</v>
-      </c>
-      <c r="W3" s="28">
-        <v>4.3700040000000006E-6</v>
-      </c>
-      <c r="X3" s="28">
-        <v>1.6599991999999998E-6</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>7.1054299999999984E-15</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>6.469997E-6</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>3.0999639999999996E-7</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>2.4868999999999996E-14</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>7.369994E-6</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>2.9000209999999997E-7</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>3.1974399999999992E-14</v>
-      </c>
-      <c r="AF3" s="28">
-        <v>5.5200030000000004E-6</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>2.7000200000000001E-7</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>4.7961600000000007E-14</v>
+      <c r="N3" s="32">
+        <v>1.8744E-3</v>
+      </c>
+      <c r="O3" s="32">
+        <v>6.919999999999999E-6</v>
+      </c>
+      <c r="P3" s="26">
+        <v>3.1974399999999998E-14</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>2.2040699999999998E-3</v>
+      </c>
+      <c r="R3" s="32">
+        <v>1.1239999999999999E-5</v>
+      </c>
+      <c r="S3" s="26">
+        <v>7.3718800000000015E-14</v>
+      </c>
+      <c r="T3" s="32">
+        <v>4.22961E-3</v>
+      </c>
+      <c r="U3" s="32">
+        <v>3.2749999999999996E-5</v>
+      </c>
+      <c r="V3" s="26">
+        <v>7.6738639999999989E-14</v>
+      </c>
+      <c r="W3" s="32">
+        <v>4.6800019999999997E-6</v>
+      </c>
+      <c r="X3" s="32">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>4.9737999999999992E-14</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>1.9126799999999999E-3</v>
+      </c>
+      <c r="AA3" s="32">
+        <v>3.0499989999999998E-6</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>1.7408330000000003E-14</v>
+      </c>
+      <c r="AC3" s="32">
+        <v>2.1773299999999995E-3</v>
+      </c>
+      <c r="AD3" s="32">
+        <v>5.800002E-6</v>
+      </c>
+      <c r="AE3" s="26">
+        <v>1.2079190000000001E-14</v>
+      </c>
+      <c r="AF3" s="32">
+        <v>5.2675600000000001E-3</v>
+      </c>
+      <c r="AG3" s="32">
+        <v>1.963E-5</v>
+      </c>
+      <c r="AH3" s="26">
+        <v>5.6843400000000001E-14</v>
       </c>
       <c r="AI3" s="5">
         <v>5.1405699999999996E-7</v>
@@ -25498,68 +25501,68 @@
       <c r="M4" s="5">
         <v>1.6342500000000001E-13</v>
       </c>
-      <c r="N4" s="29">
-        <v>5.7699980000000002E-6</v>
-      </c>
-      <c r="O4" s="29">
-        <v>2.7599999999999998E-6</v>
-      </c>
-      <c r="P4" s="29">
-        <v>1.1013400000000001E-13</v>
-      </c>
-      <c r="Q4" s="28">
-        <v>5.9300040000000009E-6</v>
-      </c>
-      <c r="R4" s="28">
-        <v>2.7599979999999998E-6</v>
-      </c>
-      <c r="S4" s="28">
-        <v>1.0835791E-13</v>
-      </c>
-      <c r="T4" s="28">
-        <v>5.8499989999999997E-6</v>
-      </c>
-      <c r="U4" s="28">
-        <v>2.6199989999999997E-6</v>
-      </c>
-      <c r="V4" s="28">
-        <v>1.1990400000000001E-13</v>
-      </c>
-      <c r="W4" s="28">
-        <v>4.6800000000000001E-6</v>
-      </c>
-      <c r="X4" s="28">
-        <v>4.7000079999999999E-7</v>
-      </c>
-      <c r="Y4" s="28">
-        <v>4.5399929762484847E-5</v>
-      </c>
-      <c r="Z4" s="28">
-        <v>6.0199940000000002E-6</v>
-      </c>
-      <c r="AA4" s="28">
-        <v>4.4000339999999997E-7</v>
-      </c>
-      <c r="AB4" s="28">
-        <v>3.3750799999999996E-14</v>
-      </c>
-      <c r="AC4" s="28">
-        <v>5.9200059999999998E-6</v>
-      </c>
-      <c r="AD4" s="28">
-        <v>4.7999800000000011E-7</v>
-      </c>
-      <c r="AE4" s="28">
-        <v>6.3060700000000011E-14</v>
-      </c>
-      <c r="AF4" s="28">
-        <v>6.0099990000000007E-6</v>
-      </c>
-      <c r="AG4" s="28">
-        <v>4.5000059999999988E-7</v>
-      </c>
-      <c r="AH4" s="28">
-        <v>8.5975710000000006E-14</v>
+      <c r="N4" s="32">
+        <v>2.2151599999999999E-3</v>
+      </c>
+      <c r="O4" s="32">
+        <v>1.1410000000000001E-5</v>
+      </c>
+      <c r="P4" s="26">
+        <v>5.32907E-14</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>2.2212400000000002E-3</v>
+      </c>
+      <c r="R4" s="32">
+        <v>1.473E-5</v>
+      </c>
+      <c r="S4" s="26">
+        <v>7.9492880000000009E-14</v>
+      </c>
+      <c r="T4" s="32">
+        <v>2.5358500000000001E-3</v>
+      </c>
+      <c r="U4" s="32">
+        <v>5.3819999999999996E-5</v>
+      </c>
+      <c r="V4" s="26">
+        <v>6.0396099999999995E-14</v>
+      </c>
+      <c r="W4" s="32">
+        <v>4.8600009999999994E-6</v>
+      </c>
+      <c r="X4" s="32">
+        <v>4.4000129999999997E-7</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>5.4178900000000011E-14</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>1.7588900000000001E-3</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>7.5200010000000011E-6</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>7.1054300000000019E-14</v>
+      </c>
+      <c r="AC4" s="32">
+        <v>2.1781400000000003E-3</v>
+      </c>
+      <c r="AD4" s="32">
+        <v>1.6150001000000002E-5</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>5.6843400000000001E-14</v>
+      </c>
+      <c r="AF4" s="32">
+        <v>2.3886699999999999E-3</v>
+      </c>
+      <c r="AG4" s="32">
+        <v>6.1250000000000012E-5</v>
+      </c>
+      <c r="AH4" s="26">
+        <v>7.2830599999999984E-14</v>
       </c>
       <c r="AI4" s="5">
         <v>5.1405699999999996E-7</v>
@@ -25611,68 +25614,68 @@
       <c r="M5" s="5">
         <v>2.5989999999999998E-13</v>
       </c>
-      <c r="N5" s="29">
-        <v>9.5599989999999989E-6</v>
-      </c>
-      <c r="O5" s="29">
-        <v>7.7400019999999992E-6</v>
-      </c>
-      <c r="P5" s="29">
-        <v>2.2680510000000004E-13</v>
-      </c>
-      <c r="Q5" s="28">
-        <v>1.0690003000000001E-5</v>
-      </c>
-      <c r="R5" s="28">
-        <v>9.9100020000000005E-6</v>
-      </c>
-      <c r="S5" s="28">
-        <v>1.4654900000000002E-13</v>
-      </c>
-      <c r="T5" s="28">
-        <v>1.1599998999999998E-5</v>
-      </c>
-      <c r="U5" s="28">
-        <v>5.9500059999999995E-6</v>
-      </c>
-      <c r="V5" s="28">
-        <v>4.0577300000000001E-13</v>
-      </c>
-      <c r="W5" s="28">
-        <v>5.6200010000000006E-6</v>
-      </c>
-      <c r="X5" s="28">
-        <v>1.3700009999999998E-6</v>
-      </c>
-      <c r="Y5" s="28">
-        <v>2.6645399999999993E-13</v>
-      </c>
-      <c r="Z5" s="28">
-        <v>7.2299969999999995E-6</v>
-      </c>
-      <c r="AA5" s="28">
-        <v>1.3700010000000003E-6</v>
-      </c>
-      <c r="AB5" s="28">
-        <v>2.0339299999999999E-13</v>
-      </c>
-      <c r="AC5" s="28">
-        <v>9.1400019999999994E-6</v>
-      </c>
-      <c r="AD5" s="28">
-        <v>1.370007E-6</v>
-      </c>
-      <c r="AE5" s="28">
-        <v>2.7646730000000004E-13</v>
-      </c>
-      <c r="AF5" s="28">
-        <v>8.5499990000000001E-6</v>
-      </c>
-      <c r="AG5" s="28">
-        <v>1.4299920000000001E-6</v>
-      </c>
-      <c r="AH5" s="28">
-        <v>2.6734199999999994E-13</v>
+      <c r="N5" s="32">
+        <v>3.4049099999999997E-3</v>
+      </c>
+      <c r="O5" s="32">
+        <v>2.5640000000000005E-5</v>
+      </c>
+      <c r="P5" s="26">
+        <v>2.2382099999999997E-13</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>2.1360299999999997E-3</v>
+      </c>
+      <c r="R5" s="32">
+        <v>3.0189999999999997E-5</v>
+      </c>
+      <c r="S5" s="26">
+        <v>2.7346989999999999E-13</v>
+      </c>
+      <c r="T5" s="32">
+        <v>2.6921799999999997E-3</v>
+      </c>
+      <c r="U5" s="32">
+        <v>1.1175000000000001E-4</v>
+      </c>
+      <c r="V5" s="26">
+        <v>2.3803199999999994E-13</v>
+      </c>
+      <c r="W5" s="32">
+        <v>1.0319998999999998E-5</v>
+      </c>
+      <c r="X5" s="32">
+        <v>1.6299999999999996E-6</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>3.0264700000000001E-13</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>2.0033E-3</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>3.3259999999999997E-5</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>2.4158499999999997E-13</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>3.7782599999999999E-3</v>
+      </c>
+      <c r="AD5" s="32">
+        <v>4.0050000000000004E-5</v>
+      </c>
+      <c r="AE5" s="26">
+        <v>2.7267100000000001E-13</v>
+      </c>
+      <c r="AF5" s="32">
+        <v>2.5448800000000002E-3</v>
+      </c>
+      <c r="AG5" s="32">
+        <v>2.7155000000000001E-4</v>
+      </c>
+      <c r="AH5" s="26">
+        <v>2.3858100000000005E-13</v>
       </c>
       <c r="AI5" s="5">
         <v>5.1405699999999996E-7</v>
@@ -25724,68 +25727,68 @@
       <c r="M6" s="5">
         <v>5.6099999999999997E-12</v>
       </c>
-      <c r="N6" s="29">
-        <v>2.4334999999999998E-4</v>
-      </c>
-      <c r="O6" s="29">
-        <v>9.9149999999999998E-5</v>
-      </c>
-      <c r="P6" s="29">
-        <v>4.1416899999999995E-12</v>
-      </c>
-      <c r="Q6" s="28">
-        <v>3.2987000000000001E-4</v>
-      </c>
-      <c r="R6" s="28">
-        <v>1.4006000000000001E-4</v>
-      </c>
-      <c r="S6" s="28">
-        <v>2.1471E-12</v>
-      </c>
-      <c r="T6" s="28">
-        <v>2.3216E-4</v>
-      </c>
-      <c r="U6" s="28">
-        <v>9.4360000000000011E-5</v>
-      </c>
-      <c r="V6" s="28">
-        <v>3.4378700000000006E-12</v>
-      </c>
-      <c r="W6" s="28">
-        <v>1.3286E-4</v>
-      </c>
-      <c r="X6" s="28">
-        <v>1.081E-4</v>
-      </c>
-      <c r="Y6" s="28">
-        <v>2.3994100000000006E-12</v>
-      </c>
-      <c r="Z6" s="28">
-        <v>1.3608000000000001E-4</v>
-      </c>
-      <c r="AA6" s="28">
-        <v>1.1812000000000003E-4</v>
-      </c>
-      <c r="AB6" s="28">
-        <v>3.723239999999999E-12</v>
-      </c>
-      <c r="AC6" s="28">
-        <v>1.2667000000000001E-4</v>
-      </c>
-      <c r="AD6" s="28">
-        <v>1.0332000000000002E-4</v>
-      </c>
-      <c r="AE6" s="28">
-        <v>3.4341400000000001E-12</v>
-      </c>
-      <c r="AF6" s="28">
-        <v>1.2571000000000001E-4</v>
-      </c>
-      <c r="AG6" s="28">
-        <v>1.0266E-4</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>3.5296200000000001E-12</v>
+      <c r="N6" s="32">
+        <v>2.2200900000000005E-3</v>
+      </c>
+      <c r="O6" s="32">
+        <v>3.3521000000000001E-4</v>
+      </c>
+      <c r="P6" s="26">
+        <v>2.8252400000000002E-12</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>3.78598E-3</v>
+      </c>
+      <c r="R6" s="32">
+        <v>2.8690999999999998E-4</v>
+      </c>
+      <c r="S6" s="26">
+        <v>2.0314729999999997E-12</v>
+      </c>
+      <c r="T6" s="32">
+        <v>5.7330299999999992E-3</v>
+      </c>
+      <c r="U6" s="32">
+        <v>8.3829000000000022E-4</v>
+      </c>
+      <c r="V6" s="26">
+        <v>7.563170000000002E-12</v>
+      </c>
+      <c r="W6" s="32">
+        <v>1.1903E-4</v>
+      </c>
+      <c r="X6" s="32">
+        <v>1.0806000000000002E-4</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>2.8417299999999998E-12</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>2.5697899999999997E-3</v>
+      </c>
+      <c r="AA6" s="32">
+        <v>7.2235000000000008E-4</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>5.8946199999999982E-12</v>
+      </c>
+      <c r="AC6" s="32">
+        <v>3.3599499999999996E-3</v>
+      </c>
+      <c r="AD6" s="32">
+        <v>8.5723000000000017E-4</v>
+      </c>
+      <c r="AE6" s="26">
+        <v>2.7269299999999996E-12</v>
+      </c>
+      <c r="AF6" s="32">
+        <v>9.1654800000000002E-3</v>
+      </c>
+      <c r="AG6" s="32">
+        <v>3.3412400000000001E-3</v>
+      </c>
+      <c r="AH6" s="26">
+        <v>2.5420399999999999E-12</v>
       </c>
       <c r="AI6" s="5">
         <v>7.1967899999999996E-6</v>
@@ -25837,68 +25840,68 @@
       <c r="M7" s="5">
         <v>3.4472899999999999E-11</v>
       </c>
-      <c r="N7" s="29">
-        <v>1.9630899999999998E-3</v>
-      </c>
-      <c r="O7" s="29">
-        <v>6.9171E-4</v>
-      </c>
-      <c r="P7" s="29">
-        <v>1.6539200000000002E-11</v>
-      </c>
-      <c r="Q7" s="28">
-        <v>2.3380500000000004E-3</v>
-      </c>
-      <c r="R7" s="28">
-        <v>8.7881000000000005E-4</v>
-      </c>
-      <c r="S7" s="28">
-        <v>1.5771399999999998E-11</v>
-      </c>
-      <c r="T7" s="28">
-        <v>1.8723999999999998E-3</v>
-      </c>
-      <c r="U7" s="28">
-        <v>6.4771999999999996E-4</v>
-      </c>
-      <c r="V7" s="28">
-        <v>4.3185500000000002E-11</v>
-      </c>
-      <c r="W7" s="28">
-        <v>9.7864999999999996E-4</v>
-      </c>
-      <c r="X7" s="28">
-        <v>8.2134000000000005E-4</v>
-      </c>
-      <c r="Y7" s="28">
-        <v>8.5543800000000022E-12</v>
-      </c>
-      <c r="Z7" s="28">
-        <v>9.7244000000000009E-4</v>
-      </c>
-      <c r="AA7" s="28">
-        <v>8.5351000000000003E-4</v>
-      </c>
-      <c r="AB7" s="28">
-        <v>1.0584500000000002E-11</v>
-      </c>
-      <c r="AC7" s="28">
-        <v>9.4524999999999991E-4</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>8.1780000000000015E-4</v>
-      </c>
-      <c r="AE7" s="28">
-        <v>8.0440500000000023E-12</v>
-      </c>
-      <c r="AF7" s="28">
-        <v>9.7037000000000013E-4</v>
-      </c>
-      <c r="AG7" s="28">
-        <v>8.2500999999999994E-4</v>
-      </c>
-      <c r="AH7" s="28">
-        <v>1.1897300000000001E-11</v>
+      <c r="N7" s="32">
+        <v>8.5880399999999999E-3</v>
+      </c>
+      <c r="O7" s="32">
+        <v>1.0896E-3</v>
+      </c>
+      <c r="P7" s="26">
+        <v>3.509935E-11</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>5.8207500000000004E-3</v>
+      </c>
+      <c r="R7" s="32">
+        <v>1.0687800000000003E-3</v>
+      </c>
+      <c r="S7" s="26">
+        <v>1.52469E-11</v>
+      </c>
+      <c r="T7" s="32">
+        <v>9.8301499999999993E-3</v>
+      </c>
+      <c r="U7" s="32">
+        <v>2.0374899999999999E-3</v>
+      </c>
+      <c r="V7" s="26">
+        <v>1.8312039999999998E-11</v>
+      </c>
+      <c r="W7" s="32">
+        <v>9.7207999999999995E-4</v>
+      </c>
+      <c r="X7" s="32">
+        <v>8.3953000000000001E-4</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>1.0519352000000002E-11</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>5.557519999999999E-3</v>
+      </c>
+      <c r="AA7" s="32">
+        <v>3.4249500000000004E-3</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>9.8604990000000009E-12</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>6.7403599999999991E-3</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>3.6196499999999999E-3</v>
+      </c>
+      <c r="AE7" s="26">
+        <v>1.1254659999999998E-11</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>1.607869E-2</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>4.8811200000000001E-3</v>
+      </c>
+      <c r="AH7" s="26">
+        <v>1.4042500000000003E-11</v>
       </c>
       <c r="AI7" s="5">
         <v>3.1871500000000001E-5</v>
@@ -25950,68 +25953,68 @@
       <c r="M8" s="5">
         <v>8.5905E-11</v>
       </c>
-      <c r="N8" s="29">
-        <v>5.0619999999999998E-2</v>
-      </c>
-      <c r="O8" s="29">
-        <v>1.609592E-2</v>
-      </c>
-      <c r="P8" s="29">
-        <v>1.7009949999999998E-10</v>
-      </c>
-      <c r="Q8" s="28">
-        <v>5.1528260000000006E-2</v>
-      </c>
-      <c r="R8" s="28">
-        <v>1.7608140000000001E-2</v>
-      </c>
-      <c r="S8" s="28">
-        <v>2.0228170000000002E-10</v>
-      </c>
-      <c r="T8" s="28">
-        <v>4.6054569999999996E-2</v>
-      </c>
-      <c r="U8" s="28">
-        <v>1.794401E-2</v>
-      </c>
-      <c r="V8" s="28">
-        <v>1.8543629999999997E-10</v>
-      </c>
-      <c r="W8" s="28">
-        <v>2.1872329999999999E-2</v>
-      </c>
-      <c r="X8" s="28">
-        <v>2.4707500000000004E-2</v>
-      </c>
-      <c r="Y8" s="28">
-        <v>5.7799449999999996E-11</v>
-      </c>
-      <c r="Z8" s="28">
-        <v>2.262072E-2</v>
-      </c>
-      <c r="AA8" s="28">
-        <v>2.4649540000000001E-2</v>
-      </c>
-      <c r="AB8" s="28">
-        <v>5.500268E-11</v>
-      </c>
-      <c r="AC8" s="28">
-        <v>2.1893500000000003E-2</v>
-      </c>
-      <c r="AD8" s="28">
-        <v>2.4632520000000001E-2</v>
-      </c>
-      <c r="AE8" s="28">
-        <v>5.2251900000000005E-11</v>
-      </c>
-      <c r="AF8" s="28">
-        <v>2.2595710000000001E-2</v>
-      </c>
-      <c r="AG8" s="28">
-        <v>2.476863E-2</v>
-      </c>
-      <c r="AH8" s="28">
-        <v>7.0453799999999996E-11</v>
+      <c r="N8" s="32">
+        <v>4.3317960000000003E-2</v>
+      </c>
+      <c r="O8" s="32">
+        <v>1.4110639999999999E-2</v>
+      </c>
+      <c r="P8" s="26">
+        <v>7.2981369999999992E-11</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>4.3865309999999998E-2</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1.6325970000000002E-2</v>
+      </c>
+      <c r="S8" s="26">
+        <v>2.2919429999999999E-10</v>
+      </c>
+      <c r="T8" s="32">
+        <v>2.83273E-2</v>
+      </c>
+      <c r="U8" s="32">
+        <v>9.0521800000000017E-3</v>
+      </c>
+      <c r="V8" s="26">
+        <v>4.1068500000000001E-10</v>
+      </c>
+      <c r="W8" s="32">
+        <v>3.5323069999999998E-2</v>
+      </c>
+      <c r="X8" s="32">
+        <v>3.9886820000000003E-2</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>5.0652680000000003E-11</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>4.4480800000000001E-2</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>4.2939479999999995E-2</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>7.8898819999999985E-11</v>
+      </c>
+      <c r="AC8" s="32">
+        <v>4.7962039999999997E-2</v>
+      </c>
+      <c r="AD8" s="32">
+        <v>4.3477560000000005E-2</v>
+      </c>
+      <c r="AE8" s="26">
+        <v>6.5283979999999977E-11</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>9.1109590000000004E-2</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>6.9928220000000013E-2</v>
+      </c>
+      <c r="AH8" s="26">
+        <v>7.5284999999999989E-11</v>
       </c>
       <c r="AI8" s="5">
         <v>5.9167900000000001E-4</v>
@@ -26063,68 +26066,68 @@
       <c r="M9" s="5">
         <v>4.4542200000000002E-10</v>
       </c>
-      <c r="N9" s="29">
-        <v>0.23116529999999996</v>
-      </c>
-      <c r="O9" s="29">
-        <v>7.6687760000000008E-2</v>
-      </c>
-      <c r="P9" s="29">
-        <v>3.6725100000000011E-10</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>0.21851329999999997</v>
-      </c>
-      <c r="R9" s="28">
-        <v>8.2834219999999986E-2</v>
-      </c>
-      <c r="S9" s="28">
-        <v>6.1423520000000006E-10</v>
-      </c>
-      <c r="T9" s="28">
-        <v>0.21714599999999998</v>
-      </c>
-      <c r="U9" s="28">
-        <v>7.8489569999999995E-2</v>
-      </c>
-      <c r="V9" s="28">
-        <v>4.1784780000000003E-10</v>
-      </c>
-      <c r="W9" s="28">
-        <v>9.9938730000000003E-2</v>
-      </c>
-      <c r="X9" s="28">
-        <v>0.12727209999999997</v>
-      </c>
-      <c r="Y9" s="28">
-        <v>1.4210189999999999E-10</v>
-      </c>
-      <c r="Z9" s="28">
-        <v>9.6264020000000006E-2</v>
-      </c>
-      <c r="AA9" s="28">
-        <v>0.12496720000000001</v>
-      </c>
-      <c r="AB9" s="28">
-        <v>1.4916320000000002E-10</v>
-      </c>
-      <c r="AC9" s="28">
-        <v>0.10090841000000002</v>
-      </c>
-      <c r="AD9" s="28">
-        <v>0.12540630000000003</v>
-      </c>
-      <c r="AE9" s="28">
-        <v>1.585499E-10</v>
-      </c>
-      <c r="AF9" s="28">
-        <v>0.10835295999999998</v>
-      </c>
-      <c r="AG9" s="28">
-        <v>0.128247</v>
-      </c>
-      <c r="AH9" s="28">
-        <v>1.6190369999999999E-10</v>
+      <c r="N9" s="26">
+        <v>0.22705920000000002</v>
+      </c>
+      <c r="O9" s="26">
+        <v>8.4743800000000008E-2</v>
+      </c>
+      <c r="P9" s="26">
+        <v>1.1566414000000001E-9</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>0.16456659999999998</v>
+      </c>
+      <c r="R9" s="26">
+        <v>6.5890690000000002E-2</v>
+      </c>
+      <c r="S9" s="26">
+        <v>1.0904211E-9</v>
+      </c>
+      <c r="T9" s="32">
+        <v>0.11222296000000001</v>
+      </c>
+      <c r="U9" s="32">
+        <v>4.6474420000000002E-2</v>
+      </c>
+      <c r="V9" s="26">
+        <v>1.0800072999999998E-9</v>
+      </c>
+      <c r="W9" s="26">
+        <v>0.13088168</v>
+      </c>
+      <c r="X9" s="26">
+        <v>0.1690777</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>1.1933576000000001E-10</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>0.19172850000000002</v>
+      </c>
+      <c r="AA9" s="32">
+        <v>0.1789019</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>1.3201022000000004E-10</v>
+      </c>
+      <c r="AC9" s="32">
+        <v>0.23586990000000002</v>
+      </c>
+      <c r="AD9" s="32">
+        <v>0.1965684</v>
+      </c>
+      <c r="AE9" s="26">
+        <v>9.0800922391969707E-6</v>
+      </c>
+      <c r="AF9" s="32">
+        <v>0.29771599999999998</v>
+      </c>
+      <c r="AG9" s="32">
+        <v>0.1827116</v>
+      </c>
+      <c r="AH9" s="26">
+        <v>1.3825300000000001E-10</v>
       </c>
       <c r="AI9" s="5">
         <v>7.4589600000000002E-4</v>
@@ -26176,68 +26179,68 @@
       <c r="M10" s="5">
         <v>5.2199999999999998E-9</v>
       </c>
-      <c r="N10" s="29">
-        <v>1.2519560000000001</v>
-      </c>
-      <c r="O10" s="29">
-        <v>0.33855050000000003</v>
-      </c>
-      <c r="P10" s="29">
-        <v>1.8515089E-9</v>
-      </c>
-      <c r="Q10" s="28">
-        <v>1.2415119999999999</v>
-      </c>
-      <c r="R10" s="28">
-        <v>0.31264560000000002</v>
-      </c>
-      <c r="S10" s="28">
-        <v>1.3053266E-9</v>
-      </c>
-      <c r="T10" s="28">
-        <v>1.232132</v>
-      </c>
-      <c r="U10" s="28">
-        <v>0.30163669999999998</v>
-      </c>
-      <c r="V10" s="28">
-        <v>1.7158519999999998E-9</v>
-      </c>
-      <c r="W10" s="28">
-        <v>0.4330291</v>
-      </c>
-      <c r="X10" s="28">
-        <v>0.55811749999999993</v>
-      </c>
-      <c r="Y10" s="28">
-        <v>3.3500080000000003E-10</v>
-      </c>
-      <c r="Z10" s="28">
-        <v>0.43411450000000001</v>
-      </c>
-      <c r="AA10" s="28">
-        <v>0.55251190000000006</v>
-      </c>
-      <c r="AB10" s="28">
-        <v>4.5402561094484848E-6</v>
-      </c>
-      <c r="AC10" s="28">
-        <v>0.45077110000000004</v>
-      </c>
-      <c r="AD10" s="28">
-        <v>0.56493300000000002</v>
-      </c>
-      <c r="AE10" s="28">
-        <v>3.0922280000000001E-10</v>
-      </c>
-      <c r="AF10" s="28">
-        <v>0.44697759999999997</v>
-      </c>
-      <c r="AG10" s="28">
-        <v>0.55120809999999998</v>
-      </c>
-      <c r="AH10" s="28">
-        <v>2.8673070000000002E-10</v>
+      <c r="N10" s="26">
+        <v>1.1577434000000002</v>
+      </c>
+      <c r="O10" s="26">
+        <v>0.25484639999999997</v>
+      </c>
+      <c r="P10" s="26">
+        <v>1.5399759999999999E-9</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0.98459290000000022</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0.27218419999999999</v>
+      </c>
+      <c r="S10" s="26">
+        <v>1.9170836999999997E-9</v>
+      </c>
+      <c r="T10" s="26">
+        <v>0.73469889999999993</v>
+      </c>
+      <c r="U10" s="26">
+        <v>0.18638120000000002</v>
+      </c>
+      <c r="V10" s="26">
+        <v>1.4704778999999998E-9</v>
+      </c>
+      <c r="W10" s="26">
+        <v>0.58468699999999996</v>
+      </c>
+      <c r="X10" s="26">
+        <v>0.71035500000000007</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>3.6295249999999999E-10</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>0.57611259999999997</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>0.66194819999999999</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>3.0787660000000003E-10</v>
+      </c>
+      <c r="AC10" s="32">
+        <v>0.68950959999999994</v>
+      </c>
+      <c r="AD10" s="32">
+        <v>0.63039409999999996</v>
+      </c>
+      <c r="AE10" s="26">
+        <v>3.1638379999999997E-10</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>0.73654659999999994</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>0.58844629999999998</v>
+      </c>
+      <c r="AH10" s="26">
+        <v>2.7862280000000003E-10</v>
       </c>
       <c r="AI10" s="5">
         <v>2.7373499999999999E-3</v>
@@ -26253,14 +26256,14 @@
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="8">
         <v>3.2033499999999999</v>
       </c>
@@ -26279,68 +26282,68 @@
       <c r="M11" s="9">
         <v>2.1400000000000001E-9</v>
       </c>
-      <c r="N11" s="29">
-        <v>2.5655100000000002</v>
-      </c>
-      <c r="O11" s="29">
-        <v>0.63249889999999998</v>
-      </c>
-      <c r="P11" s="29">
-        <v>2.9143765000000006E-9</v>
-      </c>
-      <c r="Q11" s="28">
-        <v>2.6126169999999997</v>
-      </c>
-      <c r="R11" s="28">
-        <v>0.63480209999999981</v>
-      </c>
-      <c r="S11" s="28">
-        <v>4.3131849999999997E-9</v>
-      </c>
-      <c r="T11" s="28">
-        <v>2.5304480000000003</v>
-      </c>
-      <c r="U11" s="28">
-        <v>0.63593889999999997</v>
-      </c>
-      <c r="V11" s="28">
-        <v>4.0933749000000002E-9</v>
-      </c>
-      <c r="W11" s="28">
-        <v>0.88128039999999996</v>
-      </c>
-      <c r="X11" s="28">
-        <v>1.3602050000000001</v>
-      </c>
-      <c r="Y11" s="28">
-        <v>3.7541369999999999E-10</v>
-      </c>
-      <c r="Z11" s="28">
-        <v>0.86935410000000002</v>
-      </c>
-      <c r="AA11" s="28">
-        <v>1.3628770000000003</v>
-      </c>
-      <c r="AB11" s="28">
-        <v>4.5403893878484859E-6</v>
-      </c>
-      <c r="AC11" s="28">
-        <v>0.86509410000000009</v>
-      </c>
-      <c r="AD11" s="28">
-        <v>1.3576319999999999</v>
-      </c>
-      <c r="AE11" s="28">
-        <v>4.357253E-10</v>
-      </c>
-      <c r="AF11" s="28">
-        <v>0.87219580000000008</v>
-      </c>
-      <c r="AG11" s="28">
-        <v>1.3233770000000002</v>
-      </c>
-      <c r="AH11" s="28">
-        <v>4.1832709999999995E-10</v>
+      <c r="N11" s="26">
+        <v>2.3490009999999999</v>
+      </c>
+      <c r="O11" s="26">
+        <v>0.5122625999999999</v>
+      </c>
+      <c r="P11" s="26">
+        <v>3.2458589000000003E-9</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>2.6842039999999998</v>
+      </c>
+      <c r="R11" s="26">
+        <v>0.73182130000000001</v>
+      </c>
+      <c r="S11" s="26">
+        <v>2.7646504999999997E-9</v>
+      </c>
+      <c r="T11" s="26">
+        <v>2.053086</v>
+      </c>
+      <c r="U11" s="26">
+        <v>0.5028284999999999</v>
+      </c>
+      <c r="V11" s="26">
+        <v>3.2246596999999998E-9</v>
+      </c>
+      <c r="W11" s="26">
+        <v>1.1957195999999999</v>
+      </c>
+      <c r="X11" s="26">
+        <v>1.6797080000000002</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>3.8222330000000002E-10</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0.8795613000000001</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>1.3700399999999999</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>4.5546310000000005E-10</v>
+      </c>
+      <c r="AC11" s="26">
+        <v>0.8782371000000001</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>1.2982562000000002</v>
+      </c>
+      <c r="AE11" s="26">
+        <v>4.6893420000000005E-10</v>
+      </c>
+      <c r="AF11" s="26">
+        <v>1.0297418</v>
+      </c>
+      <c r="AG11" s="26">
+        <v>1.2345492999999998</v>
+      </c>
+      <c r="AH11" s="26">
+        <v>4.8130749999999999E-10</v>
       </c>
       <c r="AI11" s="9">
         <v>5.3112000000000003E-3</v>
@@ -26356,12 +26359,12 @@
       <c r="A12" s="1">
         <v>1500</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="13">
         <v>16.512699999999999</v>
       </c>
@@ -26380,68 +26383,68 @@
       <c r="M12" s="14">
         <v>9.1879999999999993E-9</v>
       </c>
-      <c r="N12" s="29">
-        <v>9.6652919999999991</v>
-      </c>
-      <c r="O12" s="29">
-        <v>2.6249650000000004</v>
-      </c>
-      <c r="P12" s="29">
-        <v>7.9787430000000006E-9</v>
-      </c>
-      <c r="Q12" s="28">
-        <v>9.843589999999999</v>
-      </c>
-      <c r="R12" s="28">
-        <v>2.6290459999999998</v>
-      </c>
-      <c r="S12" s="28">
-        <v>7.1632370000000005E-9</v>
-      </c>
-      <c r="T12" s="28">
-        <v>9.6150550000000017</v>
-      </c>
-      <c r="U12" s="28">
-        <v>2.52928</v>
-      </c>
-      <c r="V12" s="28">
-        <v>1.0078258E-8</v>
-      </c>
-      <c r="W12" s="28">
-        <v>2.8919389999999998</v>
-      </c>
-      <c r="X12" s="28">
-        <v>6.1658919999999995</v>
-      </c>
-      <c r="Y12" s="28">
-        <v>4.5406275037484854E-6</v>
-      </c>
-      <c r="Z12" s="28">
-        <v>2.895804</v>
-      </c>
-      <c r="AA12" s="28">
-        <v>6.1815389999999999</v>
-      </c>
-      <c r="AB12" s="28">
-        <v>8.374998000000002E-10</v>
-      </c>
-      <c r="AC12" s="28">
-        <v>2.8875650000000004</v>
-      </c>
-      <c r="AD12" s="28">
-        <v>6.1876129999999998</v>
-      </c>
-      <c r="AE12" s="28">
-        <v>8.1365770000000016E-10</v>
-      </c>
-      <c r="AF12" s="28">
-        <v>2.892144</v>
-      </c>
-      <c r="AG12" s="28">
-        <v>6.1198959999999998</v>
-      </c>
-      <c r="AH12" s="28">
-        <v>9.3933100000000022E-10</v>
+      <c r="N12" s="26">
+        <v>8.7477669999999996</v>
+      </c>
+      <c r="O12" s="26">
+        <v>2.2365839999999997</v>
+      </c>
+      <c r="P12" s="26">
+        <v>1.0376797000000001E-8</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>10.65644</v>
+      </c>
+      <c r="R12" s="26">
+        <v>2.8756060000000003</v>
+      </c>
+      <c r="S12" s="26">
+        <v>8.6382769999999999E-9</v>
+      </c>
+      <c r="T12" s="26">
+        <v>8.1639829999999982</v>
+      </c>
+      <c r="U12" s="26">
+        <v>2.1828219999999998</v>
+      </c>
+      <c r="V12" s="26">
+        <v>8.3101919999999996E-9</v>
+      </c>
+      <c r="W12" s="26">
+        <v>3.7887729999999999</v>
+      </c>
+      <c r="X12" s="26">
+        <v>7.156426999999999</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>7.6931820000000003E-10</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>3.1351260000000001</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>4.856001</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>9.0806698187969713E-6</v>
+      </c>
+      <c r="AC12" s="26">
+        <v>3.1061970000000003</v>
+      </c>
+      <c r="AD12" s="26">
+        <v>4.1077870000000001</v>
+      </c>
+      <c r="AE12" s="26">
+        <v>4.5407035051484848E-6</v>
+      </c>
+      <c r="AF12" s="26">
+        <v>3.2402259999999998</v>
+      </c>
+      <c r="AG12" s="26">
+        <v>3.469706</v>
+      </c>
+      <c r="AH12" s="26">
+        <v>7.550977E-10</v>
       </c>
       <c r="AI12" s="14">
         <v>6.8512E-3</v>
@@ -26457,12 +26460,12 @@
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="13">
         <v>61.728200000000001</v>
       </c>
@@ -26481,68 +26484,68 @@
       <c r="M13" s="14">
         <v>2.7700000000000002E-9</v>
       </c>
-      <c r="N13" s="29">
-        <v>37.176949999999998</v>
-      </c>
-      <c r="O13" s="29">
-        <v>9.7008430000000008</v>
-      </c>
-      <c r="P13" s="29">
-        <v>1.0941764000000001E-8</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>37.142250000000004</v>
-      </c>
-      <c r="R13" s="28">
-        <v>9.7610339999999987</v>
-      </c>
-      <c r="S13" s="28">
-        <v>1.5173763000000001E-8</v>
-      </c>
-      <c r="T13" s="28">
-        <v>38.161230000000003</v>
-      </c>
-      <c r="U13" s="28">
-        <v>9.8419169999999987</v>
-      </c>
-      <c r="V13" s="28">
-        <v>4.5614779802484852E-6</v>
-      </c>
-      <c r="W13" s="28">
-        <v>6.6304030000000012</v>
-      </c>
-      <c r="X13" s="28">
-        <v>20.692879999999999</v>
-      </c>
-      <c r="Y13" s="28">
-        <v>1.3171849999999999E-9</v>
-      </c>
-      <c r="Z13" s="28">
-        <v>6.6654229999999997</v>
-      </c>
-      <c r="AA13" s="28">
-        <v>20.621970000000001</v>
-      </c>
-      <c r="AB13" s="28">
-        <v>1.4840487000000003E-9</v>
-      </c>
-      <c r="AC13" s="28">
-        <v>6.6094750000000007</v>
-      </c>
-      <c r="AD13" s="28">
-        <v>20.852979999999995</v>
-      </c>
-      <c r="AE13" s="28">
-        <v>1.4166900000000004E-9</v>
-      </c>
-      <c r="AF13" s="28">
-        <v>6.6343440000000005</v>
-      </c>
-      <c r="AG13" s="28">
-        <v>20.614809999999999</v>
-      </c>
-      <c r="AH13" s="28">
-        <v>4.5409896078484859E-6</v>
+      <c r="N13" s="26">
+        <v>31.22833</v>
+      </c>
+      <c r="O13" s="26">
+        <v>8.117915</v>
+      </c>
+      <c r="P13" s="26">
+        <v>2.3245346000000005E-8</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>28.012829999999997</v>
+      </c>
+      <c r="R13" s="26">
+        <v>8.2290880000000008</v>
+      </c>
+      <c r="S13" s="26">
+        <v>2.1464722000000001E-8</v>
+      </c>
+      <c r="T13" s="26">
+        <v>20.615369999999999</v>
+      </c>
+      <c r="U13" s="26">
+        <v>5.9228770000000006</v>
+      </c>
+      <c r="V13" s="26">
+        <v>1.5251452999999998E-8</v>
+      </c>
+      <c r="W13" s="26">
+        <v>9.1504509999999986</v>
+      </c>
+      <c r="X13" s="26">
+        <v>23.013559999999995</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>1.4626701999999999E-9</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>6.7768739999999994</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>12.632060000000001</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>4.5410760992484858E-6</v>
+      </c>
+      <c r="AC13" s="26">
+        <v>6.5261429999999994</v>
+      </c>
+      <c r="AD13" s="26">
+        <v>11.43919</v>
+      </c>
+      <c r="AE13" s="26">
+        <v>1.4970725999999997E-9</v>
+      </c>
+      <c r="AF13" s="26">
+        <v>6.4685149999999991</v>
+      </c>
+      <c r="AG13" s="26">
+        <v>8.7571890000000003</v>
+      </c>
+      <c r="AH13" s="26">
+        <v>1.4040660000000001E-9</v>
       </c>
       <c r="AI13" s="14">
         <v>1.2776900000000001E-2</v>
@@ -26567,68 +26570,68 @@
       <c r="M14" s="9">
         <v>1.39248E-8</v>
       </c>
-      <c r="N14" s="29">
-        <v>79.423489999999987</v>
-      </c>
-      <c r="O14" s="29">
-        <v>21.740089999999999</v>
-      </c>
-      <c r="P14" s="29">
-        <v>3.6882339999999995E-8</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>79.598780000000005</v>
-      </c>
-      <c r="R14" s="28">
-        <v>21.710339999999995</v>
-      </c>
-      <c r="S14" s="28">
-        <v>9.1015152314969711E-6</v>
-      </c>
-      <c r="T14" s="28">
-        <v>80.609539999999996</v>
-      </c>
-      <c r="U14" s="28">
-        <v>21.766350000000003</v>
-      </c>
-      <c r="V14" s="28">
-        <v>2.7392394999999998E-8</v>
-      </c>
-      <c r="W14" s="28">
-        <v>12.89101</v>
-      </c>
-      <c r="X14" s="28">
-        <v>46.660519999999998</v>
-      </c>
-      <c r="Y14" s="28">
-        <v>2.1046369999999997E-9</v>
-      </c>
-      <c r="Z14" s="28">
-        <v>12.790519999999999</v>
-      </c>
-      <c r="AA14" s="28">
-        <v>45.975350000000006</v>
-      </c>
-      <c r="AB14" s="28">
-        <v>2.0235609999999999E-9</v>
-      </c>
-      <c r="AC14" s="28">
-        <v>12.808350000000001</v>
-      </c>
-      <c r="AD14" s="28">
-        <v>46.538499999999999</v>
-      </c>
-      <c r="AE14" s="28">
-        <v>1.8631729999999996E-9</v>
-      </c>
-      <c r="AF14" s="28">
-        <v>12.76601</v>
-      </c>
-      <c r="AG14" s="28">
-        <v>46.211600000000004</v>
-      </c>
-      <c r="AH14" s="28">
-        <v>1.8893799999999995E-9</v>
+      <c r="N14" s="26">
+        <v>66.197389999999999</v>
+      </c>
+      <c r="O14" s="26">
+        <v>18.649909999999998</v>
+      </c>
+      <c r="P14" s="26">
+        <v>3.0591019999999992E-8</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>56.605170000000001</v>
+      </c>
+      <c r="R14" s="26">
+        <v>17.369309999999995</v>
+      </c>
+      <c r="S14" s="26">
+        <v>4.5727914762484861E-6</v>
+      </c>
+      <c r="T14" s="26">
+        <v>40.678029999999993</v>
+      </c>
+      <c r="U14" s="26">
+        <v>12.646220000000001</v>
+      </c>
+      <c r="V14" s="26">
+        <v>3.0286566000000012E-8</v>
+      </c>
+      <c r="W14" s="26">
+        <v>17.561529999999998</v>
+      </c>
+      <c r="X14" s="26">
+        <v>48.84066</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>2.0209630000000001E-9</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>12.762960000000001</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>24.99952</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>1.8560840000000001E-9</v>
+      </c>
+      <c r="AC14" s="26">
+        <v>12.18234</v>
+      </c>
+      <c r="AD14" s="26">
+        <v>21.586729999999996</v>
+      </c>
+      <c r="AE14" s="26">
+        <v>2.1562249999999998E-9</v>
+      </c>
+      <c r="AF14" s="26">
+        <v>11.662409999999999</v>
+      </c>
+      <c r="AG14" s="26">
+        <v>15.405520000000001</v>
+      </c>
+      <c r="AH14" s="26">
+        <v>1.869821E-9</v>
       </c>
       <c r="AI14" s="14">
         <v>4.0725699999999997E-2</v>
@@ -26653,68 +26656,68 @@
       <c r="M15" s="9">
         <v>1.8726300000000001E-8</v>
       </c>
-      <c r="N15" s="29">
-        <v>146.41810000000001</v>
-      </c>
-      <c r="O15" s="29">
-        <v>44.29936</v>
-      </c>
-      <c r="P15" s="29">
-        <v>9.1115948654969691E-6</v>
-      </c>
-      <c r="Q15" s="28">
-        <v>146.94260000000003</v>
-      </c>
-      <c r="R15" s="28">
-        <v>44.572830000000003</v>
-      </c>
-      <c r="S15" s="28">
-        <v>9.1094634124969716E-6</v>
-      </c>
-      <c r="T15" s="28">
-        <v>147.1497</v>
-      </c>
-      <c r="U15" s="28">
-        <v>44.667970000000004</v>
-      </c>
-      <c r="V15" s="28">
-        <v>1.3649953655745458E-5</v>
-      </c>
-      <c r="W15" s="28">
-        <v>22.22974</v>
-      </c>
-      <c r="X15" s="28">
-        <v>81.227459999999994</v>
-      </c>
-      <c r="Y15" s="28">
-        <v>2.5872439999999999E-9</v>
-      </c>
-      <c r="Z15" s="28">
-        <v>21.722509999999996</v>
-      </c>
-      <c r="AA15" s="28">
-        <v>79.95147</v>
-      </c>
-      <c r="AB15" s="28">
-        <v>2.4843010000000001E-9</v>
-      </c>
-      <c r="AC15" s="28">
-        <v>21.756700000000002</v>
-      </c>
-      <c r="AD15" s="28">
-        <v>79.652860000000004</v>
-      </c>
-      <c r="AE15" s="28">
-        <v>2.7187679999999999E-9</v>
-      </c>
-      <c r="AF15" s="28">
-        <v>21.831620000000001</v>
-      </c>
-      <c r="AG15" s="28">
-        <v>79.523650000000004</v>
-      </c>
-      <c r="AH15" s="28">
-        <v>4.5421529892484855E-6</v>
+      <c r="N15" s="26">
+        <v>121.63929999999998</v>
+      </c>
+      <c r="O15" s="26">
+        <v>36.565150000000003</v>
+      </c>
+      <c r="P15" s="26">
+        <v>4.5818599662484847E-6</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>100.54556000000001</v>
+      </c>
+      <c r="R15" s="26">
+        <v>33.333569999999995</v>
+      </c>
+      <c r="S15" s="26">
+        <v>4.5732470522484861E-6</v>
+      </c>
+      <c r="T15" s="26">
+        <v>74.014060000000001</v>
+      </c>
+      <c r="U15" s="26">
+        <v>23.238320000000002</v>
+      </c>
+      <c r="V15" s="26">
+        <v>9.1178071334969717E-6</v>
+      </c>
+      <c r="W15" s="26">
+        <v>29.97176</v>
+      </c>
+      <c r="X15" s="26">
+        <v>84.268640000000005</v>
+      </c>
+      <c r="Y15" s="26">
+        <v>2.7375239999999999E-9</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>21.116790000000002</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>45.377389999999998</v>
+      </c>
+      <c r="AB15" s="26">
+        <v>2.4277909999999999E-9</v>
+      </c>
+      <c r="AC15" s="26">
+        <v>20.11825</v>
+      </c>
+      <c r="AD15" s="26">
+        <v>41.336640000000003</v>
+      </c>
+      <c r="AE15" s="26">
+        <v>2.317342E-9</v>
+      </c>
+      <c r="AF15" s="26">
+        <v>18.679160000000003</v>
+      </c>
+      <c r="AG15" s="26">
+        <v>27.014530000000001</v>
+      </c>
+      <c r="AH15" s="26">
+        <v>2.5127740000000002E-9</v>
       </c>
       <c r="AI15" s="14">
         <v>7.58992E-2</v>
@@ -26728,6 +26731,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="B11:G13"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -26735,12 +26744,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="B11:G13"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
